--- a/BackTest/2019-11-24 BackTest VET.xlsx
+++ b/BackTest/2019-11-24 BackTest VET.xlsx
@@ -486,20 +486,14 @@
         <v>5.924999999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -534,11 +528,7 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -566,20 +556,14 @@
         <v>5.959999999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.96</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -614,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -646,16 +626,18 @@
         <v>5.959999999999996</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -685,12 +667,14 @@
         <v>5.954999999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5.95</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -724,12 +708,14 @@
         <v>5.949999999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.96</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -880,14 +866,12 @@
         <v>5.919999999999996</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -921,14 +905,12 @@
         <v>5.904999999999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -962,14 +944,12 @@
         <v>5.899999999999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1003,14 +983,12 @@
         <v>5.894999999999997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1044,14 +1022,12 @@
         <v>5.884999999999997</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1124,14 +1100,12 @@
         <v>5.889999999999997</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1165,14 +1139,12 @@
         <v>5.894999999999996</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1206,14 +1178,12 @@
         <v>5.894999999999996</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1247,14 +1217,12 @@
         <v>5.884999999999995</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1288,14 +1256,12 @@
         <v>5.879999999999995</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1329,14 +1295,12 @@
         <v>5.864999999999997</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1370,14 +1334,12 @@
         <v>5.844999999999997</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1450,14 +1412,12 @@
         <v>5.869999999999997</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1491,14 +1451,12 @@
         <v>5.869999999999997</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1532,14 +1490,12 @@
         <v>5.859999999999998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1573,14 +1529,12 @@
         <v>5.849999999999996</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1614,14 +1568,12 @@
         <v>5.849999999999995</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1655,14 +1607,12 @@
         <v>5.859999999999995</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1696,14 +1646,12 @@
         <v>5.874999999999996</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1737,14 +1685,12 @@
         <v>5.884999999999994</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1778,14 +1724,12 @@
         <v>5.879999999999995</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1819,14 +1763,12 @@
         <v>5.869999999999996</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1860,14 +1802,12 @@
         <v>5.884999999999996</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1901,14 +1841,12 @@
         <v>5.899999999999997</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1942,14 +1880,12 @@
         <v>5.904999999999997</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1983,14 +1919,12 @@
         <v>5.904999999999997</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -2024,14 +1958,12 @@
         <v>5.919999999999996</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2065,14 +1997,12 @@
         <v>5.934999999999996</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.93</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2106,14 +2036,12 @@
         <v>5.934999999999995</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2147,14 +2075,12 @@
         <v>5.939999999999996</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2188,14 +2114,12 @@
         <v>5.944999999999995</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2229,14 +2153,12 @@
         <v>5.959999999999994</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2270,14 +2192,12 @@
         <v>5.974999999999994</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.98</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2311,14 +2231,12 @@
         <v>5.979999999999995</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>5.98</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2352,14 +2270,12 @@
         <v>5.984999999999994</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2393,14 +2309,12 @@
         <v>5.994999999999994</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>6</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2434,14 +2348,12 @@
         <v>5.999999999999994</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>6</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2475,14 +2387,12 @@
         <v>5.999999999999993</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>6</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2516,14 +2426,12 @@
         <v>5.999999999999993</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>6</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2557,14 +2465,12 @@
         <v>5.984999999999992</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2637,14 +2543,12 @@
         <v>5.979999999999993</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>6</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2678,14 +2582,12 @@
         <v>5.984999999999992</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2719,14 +2621,12 @@
         <v>5.994999999999992</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.01</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2760,14 +2660,12 @@
         <v>6.049999999999994</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -4676,16 +4574,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4717,7 +4617,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4752,10 +4656,12 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4783,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4853,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>

--- a/BackTest/2019-11-24 BackTest VET.xlsx
+++ b/BackTest/2019-11-24 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M292"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +445,13 @@
         <v>5.94</v>
       </c>
       <c r="F2" t="n">
-        <v>362852.4755</v>
+        <v>143251.6703</v>
       </c>
       <c r="G2" t="n">
-        <v>5.939999999999998</v>
+        <v>6.024000000000006</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="C3" t="n">
-        <v>5.91</v>
+        <v>5.94</v>
       </c>
       <c r="D3" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="E3" t="n">
-        <v>5.91</v>
+        <v>5.94</v>
       </c>
       <c r="F3" t="n">
-        <v>165700.9144</v>
+        <v>362852.4755</v>
       </c>
       <c r="G3" t="n">
-        <v>5.924999999999997</v>
+        <v>6.021500000000007</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>5.92</v>
       </c>
       <c r="C4" t="n">
-        <v>5.96</v>
+        <v>5.91</v>
       </c>
       <c r="D4" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="E4" t="n">
-        <v>5.92</v>
+        <v>5.91</v>
       </c>
       <c r="F4" t="n">
-        <v>357653.2507</v>
+        <v>165700.9144</v>
       </c>
       <c r="G4" t="n">
-        <v>5.934999999999997</v>
+        <v>6.019000000000007</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="C5" t="n">
         <v>5.96</v>
@@ -547,13 +547,13 @@
         <v>5.96</v>
       </c>
       <c r="E5" t="n">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
       <c r="F5" t="n">
-        <v>48041.5637</v>
+        <v>357653.2507</v>
       </c>
       <c r="G5" t="n">
-        <v>5.959999999999997</v>
+        <v>6.016833333333341</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="C6" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="D6" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="E6" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="F6" t="n">
-        <v>19236.3313</v>
+        <v>48041.5637</v>
       </c>
       <c r="G6" t="n">
-        <v>5.964999999999996</v>
+        <v>6.014666666666674</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,354 +608,318 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19236.3313</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.012833333333342</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>5.96</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5.95</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.96</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>5.95</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>292924.3756</v>
       </c>
-      <c r="G7" t="n">
-        <v>5.959999999999996</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="G8" t="n">
+        <v>6.011333333333341</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>878.5171</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.010000000000007</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F10" t="n">
+        <v>447380.6059</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.00833333333334</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5047.1271</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.006500000000006</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2994.3898</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.004666666666673</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2829.9587</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.002666666666673</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F14" t="n">
+        <v>44127</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.00033333333334</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>133395.1749</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.998000000000006</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F8" t="n">
-        <v>878.5171</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.954999999999997</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F9" t="n">
-        <v>447380.6059</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.949999999999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5047.1271</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.939999999999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2994.3898</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.934999999999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2829.9587</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.929999999999996</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F13" t="n">
-        <v>44127</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.919999999999996</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>133395.1749</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.904999999999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>410.64</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -965,22 +929,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="C16" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="D16" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="E16" t="n">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="F16" t="n">
-        <v>766718.6736</v>
+        <v>410.64</v>
       </c>
       <c r="G16" t="n">
-        <v>5.894999999999997</v>
+        <v>5.995500000000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1007,19 +971,19 @@
         <v>5.88</v>
       </c>
       <c r="C17" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D17" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E17" t="n">
-        <v>5.88</v>
+        <v>5.85</v>
       </c>
       <c r="F17" t="n">
-        <v>764.6931</v>
+        <v>766718.6736</v>
       </c>
       <c r="G17" t="n">
-        <v>5.884999999999997</v>
+        <v>5.992833333333338</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1043,22 +1007,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C18" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="D18" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E18" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F18" t="n">
-        <v>29167.6225</v>
+        <v>764.6931</v>
       </c>
       <c r="G18" t="n">
-        <v>5.884999999999996</v>
+        <v>5.990500000000005</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1094,10 +1058,10 @@
         <v>5.89</v>
       </c>
       <c r="F19" t="n">
-        <v>5404.7728</v>
+        <v>29167.6225</v>
       </c>
       <c r="G19" t="n">
-        <v>5.889999999999997</v>
+        <v>5.988166666666672</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1121,22 +1085,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="C20" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="D20" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="E20" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F20" t="n">
-        <v>6757.2823</v>
+        <v>5404.7728</v>
       </c>
       <c r="G20" t="n">
-        <v>5.894999999999996</v>
+        <v>5.985833333333338</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1160,22 +1124,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="C21" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="D21" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="E21" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="F21" t="n">
-        <v>2786.8158</v>
+        <v>6757.2823</v>
       </c>
       <c r="G21" t="n">
-        <v>5.894999999999996</v>
+        <v>5.983500000000005</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1199,22 +1163,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="C22" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D22" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E22" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="F22" t="n">
-        <v>63435.5195</v>
+        <v>2786.8158</v>
       </c>
       <c r="G22" t="n">
-        <v>5.884999999999995</v>
+        <v>5.981500000000005</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1250,18 +1214,20 @@
         <v>5.88</v>
       </c>
       <c r="F23" t="n">
-        <v>10484.8423</v>
+        <v>63435.5195</v>
       </c>
       <c r="G23" t="n">
-        <v>5.879999999999995</v>
+        <v>5.978833333333338</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1277,30 +1243,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C24" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="D24" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="E24" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="F24" t="n">
-        <v>861622.295</v>
+        <v>10484.8423</v>
       </c>
       <c r="G24" t="n">
-        <v>5.864999999999997</v>
+        <v>5.974333333333337</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5.88</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1316,30 +1284,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="C25" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="D25" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="E25" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="F25" t="n">
-        <v>30178.5918</v>
+        <v>861622.295</v>
       </c>
       <c r="G25" t="n">
-        <v>5.844999999999997</v>
+        <v>5.971000000000005</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5.88</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1355,22 +1325,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="C26" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="D26" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="E26" t="n">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="F26" t="n">
-        <v>190375.7137</v>
+        <v>30178.5918</v>
       </c>
       <c r="G26" t="n">
-        <v>5.854999999999998</v>
+        <v>5.967500000000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1394,7 +1364,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C27" t="n">
         <v>5.87</v>
@@ -1403,13 +1373,13 @@
         <v>5.87</v>
       </c>
       <c r="E27" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F27" t="n">
-        <v>112540.7911</v>
+        <v>190375.7137</v>
       </c>
       <c r="G27" t="n">
-        <v>5.869999999999997</v>
+        <v>5.964500000000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1448,7 +1418,7 @@
         <v>112540.7911</v>
       </c>
       <c r="G28" t="n">
-        <v>5.869999999999997</v>
+        <v>5.96166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1472,22 +1442,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="C29" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="D29" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="E29" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="F29" t="n">
-        <v>8228.405699999999</v>
+        <v>112540.7911</v>
       </c>
       <c r="G29" t="n">
-        <v>5.859999999999998</v>
+        <v>5.959000000000004</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1523,10 +1493,10 @@
         <v>5.85</v>
       </c>
       <c r="F30" t="n">
-        <v>54671.9233</v>
+        <v>8228.405699999999</v>
       </c>
       <c r="G30" t="n">
-        <v>5.849999999999996</v>
+        <v>5.955833333333337</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1562,10 +1532,10 @@
         <v>5.85</v>
       </c>
       <c r="F31" t="n">
-        <v>100000</v>
+        <v>54671.9233</v>
       </c>
       <c r="G31" t="n">
-        <v>5.849999999999995</v>
+        <v>5.952833333333339</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1589,22 +1559,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.87</v>
+        <v>5.85</v>
       </c>
       <c r="C32" t="n">
-        <v>5.87</v>
+        <v>5.85</v>
       </c>
       <c r="D32" t="n">
-        <v>5.87</v>
+        <v>5.85</v>
       </c>
       <c r="E32" t="n">
-        <v>5.87</v>
+        <v>5.85</v>
       </c>
       <c r="F32" t="n">
-        <v>414015.768</v>
+        <v>100000</v>
       </c>
       <c r="G32" t="n">
-        <v>5.859999999999995</v>
+        <v>5.949666666666672</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1628,22 +1598,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="C33" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="D33" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E33" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="F33" t="n">
-        <v>13988.4537</v>
+        <v>414015.768</v>
       </c>
       <c r="G33" t="n">
-        <v>5.874999999999996</v>
+        <v>5.946833333333339</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1667,22 +1637,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="C34" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="D34" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E34" t="n">
-        <v>5.89</v>
+        <v>5.83</v>
       </c>
       <c r="F34" t="n">
-        <v>98245.9161</v>
+        <v>13988.4537</v>
       </c>
       <c r="G34" t="n">
-        <v>5.884999999999994</v>
+        <v>5.944166666666671</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1706,22 +1676,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C35" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="D35" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E35" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F35" t="n">
-        <v>2032.5838</v>
+        <v>98245.9161</v>
       </c>
       <c r="G35" t="n">
-        <v>5.879999999999995</v>
+        <v>5.941666666666671</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1757,10 +1727,10 @@
         <v>5.87</v>
       </c>
       <c r="F36" t="n">
-        <v>3300.0432</v>
+        <v>2032.5838</v>
       </c>
       <c r="G36" t="n">
-        <v>5.869999999999996</v>
+        <v>5.938166666666671</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1784,22 +1754,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C37" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="D37" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="E37" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="F37" t="n">
-        <v>61900.5838</v>
+        <v>3300.0432</v>
       </c>
       <c r="G37" t="n">
-        <v>5.884999999999996</v>
+        <v>5.935166666666671</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1823,22 +1793,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="C38" t="n">
         <v>5.9</v>
       </c>
       <c r="D38" t="n">
-        <v>5.96</v>
+        <v>5.9</v>
       </c>
       <c r="E38" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F38" t="n">
-        <v>394929.5519</v>
+        <v>61900.5838</v>
       </c>
       <c r="G38" t="n">
-        <v>5.899999999999997</v>
+        <v>5.932666666666671</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1862,22 +1832,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="C39" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="D39" t="n">
-        <v>5.92</v>
+        <v>5.96</v>
       </c>
       <c r="E39" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="F39" t="n">
-        <v>695983.7577</v>
+        <v>394929.5519</v>
       </c>
       <c r="G39" t="n">
-        <v>5.904999999999997</v>
+        <v>5.930333333333336</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1901,22 +1871,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="C40" t="n">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="D40" t="n">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="E40" t="n">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="F40" t="n">
-        <v>10451.7146</v>
+        <v>695983.7577</v>
       </c>
       <c r="G40" t="n">
-        <v>5.904999999999997</v>
+        <v>5.927500000000004</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1940,22 +1910,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C41" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D41" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="E41" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F41" t="n">
-        <v>879.2009</v>
+        <v>10451.7146</v>
       </c>
       <c r="G41" t="n">
-        <v>5.919999999999996</v>
+        <v>5.924500000000004</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1979,22 +1949,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="C42" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="D42" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="E42" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="F42" t="n">
-        <v>6604.1317</v>
+        <v>879.2009</v>
       </c>
       <c r="G42" t="n">
-        <v>5.934999999999996</v>
+        <v>5.92316666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2018,22 +1988,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C43" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D43" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E43" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>6604.1317</v>
       </c>
       <c r="G43" t="n">
-        <v>5.934999999999995</v>
+        <v>5.92166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2069,10 +2039,10 @@
         <v>5.94</v>
       </c>
       <c r="F44" t="n">
-        <v>4908.6691</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="n">
-        <v>5.939999999999996</v>
+        <v>5.920333333333337</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2096,22 +2066,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="C45" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="D45" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="E45" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="F45" t="n">
-        <v>37383.6065</v>
+        <v>4908.6691</v>
       </c>
       <c r="G45" t="n">
-        <v>5.944999999999995</v>
+        <v>5.919333333333338</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2135,22 +2105,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="C46" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="D46" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="E46" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="F46" t="n">
-        <v>28475.7119</v>
+        <v>37383.6065</v>
       </c>
       <c r="G46" t="n">
-        <v>5.959999999999994</v>
+        <v>5.918500000000004</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2174,22 +2144,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="C47" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="D47" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="E47" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="F47" t="n">
-        <v>4950.4743</v>
+        <v>28475.7119</v>
       </c>
       <c r="G47" t="n">
-        <v>5.974999999999994</v>
+        <v>5.918333333333337</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2225,10 +2195,10 @@
         <v>5.98</v>
       </c>
       <c r="F48" t="n">
-        <v>272189.8154</v>
+        <v>4950.4743</v>
       </c>
       <c r="G48" t="n">
-        <v>5.979999999999995</v>
+        <v>5.918333333333337</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2252,22 +2222,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.99</v>
+        <v>5.98</v>
       </c>
       <c r="C49" t="n">
-        <v>5.99</v>
+        <v>5.98</v>
       </c>
       <c r="D49" t="n">
-        <v>5.99</v>
+        <v>5.98</v>
       </c>
       <c r="E49" t="n">
-        <v>5.99</v>
+        <v>5.98</v>
       </c>
       <c r="F49" t="n">
-        <v>1251.9253</v>
+        <v>272189.8154</v>
       </c>
       <c r="G49" t="n">
-        <v>5.984999999999994</v>
+        <v>5.918000000000005</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2291,22 +2261,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>1251.9253</v>
       </c>
       <c r="G50" t="n">
-        <v>5.994999999999994</v>
+        <v>5.917833333333338</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2342,10 +2312,10 @@
         <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>2224.872</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>5.999999999999994</v>
+        <v>5.918166666666671</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2381,10 +2351,10 @@
         <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>66666.6667</v>
+        <v>2224.872</v>
       </c>
       <c r="G52" t="n">
-        <v>5.999999999999993</v>
+        <v>5.918500000000004</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2420,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>19289.8694</v>
+        <v>66666.6667</v>
       </c>
       <c r="G53" t="n">
-        <v>5.999999999999993</v>
+        <v>5.919000000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2447,22 +2417,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>83300.057</v>
+        <v>19289.8694</v>
       </c>
       <c r="G54" t="n">
-        <v>5.984999999999992</v>
+        <v>5.919833333333337</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2486,22 +2456,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C55" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="D55" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="E55" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="F55" t="n">
-        <v>40941.137</v>
+        <v>83300.057</v>
       </c>
       <c r="G55" t="n">
-        <v>5.964999999999993</v>
+        <v>5.920666666666671</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2525,22 +2495,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="F56" t="n">
-        <v>40000</v>
+        <v>40941.137</v>
       </c>
       <c r="G56" t="n">
-        <v>5.979999999999993</v>
+        <v>5.921000000000004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2564,22 +2534,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>30010.2966</v>
+        <v>40000</v>
       </c>
       <c r="G57" t="n">
-        <v>5.984999999999992</v>
+        <v>5.921833333333337</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2603,22 +2573,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="C58" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="D58" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="E58" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="F58" t="n">
-        <v>31771.7464</v>
+        <v>30010.2966</v>
       </c>
       <c r="G58" t="n">
-        <v>5.994999999999992</v>
+        <v>5.921833333333337</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2642,22 +2612,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C59" t="n">
-        <v>6.08</v>
+        <v>6.02</v>
       </c>
       <c r="D59" t="n">
-        <v>6.08</v>
+        <v>6.02</v>
       </c>
       <c r="E59" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F59" t="n">
-        <v>100092.7117</v>
+        <v>31771.7464</v>
       </c>
       <c r="G59" t="n">
-        <v>6.049999999999994</v>
+        <v>5.92316666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2681,22 +2651,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="C60" t="n">
-        <v>6.1</v>
+        <v>6.08</v>
       </c>
       <c r="D60" t="n">
-        <v>6.1</v>
+        <v>6.08</v>
       </c>
       <c r="E60" t="n">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="F60" t="n">
-        <v>60000</v>
+        <v>100092.7117</v>
       </c>
       <c r="G60" t="n">
-        <v>6.089999999999995</v>
+        <v>5.925500000000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2732,10 +2702,10 @@
         <v>6.1</v>
       </c>
       <c r="F61" t="n">
-        <v>43312.2898</v>
+        <v>60000</v>
       </c>
       <c r="G61" t="n">
-        <v>6.099999999999993</v>
+        <v>5.928333333333337</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2759,22 +2729,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.11</v>
+        <v>6.1</v>
       </c>
       <c r="C62" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="D62" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="E62" t="n">
-        <v>6.11</v>
+        <v>6.1</v>
       </c>
       <c r="F62" t="n">
-        <v>16411.9297</v>
+        <v>43312.2898</v>
       </c>
       <c r="G62" t="n">
-        <v>6.109999999999993</v>
+        <v>5.931000000000004</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2798,22 +2768,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="C63" t="n">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
       <c r="D63" t="n">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
       <c r="E63" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="F63" t="n">
-        <v>821454.816</v>
+        <v>16411.9297</v>
       </c>
       <c r="G63" t="n">
-        <v>6.159999999999994</v>
+        <v>5.934000000000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2837,22 +2807,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C64" t="n">
         <v>6.2</v>
       </c>
-      <c r="C64" t="n">
-        <v>6.22</v>
-      </c>
       <c r="D64" t="n">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="E64" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="F64" t="n">
-        <v>9146.015434405144</v>
+        <v>821454.816</v>
       </c>
       <c r="G64" t="n">
-        <v>6.209999999999994</v>
+        <v>5.938833333333337</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2876,22 +2846,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.21</v>
+        <v>6.2</v>
       </c>
       <c r="C65" t="n">
-        <v>6.21</v>
+        <v>6.22</v>
       </c>
       <c r="D65" t="n">
-        <v>6.21</v>
+        <v>6.22</v>
       </c>
       <c r="E65" t="n">
-        <v>6.21</v>
+        <v>6.2</v>
       </c>
       <c r="F65" t="n">
-        <v>4402.254428341384</v>
+        <v>9146.015434405144</v>
       </c>
       <c r="G65" t="n">
-        <v>6.214999999999995</v>
+        <v>5.943166666666671</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2915,22 +2885,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="C66" t="n">
-        <v>6.18</v>
+        <v>6.21</v>
       </c>
       <c r="D66" t="n">
-        <v>6.18</v>
+        <v>6.21</v>
       </c>
       <c r="E66" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="F66" t="n">
-        <v>727055.4917</v>
+        <v>4402.254428341384</v>
       </c>
       <c r="G66" t="n">
-        <v>6.194999999999995</v>
+        <v>5.947333333333337</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2954,22 +2924,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="C67" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="D67" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="E67" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="F67" t="n">
-        <v>7470</v>
+        <v>727055.4917</v>
       </c>
       <c r="G67" t="n">
-        <v>6.184999999999995</v>
+        <v>5.950833333333337</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3005,10 +2975,10 @@
         <v>6.19</v>
       </c>
       <c r="F68" t="n">
-        <v>2796.0698</v>
+        <v>7470</v>
       </c>
       <c r="G68" t="n">
-        <v>6.189999999999996</v>
+        <v>5.954833333333338</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3032,22 +3002,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="C69" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="D69" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="E69" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="F69" t="n">
-        <v>7470</v>
+        <v>2796.0698</v>
       </c>
       <c r="G69" t="n">
-        <v>6.179999999999994</v>
+        <v>5.958666666666671</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3071,22 +3041,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.15</v>
+        <v>6.17</v>
       </c>
       <c r="C70" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="D70" t="n">
-        <v>6.15</v>
+        <v>6.17</v>
       </c>
       <c r="E70" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="F70" t="n">
-        <v>393005.8677</v>
+        <v>7470</v>
       </c>
       <c r="G70" t="n">
-        <v>6.149999999999993</v>
+        <v>5.962500000000005</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3110,22 +3080,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="C71" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="D71" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E71" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="F71" t="n">
-        <v>115805.8185</v>
+        <v>393005.8677</v>
       </c>
       <c r="G71" t="n">
-        <v>6.144999999999993</v>
+        <v>5.965666666666672</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3149,22 +3119,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.19</v>
+        <v>6.16</v>
       </c>
       <c r="C72" t="n">
-        <v>6.3</v>
+        <v>6.16</v>
       </c>
       <c r="D72" t="n">
-        <v>6.3</v>
+        <v>6.16</v>
       </c>
       <c r="E72" t="n">
-        <v>6.19</v>
+        <v>6.16</v>
       </c>
       <c r="F72" t="n">
-        <v>254969.5079</v>
+        <v>115805.8185</v>
       </c>
       <c r="G72" t="n">
-        <v>6.229999999999993</v>
+        <v>5.969500000000005</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3188,7 +3158,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.3</v>
+        <v>6.19</v>
       </c>
       <c r="C73" t="n">
         <v>6.3</v>
@@ -3197,13 +3167,13 @@
         <v>6.3</v>
       </c>
       <c r="E73" t="n">
-        <v>6.3</v>
+        <v>6.19</v>
       </c>
       <c r="F73" t="n">
-        <v>79365.0794</v>
+        <v>254969.5079</v>
       </c>
       <c r="G73" t="n">
-        <v>6.299999999999994</v>
+        <v>5.975666666666672</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3239,10 +3209,10 @@
         <v>6.3</v>
       </c>
       <c r="F74" t="n">
-        <v>15341.1082</v>
+        <v>79365.0794</v>
       </c>
       <c r="G74" t="n">
-        <v>6.299999999999994</v>
+        <v>5.982166666666672</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3266,22 +3236,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="C75" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="D75" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="E75" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="F75" t="n">
-        <v>550077.638</v>
+        <v>15341.1082</v>
       </c>
       <c r="G75" t="n">
-        <v>6.284999999999993</v>
+        <v>5.988833333333338</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3305,22 +3275,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.29</v>
+        <v>6.27</v>
       </c>
       <c r="C76" t="n">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="D76" t="n">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="E76" t="n">
-        <v>6.29</v>
+        <v>6.27</v>
       </c>
       <c r="F76" t="n">
-        <v>4542.266</v>
+        <v>550077.638</v>
       </c>
       <c r="G76" t="n">
-        <v>6.284999999999993</v>
+        <v>5.995000000000005</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3344,22 +3314,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.24</v>
+        <v>6.29</v>
       </c>
       <c r="C77" t="n">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="D77" t="n">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="E77" t="n">
-        <v>6.24</v>
+        <v>6.29</v>
       </c>
       <c r="F77" t="n">
-        <v>15523.0235</v>
+        <v>4542.266</v>
       </c>
       <c r="G77" t="n">
-        <v>6.289999999999994</v>
+        <v>6.001833333333339</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3383,22 +3353,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="C78" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E78" t="n">
         <v>6.24</v>
       </c>
-      <c r="D78" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6.23</v>
-      </c>
       <c r="F78" t="n">
-        <v>80000</v>
+        <v>15523.0235</v>
       </c>
       <c r="G78" t="n">
-        <v>6.259999999999993</v>
+        <v>6.008500000000006</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3422,22 +3392,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.29</v>
+        <v>6.23</v>
       </c>
       <c r="C79" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="D79" t="n">
-        <v>6.29</v>
+        <v>6.24</v>
       </c>
       <c r="E79" t="n">
-        <v>6.25</v>
+        <v>6.23</v>
       </c>
       <c r="F79" t="n">
-        <v>19395.5269</v>
+        <v>80000</v>
       </c>
       <c r="G79" t="n">
-        <v>6.244999999999992</v>
+        <v>6.014333333333339</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3461,22 +3431,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.26</v>
+        <v>6.29</v>
       </c>
       <c r="C80" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="D80" t="n">
-        <v>6.26</v>
+        <v>6.29</v>
       </c>
       <c r="E80" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="F80" t="n">
-        <v>40000</v>
+        <v>19395.5269</v>
       </c>
       <c r="G80" t="n">
-        <v>6.244999999999991</v>
+        <v>6.02033333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3500,22 +3470,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="C81" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="D81" t="n">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="E81" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="F81" t="n">
-        <v>795.3713</v>
+        <v>40000</v>
       </c>
       <c r="G81" t="n">
-        <v>6.24499999999999</v>
+        <v>6.026000000000007</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3551,10 +3521,10 @@
         <v>6.25</v>
       </c>
       <c r="F82" t="n">
-        <v>9204.628699999999</v>
+        <v>795.3713</v>
       </c>
       <c r="G82" t="n">
-        <v>6.24999999999999</v>
+        <v>6.032000000000007</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3578,22 +3548,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.22</v>
+        <v>6.25</v>
       </c>
       <c r="C83" t="n">
-        <v>6.21</v>
+        <v>6.25</v>
       </c>
       <c r="D83" t="n">
-        <v>6.22</v>
+        <v>6.25</v>
       </c>
       <c r="E83" t="n">
-        <v>6.21</v>
+        <v>6.25</v>
       </c>
       <c r="F83" t="n">
-        <v>50000</v>
+        <v>9204.628699999999</v>
       </c>
       <c r="G83" t="n">
-        <v>6.22999999999999</v>
+        <v>6.038166666666673</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3617,22 +3587,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C84" t="n">
         <v>6.21</v>
       </c>
-      <c r="C84" t="n">
-        <v>6.25</v>
-      </c>
       <c r="D84" t="n">
-        <v>6.25</v>
+        <v>6.22</v>
       </c>
       <c r="E84" t="n">
         <v>6.21</v>
       </c>
       <c r="F84" t="n">
-        <v>519680.8604</v>
+        <v>50000</v>
       </c>
       <c r="G84" t="n">
-        <v>6.22999999999999</v>
+        <v>6.043666666666673</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3656,7 +3626,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.25</v>
+        <v>6.21</v>
       </c>
       <c r="C85" t="n">
         <v>6.25</v>
@@ -3665,13 +3635,13 @@
         <v>6.25</v>
       </c>
       <c r="E85" t="n">
-        <v>6.25</v>
+        <v>6.21</v>
       </c>
       <c r="F85" t="n">
-        <v>87500.3882</v>
+        <v>519680.8604</v>
       </c>
       <c r="G85" t="n">
-        <v>6.249999999999989</v>
+        <v>6.05033333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3695,22 +3665,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="C86" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="D86" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="E86" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="F86" t="n">
-        <v>32370.265</v>
+        <v>87500.3882</v>
       </c>
       <c r="G86" t="n">
-        <v>6.24499999999999</v>
+        <v>6.057166666666673</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3734,22 +3704,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.22</v>
+        <v>6.24</v>
       </c>
       <c r="C87" t="n">
-        <v>6.22</v>
+        <v>6.24</v>
       </c>
       <c r="D87" t="n">
-        <v>6.22</v>
+        <v>6.24</v>
       </c>
       <c r="E87" t="n">
-        <v>6.22</v>
+        <v>6.24</v>
       </c>
       <c r="F87" t="n">
-        <v>6687.4758</v>
+        <v>32370.265</v>
       </c>
       <c r="G87" t="n">
-        <v>6.22999999999999</v>
+        <v>6.063333333333341</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3785,10 +3755,10 @@
         <v>6.22</v>
       </c>
       <c r="F88" t="n">
-        <v>116664.2573</v>
+        <v>6687.4758</v>
       </c>
       <c r="G88" t="n">
-        <v>6.219999999999989</v>
+        <v>6.069166666666674</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3824,10 +3794,10 @@
         <v>6.22</v>
       </c>
       <c r="F89" t="n">
-        <v>42450.8172</v>
+        <v>116664.2573</v>
       </c>
       <c r="G89" t="n">
-        <v>6.21999999999999</v>
+        <v>6.075000000000007</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3863,10 +3833,10 @@
         <v>6.22</v>
       </c>
       <c r="F90" t="n">
-        <v>23263</v>
+        <v>42450.8172</v>
       </c>
       <c r="G90" t="n">
-        <v>6.21999999999999</v>
+        <v>6.081166666666674</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3902,10 +3872,10 @@
         <v>6.22</v>
       </c>
       <c r="F91" t="n">
-        <v>71515.2396</v>
+        <v>23263</v>
       </c>
       <c r="G91" t="n">
-        <v>6.21999999999999</v>
+        <v>6.087333333333341</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3929,22 +3899,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.26</v>
+        <v>6.22</v>
       </c>
       <c r="C92" t="n">
-        <v>6.26</v>
+        <v>6.22</v>
       </c>
       <c r="D92" t="n">
-        <v>6.26</v>
+        <v>6.22</v>
       </c>
       <c r="E92" t="n">
-        <v>6.26</v>
+        <v>6.22</v>
       </c>
       <c r="F92" t="n">
-        <v>81.09820000000001</v>
+        <v>71515.2396</v>
       </c>
       <c r="G92" t="n">
-        <v>6.239999999999991</v>
+        <v>6.093500000000008</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3968,22 +3938,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="C93" t="n">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="D93" t="n">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="E93" t="n">
-        <v>6.23</v>
+        <v>6.26</v>
       </c>
       <c r="F93" t="n">
-        <v>896990.8061</v>
+        <v>81.09820000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>6.264999999999992</v>
+        <v>6.100000000000008</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4007,22 +3977,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.28</v>
+        <v>6.27</v>
       </c>
       <c r="C94" t="n">
-        <v>6.28</v>
+        <v>6.27</v>
       </c>
       <c r="D94" t="n">
-        <v>6.28</v>
+        <v>6.27</v>
       </c>
       <c r="E94" t="n">
-        <v>6.28</v>
+        <v>6.23</v>
       </c>
       <c r="F94" t="n">
-        <v>5438.7309</v>
+        <v>896990.8061</v>
       </c>
       <c r="G94" t="n">
-        <v>6.274999999999992</v>
+        <v>6.106500000000008</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4046,22 +4016,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.27</v>
+        <v>6.28</v>
       </c>
       <c r="C95" t="n">
-        <v>6.27</v>
+        <v>6.28</v>
       </c>
       <c r="D95" t="n">
-        <v>6.27</v>
+        <v>6.28</v>
       </c>
       <c r="E95" t="n">
-        <v>6.27</v>
+        <v>6.28</v>
       </c>
       <c r="F95" t="n">
-        <v>7180</v>
+        <v>5438.7309</v>
       </c>
       <c r="G95" t="n">
-        <v>6.274999999999993</v>
+        <v>6.113000000000008</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4094,13 +4064,13 @@
         <v>6.27</v>
       </c>
       <c r="E96" t="n">
-        <v>6.26</v>
+        <v>6.27</v>
       </c>
       <c r="F96" t="n">
-        <v>424766.4545</v>
+        <v>7180</v>
       </c>
       <c r="G96" t="n">
-        <v>6.269999999999992</v>
+        <v>6.119666666666673</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4133,13 +4103,13 @@
         <v>6.27</v>
       </c>
       <c r="E97" t="n">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="F97" t="n">
-        <v>9540.7485</v>
+        <v>424766.4545</v>
       </c>
       <c r="G97" t="n">
-        <v>6.269999999999992</v>
+        <v>6.126333333333339</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4175,10 +4145,10 @@
         <v>6.27</v>
       </c>
       <c r="F98" t="n">
-        <v>67925.24950000001</v>
+        <v>9540.7485</v>
       </c>
       <c r="G98" t="n">
-        <v>6.269999999999992</v>
+        <v>6.132500000000007</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4202,22 +4172,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.29</v>
+        <v>6.27</v>
       </c>
       <c r="C99" t="n">
-        <v>6.29</v>
+        <v>6.27</v>
       </c>
       <c r="D99" t="n">
-        <v>6.29</v>
+        <v>6.27</v>
       </c>
       <c r="E99" t="n">
-        <v>6.29</v>
+        <v>6.27</v>
       </c>
       <c r="F99" t="n">
-        <v>2068.998410174881</v>
+        <v>67925.24950000001</v>
       </c>
       <c r="G99" t="n">
-        <v>6.279999999999992</v>
+        <v>6.138666666666674</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4241,22 +4211,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.3</v>
+        <v>6.29</v>
       </c>
       <c r="C100" t="n">
-        <v>6.3</v>
+        <v>6.29</v>
       </c>
       <c r="D100" t="n">
-        <v>6.3</v>
+        <v>6.29</v>
       </c>
       <c r="E100" t="n">
-        <v>6.3</v>
+        <v>6.29</v>
       </c>
       <c r="F100" t="n">
-        <v>314839.4394</v>
+        <v>2068.998410174881</v>
       </c>
       <c r="G100" t="n">
-        <v>6.294999999999993</v>
+        <v>6.145000000000007</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4292,10 +4262,10 @@
         <v>6.3</v>
       </c>
       <c r="F101" t="n">
-        <v>15394.691</v>
+        <v>314839.4394</v>
       </c>
       <c r="G101" t="n">
-        <v>6.299999999999994</v>
+        <v>6.151666666666673</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4319,22 +4289,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.34</v>
+        <v>6.3</v>
       </c>
       <c r="C102" t="n">
-        <v>6.37</v>
+        <v>6.3</v>
       </c>
       <c r="D102" t="n">
-        <v>6.37</v>
+        <v>6.3</v>
       </c>
       <c r="E102" t="n">
-        <v>6.34</v>
+        <v>6.3</v>
       </c>
       <c r="F102" t="n">
-        <v>77462.1663</v>
+        <v>15394.691</v>
       </c>
       <c r="G102" t="n">
-        <v>6.334999999999994</v>
+        <v>6.157666666666674</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4358,7 +4328,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.36</v>
+        <v>6.34</v>
       </c>
       <c r="C103" t="n">
         <v>6.37</v>
@@ -4367,13 +4337,13 @@
         <v>6.37</v>
       </c>
       <c r="E103" t="n">
-        <v>6.36</v>
+        <v>6.34</v>
       </c>
       <c r="F103" t="n">
-        <v>13543.6963</v>
+        <v>77462.1663</v>
       </c>
       <c r="G103" t="n">
-        <v>6.369999999999994</v>
+        <v>6.165000000000007</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4397,22 +4367,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="C104" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="D104" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="E104" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="F104" t="n">
-        <v>277055.8448</v>
+        <v>13543.6963</v>
       </c>
       <c r="G104" t="n">
-        <v>6.374999999999993</v>
+        <v>6.172166666666674</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4436,22 +4406,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="C105" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D105" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="E105" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="F105" t="n">
-        <v>4204.0487</v>
+        <v>277055.8448</v>
       </c>
       <c r="G105" t="n">
-        <v>6.384999999999993</v>
+        <v>6.179500000000007</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4475,22 +4445,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="C106" t="n">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="D106" t="n">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="E106" t="n">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="F106" t="n">
-        <v>50000</v>
+        <v>4204.0487</v>
       </c>
       <c r="G106" t="n">
-        <v>6.394999999999994</v>
+        <v>6.186833333333341</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4517,19 +4487,19 @@
         <v>6.4</v>
       </c>
       <c r="C107" t="n">
-        <v>6.42</v>
+        <v>6.4</v>
       </c>
       <c r="D107" t="n">
-        <v>6.42</v>
+        <v>6.4</v>
       </c>
       <c r="E107" t="n">
         <v>6.4</v>
       </c>
       <c r="F107" t="n">
-        <v>953021.5458</v>
+        <v>50000</v>
       </c>
       <c r="G107" t="n">
-        <v>6.409999999999993</v>
+        <v>6.194000000000006</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4553,22 +4523,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.49</v>
+        <v>6.4</v>
       </c>
       <c r="C108" t="n">
-        <v>6.6</v>
+        <v>6.42</v>
       </c>
       <c r="D108" t="n">
-        <v>6.6</v>
+        <v>6.42</v>
       </c>
       <c r="E108" t="n">
-        <v>6.49</v>
+        <v>6.4</v>
       </c>
       <c r="F108" t="n">
-        <v>945902.1492</v>
+        <v>953021.5458</v>
       </c>
       <c r="G108" t="n">
-        <v>6.509999999999994</v>
+        <v>6.20133333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4592,22 +4562,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.59</v>
+        <v>6.49</v>
       </c>
       <c r="C109" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="D109" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="E109" t="n">
-        <v>6.59</v>
+        <v>6.49</v>
       </c>
       <c r="F109" t="n">
-        <v>93392.78509999999</v>
+        <v>945902.1492</v>
       </c>
       <c r="G109" t="n">
-        <v>6.594999999999993</v>
+        <v>6.211666666666673</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4631,22 +4601,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.55</v>
+        <v>6.59</v>
       </c>
       <c r="C110" t="n">
-        <v>6.55</v>
+        <v>6.59</v>
       </c>
       <c r="D110" t="n">
-        <v>6.55</v>
+        <v>6.59</v>
       </c>
       <c r="E110" t="n">
-        <v>6.55</v>
+        <v>6.59</v>
       </c>
       <c r="F110" t="n">
-        <v>93820.0383</v>
+        <v>93392.78509999999</v>
       </c>
       <c r="G110" t="n">
-        <v>6.569999999999992</v>
+        <v>6.221666666666673</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4668,22 +4638,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.51</v>
+        <v>6.55</v>
       </c>
       <c r="C111" t="n">
-        <v>6.48</v>
+        <v>6.55</v>
       </c>
       <c r="D111" t="n">
-        <v>6.56</v>
+        <v>6.55</v>
       </c>
       <c r="E111" t="n">
-        <v>6.48</v>
+        <v>6.55</v>
       </c>
       <c r="F111" t="n">
-        <v>976723.5286</v>
+        <v>93820.0383</v>
       </c>
       <c r="G111" t="n">
-        <v>6.514999999999992</v>
+        <v>6.230833333333339</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4703,28 +4673,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C112" t="n">
         <v>6.48</v>
       </c>
-      <c r="C112" t="n">
-        <v>6.47</v>
-      </c>
       <c r="D112" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="E112" t="n">
         <v>6.48</v>
       </c>
-      <c r="E112" t="n">
-        <v>6.46</v>
-      </c>
       <c r="F112" t="n">
-        <v>409936.8844</v>
+        <v>976723.5286</v>
       </c>
       <c r="G112" t="n">
-        <v>6.474999999999991</v>
+        <v>6.23883333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4738,22 +4708,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C113" t="n">
         <v>6.47</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>6.48</v>
       </c>
-      <c r="D113" t="n">
-        <v>6.51</v>
-      </c>
       <c r="E113" t="n">
-        <v>6.47</v>
+        <v>6.46</v>
       </c>
       <c r="F113" t="n">
-        <v>144944.9696</v>
+        <v>409936.8844</v>
       </c>
       <c r="G113" t="n">
-        <v>6.474999999999991</v>
+        <v>6.246666666666673</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4773,10 +4743,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="C114" t="n">
         <v>6.48</v>
-      </c>
-      <c r="C114" t="n">
-        <v>6.51</v>
       </c>
       <c r="D114" t="n">
         <v>6.51</v>
@@ -4785,10 +4755,10 @@
         <v>6.47</v>
       </c>
       <c r="F114" t="n">
-        <v>744835.0625999999</v>
+        <v>144944.9696</v>
       </c>
       <c r="G114" t="n">
-        <v>6.49499999999999</v>
+        <v>6.254666666666674</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4808,7 +4778,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.51</v>
+        <v>6.48</v>
       </c>
       <c r="C115" t="n">
         <v>6.51</v>
@@ -4817,13 +4787,13 @@
         <v>6.51</v>
       </c>
       <c r="E115" t="n">
-        <v>6.51</v>
+        <v>6.47</v>
       </c>
       <c r="F115" t="n">
-        <v>9131.5699</v>
+        <v>744835.0625999999</v>
       </c>
       <c r="G115" t="n">
-        <v>6.509999999999989</v>
+        <v>6.263666666666674</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4843,22 +4813,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="C116" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="D116" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="E116" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="F116" t="n">
-        <v>9612.7438</v>
+        <v>9131.5699</v>
       </c>
       <c r="G116" t="n">
-        <v>6.514999999999989</v>
+        <v>6.27283333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4878,22 +4848,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.56</v>
+        <v>6.52</v>
       </c>
       <c r="C117" t="n">
-        <v>6.56</v>
+        <v>6.52</v>
       </c>
       <c r="D117" t="n">
-        <v>6.56</v>
+        <v>6.52</v>
       </c>
       <c r="E117" t="n">
-        <v>6.56</v>
+        <v>6.52</v>
       </c>
       <c r="F117" t="n">
-        <v>50000</v>
+        <v>9612.7438</v>
       </c>
       <c r="G117" t="n">
-        <v>6.539999999999989</v>
+        <v>6.281500000000007</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4913,22 +4883,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.59</v>
+        <v>6.56</v>
       </c>
       <c r="C118" t="n">
-        <v>6.59</v>
+        <v>6.56</v>
       </c>
       <c r="D118" t="n">
-        <v>6.6</v>
+        <v>6.56</v>
       </c>
       <c r="E118" t="n">
-        <v>6.54</v>
+        <v>6.56</v>
       </c>
       <c r="F118" t="n">
-        <v>1102614.3128</v>
+        <v>50000</v>
       </c>
       <c r="G118" t="n">
-        <v>6.57499999999999</v>
+        <v>6.291333333333339</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4948,22 +4918,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="C119" t="n">
         <v>6.59</v>
       </c>
       <c r="D119" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="E119" t="n">
-        <v>6.59</v>
+        <v>6.54</v>
       </c>
       <c r="F119" t="n">
-        <v>165099.2914</v>
+        <v>1102614.3128</v>
       </c>
       <c r="G119" t="n">
-        <v>6.589999999999991</v>
+        <v>6.30083333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4983,22 +4953,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.58</v>
+        <v>6.62</v>
       </c>
       <c r="C120" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="D120" t="n">
-        <v>6.58</v>
+        <v>6.62</v>
       </c>
       <c r="E120" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="F120" t="n">
-        <v>166.7563</v>
+        <v>165099.2914</v>
       </c>
       <c r="G120" t="n">
-        <v>6.584999999999992</v>
+        <v>6.309333333333339</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5018,22 +4988,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.54</v>
+        <v>6.58</v>
       </c>
       <c r="C121" t="n">
-        <v>6.48</v>
+        <v>6.58</v>
       </c>
       <c r="D121" t="n">
-        <v>6.54</v>
+        <v>6.58</v>
       </c>
       <c r="E121" t="n">
-        <v>6.48</v>
+        <v>6.58</v>
       </c>
       <c r="F121" t="n">
-        <v>296490</v>
+        <v>166.7563</v>
       </c>
       <c r="G121" t="n">
-        <v>6.529999999999992</v>
+        <v>6.317333333333338</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5053,22 +5023,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.5</v>
+        <v>6.54</v>
       </c>
       <c r="C122" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="D122" t="n">
-        <v>6.5</v>
+        <v>6.54</v>
       </c>
       <c r="E122" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="F122" t="n">
-        <v>3289.5667</v>
+        <v>296490</v>
       </c>
       <c r="G122" t="n">
-        <v>6.484999999999991</v>
+        <v>6.323666666666671</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5088,22 +5058,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="C123" t="n">
         <v>6.49</v>
       </c>
       <c r="D123" t="n">
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="E123" t="n">
         <v>6.49</v>
       </c>
       <c r="F123" t="n">
-        <v>8088.714</v>
+        <v>3289.5667</v>
       </c>
       <c r="G123" t="n">
-        <v>6.489999999999991</v>
+        <v>6.329833333333339</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5123,22 +5093,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
       <c r="C124" t="n">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
       <c r="D124" t="n">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
       <c r="E124" t="n">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
       <c r="F124" t="n">
-        <v>2713.1467</v>
+        <v>8088.714</v>
       </c>
       <c r="G124" t="n">
-        <v>6.494999999999991</v>
+        <v>6.334666666666672</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5158,22 +5128,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="C125" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="D125" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="E125" t="n">
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="F125" t="n">
-        <v>544591.4730999999</v>
+        <v>2713.1467</v>
       </c>
       <c r="G125" t="n">
-        <v>6.504999999999991</v>
+        <v>6.339333333333339</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5193,22 +5163,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.54</v>
+        <v>6.49</v>
       </c>
       <c r="C126" t="n">
-        <v>6.59</v>
+        <v>6.51</v>
       </c>
       <c r="D126" t="n">
-        <v>6.59</v>
+        <v>6.51</v>
       </c>
       <c r="E126" t="n">
-        <v>6.54</v>
+        <v>6.49</v>
       </c>
       <c r="F126" t="n">
-        <v>41497.5854</v>
+        <v>544591.4730999999</v>
       </c>
       <c r="G126" t="n">
-        <v>6.54999999999999</v>
+        <v>6.344333333333338</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5228,22 +5198,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="C127" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="D127" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="E127" t="n">
-        <v>6.57</v>
+        <v>6.54</v>
       </c>
       <c r="F127" t="n">
-        <v>91716.2319</v>
+        <v>41497.5854</v>
       </c>
       <c r="G127" t="n">
-        <v>6.584999999999989</v>
+        <v>6.351166666666671</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5263,22 +5233,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.55</v>
+        <v>6.58</v>
       </c>
       <c r="C128" t="n">
-        <v>6.55</v>
+        <v>6.58</v>
       </c>
       <c r="D128" t="n">
-        <v>6.55</v>
+        <v>6.58</v>
       </c>
       <c r="E128" t="n">
-        <v>6.55</v>
+        <v>6.57</v>
       </c>
       <c r="F128" t="n">
-        <v>10000</v>
+        <v>91716.2319</v>
       </c>
       <c r="G128" t="n">
-        <v>6.564999999999989</v>
+        <v>6.357666666666671</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5298,22 +5268,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="C129" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="D129" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="E129" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="F129" t="n">
-        <v>77</v>
+        <v>10000</v>
       </c>
       <c r="G129" t="n">
-        <v>6.559999999999989</v>
+        <v>6.363666666666671</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5333,22 +5303,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.55</v>
+        <v>6.57</v>
       </c>
       <c r="C130" t="n">
-        <v>6.55</v>
+        <v>6.57</v>
       </c>
       <c r="D130" t="n">
-        <v>6.55</v>
+        <v>6.57</v>
       </c>
       <c r="E130" t="n">
-        <v>6.55</v>
+        <v>6.57</v>
       </c>
       <c r="F130" t="n">
-        <v>32960.0914</v>
+        <v>77</v>
       </c>
       <c r="G130" t="n">
-        <v>6.559999999999988</v>
+        <v>6.370333333333337</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5368,22 +5338,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="C131" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="D131" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="E131" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="F131" t="n">
-        <v>152</v>
+        <v>32960.0914</v>
       </c>
       <c r="G131" t="n">
-        <v>6.564999999999987</v>
+        <v>6.377333333333338</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5403,22 +5373,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="C132" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="D132" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="E132" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="F132" t="n">
-        <v>37482.1119</v>
+        <v>152</v>
       </c>
       <c r="G132" t="n">
-        <v>6.584999999999987</v>
+        <v>6.384333333333337</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5441,19 +5411,19 @@
         <v>6.59</v>
       </c>
       <c r="C133" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="D133" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="E133" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="F133" t="n">
-        <v>1024984.0704</v>
+        <v>37482.1119</v>
       </c>
       <c r="G133" t="n">
-        <v>6.594999999999987</v>
+        <v>6.38916666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5473,22 +5443,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="C134" t="n">
         <v>6.6</v>
       </c>
-      <c r="C134" t="n">
-        <v>6.61</v>
-      </c>
       <c r="D134" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="E134" t="n">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
       <c r="F134" t="n">
-        <v>141557.1521</v>
+        <v>1024984.0704</v>
       </c>
       <c r="G134" t="n">
-        <v>6.604999999999988</v>
+        <v>6.39416666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5508,7 +5478,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="C135" t="n">
         <v>6.61</v>
@@ -5517,13 +5487,13 @@
         <v>6.61</v>
       </c>
       <c r="E135" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="F135" t="n">
-        <v>135215.6738</v>
+        <v>141557.1521</v>
       </c>
       <c r="G135" t="n">
-        <v>6.609999999999988</v>
+        <v>6.399333333333336</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5546,19 +5516,19 @@
         <v>6.61</v>
       </c>
       <c r="C136" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="D136" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="E136" t="n">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
       <c r="F136" t="n">
-        <v>63379.1986</v>
+        <v>135215.6738</v>
       </c>
       <c r="G136" t="n">
-        <v>6.619999999999989</v>
+        <v>6.405000000000004</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5581,19 +5551,19 @@
         <v>6.61</v>
       </c>
       <c r="C137" t="n">
-        <v>6.6</v>
+        <v>6.63</v>
       </c>
       <c r="D137" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E137" t="n">
         <v>6.61</v>
       </c>
-      <c r="E137" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F137" t="n">
-        <v>634056.8427</v>
+        <v>63379.1986</v>
       </c>
       <c r="G137" t="n">
-        <v>6.614999999999988</v>
+        <v>6.410500000000003</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5613,22 +5583,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.58</v>
+        <v>6.61</v>
       </c>
       <c r="C138" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="D138" t="n">
-        <v>6.58</v>
+        <v>6.61</v>
       </c>
       <c r="E138" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="F138" t="n">
-        <v>7700.9944</v>
+        <v>634056.8427</v>
       </c>
       <c r="G138" t="n">
-        <v>6.589999999999987</v>
+        <v>6.415833333333338</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5651,19 +5621,19 @@
         <v>6.58</v>
       </c>
       <c r="C139" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="D139" t="n">
         <v>6.58</v>
       </c>
       <c r="E139" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="F139" t="n">
-        <v>50000</v>
+        <v>7700.9944</v>
       </c>
       <c r="G139" t="n">
-        <v>6.574999999999988</v>
+        <v>6.421500000000004</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5683,22 +5653,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="C140" t="n">
         <v>6.57</v>
       </c>
       <c r="D140" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E140" t="n">
         <v>6.57</v>
       </c>
-      <c r="E140" t="n">
-        <v>6.55</v>
-      </c>
       <c r="F140" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G140" t="n">
-        <v>6.569999999999989</v>
+        <v>6.426833333333337</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5718,22 +5688,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
       <c r="C141" t="n">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
       <c r="D141" t="n">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
       <c r="E141" t="n">
-        <v>6.56</v>
+        <v>6.55</v>
       </c>
       <c r="F141" t="n">
-        <v>5080.9391</v>
+        <v>40000</v>
       </c>
       <c r="G141" t="n">
-        <v>6.564999999999989</v>
+        <v>6.432333333333337</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5753,22 +5723,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
       <c r="C142" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
       <c r="D142" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
       <c r="E142" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
       <c r="F142" t="n">
-        <v>45003.6417</v>
+        <v>5080.9391</v>
       </c>
       <c r="G142" t="n">
-        <v>6.544999999999989</v>
+        <v>6.437500000000004</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5791,19 +5761,19 @@
         <v>6.53</v>
       </c>
       <c r="C143" t="n">
-        <v>6.51</v>
+        <v>6.53</v>
       </c>
       <c r="D143" t="n">
         <v>6.53</v>
       </c>
       <c r="E143" t="n">
-        <v>6.51</v>
+        <v>6.53</v>
       </c>
       <c r="F143" t="n">
-        <v>125201.4904</v>
+        <v>45003.6417</v>
       </c>
       <c r="G143" t="n">
-        <v>6.519999999999991</v>
+        <v>6.44216666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5823,22 +5793,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.47</v>
+        <v>6.53</v>
       </c>
       <c r="C144" t="n">
-        <v>6.47</v>
+        <v>6.51</v>
       </c>
       <c r="D144" t="n">
-        <v>6.5</v>
+        <v>6.53</v>
       </c>
       <c r="E144" t="n">
-        <v>6.47</v>
+        <v>6.51</v>
       </c>
       <c r="F144" t="n">
-        <v>178431.6698</v>
+        <v>125201.4904</v>
       </c>
       <c r="G144" t="n">
-        <v>6.48999999999999</v>
+        <v>6.44716666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5858,22 +5828,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.44</v>
+        <v>6.47</v>
       </c>
       <c r="C145" t="n">
-        <v>6.44</v>
+        <v>6.47</v>
       </c>
       <c r="D145" t="n">
-        <v>6.44</v>
+        <v>6.5</v>
       </c>
       <c r="E145" t="n">
-        <v>6.44</v>
+        <v>6.47</v>
       </c>
       <c r="F145" t="n">
-        <v>724.7564</v>
+        <v>178431.6698</v>
       </c>
       <c r="G145" t="n">
-        <v>6.45499999999999</v>
+        <v>6.450833333333337</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5893,22 +5863,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.46</v>
+        <v>6.44</v>
       </c>
       <c r="C146" t="n">
         <v>6.44</v>
       </c>
       <c r="D146" t="n">
-        <v>6.46</v>
+        <v>6.44</v>
       </c>
       <c r="E146" t="n">
-        <v>6.41</v>
+        <v>6.44</v>
       </c>
       <c r="F146" t="n">
-        <v>245007.1651</v>
+        <v>724.7564</v>
       </c>
       <c r="G146" t="n">
-        <v>6.439999999999991</v>
+        <v>6.454000000000004</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5928,22 +5898,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.45</v>
+        <v>6.46</v>
       </c>
       <c r="C147" t="n">
         <v>6.44</v>
       </c>
       <c r="D147" t="n">
-        <v>6.45</v>
+        <v>6.46</v>
       </c>
       <c r="E147" t="n">
-        <v>6.44</v>
+        <v>6.41</v>
       </c>
       <c r="F147" t="n">
-        <v>221582.9242</v>
+        <v>245007.1651</v>
       </c>
       <c r="G147" t="n">
-        <v>6.439999999999991</v>
+        <v>6.457333333333337</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5966,19 +5936,19 @@
         <v>6.45</v>
       </c>
       <c r="C148" t="n">
-        <v>6.46</v>
+        <v>6.44</v>
       </c>
       <c r="D148" t="n">
-        <v>6.46</v>
+        <v>6.45</v>
       </c>
       <c r="E148" t="n">
-        <v>6.45</v>
+        <v>6.44</v>
       </c>
       <c r="F148" t="n">
-        <v>50000</v>
+        <v>221582.9242</v>
       </c>
       <c r="G148" t="n">
-        <v>6.44999999999999</v>
+        <v>6.461000000000003</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5998,7 +5968,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.46</v>
+        <v>6.45</v>
       </c>
       <c r="C149" t="n">
         <v>6.46</v>
@@ -6007,13 +5977,13 @@
         <v>6.46</v>
       </c>
       <c r="E149" t="n">
-        <v>6.46</v>
+        <v>6.45</v>
       </c>
       <c r="F149" t="n">
-        <v>13039.6439</v>
+        <v>50000</v>
       </c>
       <c r="G149" t="n">
-        <v>6.45999999999999</v>
+        <v>6.465000000000003</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6033,22 +6003,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.47</v>
+        <v>6.46</v>
       </c>
       <c r="C150" t="n">
-        <v>6.47</v>
+        <v>6.46</v>
       </c>
       <c r="D150" t="n">
-        <v>6.47</v>
+        <v>6.46</v>
       </c>
       <c r="E150" t="n">
-        <v>6.47</v>
+        <v>6.46</v>
       </c>
       <c r="F150" t="n">
-        <v>30000</v>
+        <v>13039.6439</v>
       </c>
       <c r="G150" t="n">
-        <v>6.464999999999989</v>
+        <v>6.469000000000002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6068,22 +6038,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.48</v>
+        <v>6.47</v>
       </c>
       <c r="C151" t="n">
-        <v>6.48</v>
+        <v>6.47</v>
       </c>
       <c r="D151" t="n">
-        <v>6.48</v>
+        <v>6.47</v>
       </c>
       <c r="E151" t="n">
-        <v>6.48</v>
+        <v>6.47</v>
       </c>
       <c r="F151" t="n">
-        <v>12999.552</v>
+        <v>30000</v>
       </c>
       <c r="G151" t="n">
-        <v>6.474999999999989</v>
+        <v>6.473166666666669</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6103,22 +6073,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.51</v>
+        <v>6.48</v>
       </c>
       <c r="C152" t="n">
-        <v>6.51</v>
+        <v>6.48</v>
       </c>
       <c r="D152" t="n">
-        <v>6.51</v>
+        <v>6.48</v>
       </c>
       <c r="E152" t="n">
-        <v>6.51</v>
+        <v>6.48</v>
       </c>
       <c r="F152" t="n">
-        <v>2632.7168</v>
+        <v>12999.552</v>
       </c>
       <c r="G152" t="n">
-        <v>6.49499999999999</v>
+        <v>6.477500000000002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6138,7 +6108,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.49</v>
+        <v>6.51</v>
       </c>
       <c r="C153" t="n">
         <v>6.51</v>
@@ -6147,13 +6117,13 @@
         <v>6.51</v>
       </c>
       <c r="E153" t="n">
-        <v>6.49</v>
+        <v>6.51</v>
       </c>
       <c r="F153" t="n">
-        <v>5330.1593</v>
+        <v>2632.7168</v>
       </c>
       <c r="G153" t="n">
-        <v>6.509999999999989</v>
+        <v>6.481666666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6173,22 +6143,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.54</v>
+        <v>6.49</v>
       </c>
       <c r="C154" t="n">
-        <v>6.54</v>
+        <v>6.51</v>
       </c>
       <c r="D154" t="n">
-        <v>6.54</v>
+        <v>6.51</v>
       </c>
       <c r="E154" t="n">
-        <v>6.54</v>
+        <v>6.49</v>
       </c>
       <c r="F154" t="n">
-        <v>78125</v>
+        <v>5330.1593</v>
       </c>
       <c r="G154" t="n">
-        <v>6.524999999999989</v>
+        <v>6.485666666666669</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6208,22 +6178,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6.53</v>
+        <v>6.54</v>
       </c>
       <c r="C155" t="n">
-        <v>6.53</v>
+        <v>6.54</v>
       </c>
       <c r="D155" t="n">
-        <v>6.53</v>
+        <v>6.54</v>
       </c>
       <c r="E155" t="n">
-        <v>6.53</v>
+        <v>6.54</v>
       </c>
       <c r="F155" t="n">
-        <v>78</v>
+        <v>78125</v>
       </c>
       <c r="G155" t="n">
-        <v>6.534999999999989</v>
+        <v>6.490000000000003</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6243,22 +6213,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>6.55</v>
+        <v>6.53</v>
       </c>
       <c r="C156" t="n">
-        <v>6.55</v>
+        <v>6.53</v>
       </c>
       <c r="D156" t="n">
-        <v>6.55</v>
+        <v>6.53</v>
       </c>
       <c r="E156" t="n">
-        <v>6.55</v>
+        <v>6.53</v>
       </c>
       <c r="F156" t="n">
-        <v>78125</v>
+        <v>78</v>
       </c>
       <c r="G156" t="n">
-        <v>6.539999999999988</v>
+        <v>6.494333333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6278,22 +6248,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="C157" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="D157" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="E157" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="F157" t="n">
-        <v>2271</v>
+        <v>78125</v>
       </c>
       <c r="G157" t="n">
-        <v>6.564999999999987</v>
+        <v>6.499000000000003</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6325,10 +6295,10 @@
         <v>6.58</v>
       </c>
       <c r="F158" t="n">
-        <v>3967</v>
+        <v>2271</v>
       </c>
       <c r="G158" t="n">
-        <v>6.579999999999986</v>
+        <v>6.504166666666669</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6348,22 +6318,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="C159" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="D159" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="E159" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="F159" t="n">
-        <v>509814.264</v>
+        <v>3967</v>
       </c>
       <c r="G159" t="n">
-        <v>6.584999999999986</v>
+        <v>6.509333333333336</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6383,22 +6353,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="C160" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="D160" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="E160" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="F160" t="n">
-        <v>4542.0466</v>
+        <v>509814.264</v>
       </c>
       <c r="G160" t="n">
-        <v>6.559999999999985</v>
+        <v>6.514333333333336</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6418,22 +6388,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>6.56</v>
+        <v>6.53</v>
       </c>
       <c r="C161" t="n">
-        <v>6.57</v>
+        <v>6.53</v>
       </c>
       <c r="D161" t="n">
-        <v>6.57</v>
+        <v>6.53</v>
       </c>
       <c r="E161" t="n">
-        <v>6.56</v>
+        <v>6.53</v>
       </c>
       <c r="F161" t="n">
-        <v>195561</v>
+        <v>4542.0466</v>
       </c>
       <c r="G161" t="n">
-        <v>6.549999999999985</v>
+        <v>6.518166666666668</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6453,7 +6423,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6.57</v>
+        <v>6.56</v>
       </c>
       <c r="C162" t="n">
         <v>6.57</v>
@@ -6462,13 +6432,13 @@
         <v>6.57</v>
       </c>
       <c r="E162" t="n">
-        <v>6.57</v>
+        <v>6.56</v>
       </c>
       <c r="F162" t="n">
-        <v>539505.6918</v>
+        <v>195561</v>
       </c>
       <c r="G162" t="n">
-        <v>6.569999999999984</v>
+        <v>6.522666666666668</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6488,22 +6458,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>6.61</v>
+        <v>6.57</v>
       </c>
       <c r="C163" t="n">
-        <v>6.61</v>
+        <v>6.57</v>
       </c>
       <c r="D163" t="n">
-        <v>6.61</v>
+        <v>6.57</v>
       </c>
       <c r="E163" t="n">
-        <v>6.61</v>
+        <v>6.57</v>
       </c>
       <c r="F163" t="n">
-        <v>156493.0903</v>
+        <v>539505.6918</v>
       </c>
       <c r="G163" t="n">
-        <v>6.589999999999984</v>
+        <v>6.526000000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6523,22 +6493,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="C164" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
       <c r="D164" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
       <c r="E164" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="F164" t="n">
-        <v>253624.2886</v>
+        <v>156493.0903</v>
       </c>
       <c r="G164" t="n">
-        <v>6.624999999999984</v>
+        <v>6.530000000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6558,22 +6528,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>6.58</v>
+        <v>6.63</v>
       </c>
       <c r="C165" t="n">
-        <v>6.58</v>
+        <v>6.64</v>
       </c>
       <c r="D165" t="n">
-        <v>6.58</v>
+        <v>6.64</v>
       </c>
       <c r="E165" t="n">
-        <v>6.58</v>
+        <v>6.63</v>
       </c>
       <c r="F165" t="n">
-        <v>71755.0334</v>
+        <v>253624.2886</v>
       </c>
       <c r="G165" t="n">
-        <v>6.609999999999985</v>
+        <v>6.534333333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6593,22 +6563,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="C166" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="D166" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="E166" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="F166" t="n">
-        <v>12628.4063</v>
+        <v>71755.0334</v>
       </c>
       <c r="G166" t="n">
-        <v>6.584999999999985</v>
+        <v>6.537500000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6628,22 +6598,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="C167" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="D167" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="E167" t="n">
-        <v>6.53</v>
+        <v>6.59</v>
       </c>
       <c r="F167" t="n">
-        <v>37080</v>
+        <v>12628.4063</v>
       </c>
       <c r="G167" t="n">
-        <v>6.559999999999985</v>
+        <v>6.540666666666668</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6663,22 +6633,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>6.52</v>
+        <v>6.53</v>
       </c>
       <c r="C168" t="n">
-        <v>6.52</v>
+        <v>6.53</v>
       </c>
       <c r="D168" t="n">
-        <v>6.52</v>
+        <v>6.53</v>
       </c>
       <c r="E168" t="n">
-        <v>6.52</v>
+        <v>6.53</v>
       </c>
       <c r="F168" t="n">
-        <v>18540</v>
+        <v>37080</v>
       </c>
       <c r="G168" t="n">
-        <v>6.524999999999986</v>
+        <v>6.5425</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6698,22 +6668,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>6.63</v>
+        <v>6.52</v>
       </c>
       <c r="C169" t="n">
-        <v>6.63</v>
+        <v>6.52</v>
       </c>
       <c r="D169" t="n">
-        <v>6.63</v>
+        <v>6.52</v>
       </c>
       <c r="E169" t="n">
-        <v>6.63</v>
+        <v>6.52</v>
       </c>
       <c r="F169" t="n">
-        <v>18534.5798</v>
+        <v>18540</v>
       </c>
       <c r="G169" t="n">
-        <v>6.574999999999985</v>
+        <v>6.541166666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6733,22 +6703,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="C170" t="n">
         <v>6.63</v>
       </c>
       <c r="D170" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="E170" t="n">
         <v>6.63</v>
       </c>
       <c r="F170" t="n">
-        <v>56156.7397</v>
+        <v>18534.5798</v>
       </c>
       <c r="G170" t="n">
-        <v>6.629999999999985</v>
+        <v>6.541833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6768,22 +6738,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6.61</v>
+        <v>6.64</v>
       </c>
       <c r="C171" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="D171" t="n">
-        <v>6.61</v>
+        <v>6.64</v>
       </c>
       <c r="E171" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="F171" t="n">
-        <v>26216.8607</v>
+        <v>56156.7397</v>
       </c>
       <c r="G171" t="n">
-        <v>6.619999999999985</v>
+        <v>6.543166666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6815,10 +6785,10 @@
         <v>6.61</v>
       </c>
       <c r="F172" t="n">
-        <v>8217.9509</v>
+        <v>26216.8607</v>
       </c>
       <c r="G172" t="n">
-        <v>6.609999999999985</v>
+        <v>6.545333333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6838,22 +6808,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6.55</v>
+        <v>6.61</v>
       </c>
       <c r="C173" t="n">
-        <v>6.54</v>
+        <v>6.61</v>
       </c>
       <c r="D173" t="n">
-        <v>6.55</v>
+        <v>6.61</v>
       </c>
       <c r="E173" t="n">
-        <v>6.54</v>
+        <v>6.61</v>
       </c>
       <c r="F173" t="n">
-        <v>68862.7248</v>
+        <v>8217.9509</v>
       </c>
       <c r="G173" t="n">
-        <v>6.574999999999985</v>
+        <v>6.547666666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6873,22 +6843,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>6.61</v>
+        <v>6.55</v>
       </c>
       <c r="C174" t="n">
-        <v>6.6</v>
+        <v>6.54</v>
       </c>
       <c r="D174" t="n">
-        <v>6.61</v>
+        <v>6.55</v>
       </c>
       <c r="E174" t="n">
-        <v>6.6</v>
+        <v>6.54</v>
       </c>
       <c r="F174" t="n">
-        <v>46637.9066</v>
+        <v>68862.7248</v>
       </c>
       <c r="G174" t="n">
-        <v>6.569999999999986</v>
+        <v>6.548666666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6908,22 +6878,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
       <c r="C175" t="n">
         <v>6.6</v>
       </c>
       <c r="D175" t="n">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
       <c r="E175" t="n">
         <v>6.6</v>
       </c>
       <c r="F175" t="n">
-        <v>326853.13</v>
+        <v>46637.9066</v>
       </c>
       <c r="G175" t="n">
-        <v>6.599999999999987</v>
+        <v>6.550166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6943,22 +6913,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="C176" t="n">
-        <v>6.65</v>
+        <v>6.6</v>
       </c>
       <c r="D176" t="n">
-        <v>6.65</v>
+        <v>6.6</v>
       </c>
       <c r="E176" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="F176" t="n">
-        <v>937444.3893</v>
+        <v>326853.13</v>
       </c>
       <c r="G176" t="n">
-        <v>6.624999999999987</v>
+        <v>6.551666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6978,22 +6948,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
       <c r="C177" t="n">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
       <c r="D177" t="n">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
       <c r="E177" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
       <c r="F177" t="n">
-        <v>601664.1282</v>
+        <v>937444.3893</v>
       </c>
       <c r="G177" t="n">
-        <v>6.674999999999987</v>
+        <v>6.553833333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7013,22 +6983,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C178" t="n">
         <v>6.7</v>
       </c>
-      <c r="C178" t="n">
-        <v>6.72</v>
-      </c>
       <c r="D178" t="n">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
       <c r="E178" t="n">
-        <v>6.7</v>
+        <v>6.64</v>
       </c>
       <c r="F178" t="n">
-        <v>102561</v>
+        <v>601664.1282</v>
       </c>
       <c r="G178" t="n">
-        <v>6.709999999999988</v>
+        <v>6.556166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7048,22 +7018,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C179" t="n">
         <v>6.72</v>
       </c>
-      <c r="C179" t="n">
-        <v>6.77</v>
-      </c>
       <c r="D179" t="n">
-        <v>6.8</v>
+        <v>6.72</v>
       </c>
       <c r="E179" t="n">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
       <c r="F179" t="n">
-        <v>300429.8089</v>
+        <v>102561</v>
       </c>
       <c r="G179" t="n">
-        <v>6.744999999999989</v>
+        <v>6.558333333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7083,22 +7053,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>6.75</v>
+        <v>6.72</v>
       </c>
       <c r="C180" t="n">
-        <v>6.72</v>
+        <v>6.77</v>
       </c>
       <c r="D180" t="n">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="E180" t="n">
         <v>6.72</v>
       </c>
       <c r="F180" t="n">
-        <v>18676.6276</v>
+        <v>300429.8089</v>
       </c>
       <c r="G180" t="n">
-        <v>6.744999999999989</v>
+        <v>6.561333333333335</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7118,22 +7088,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6.79</v>
+        <v>6.75</v>
       </c>
       <c r="C181" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D181" t="n">
         <v>6.75</v>
-      </c>
-      <c r="D181" t="n">
-        <v>6.79</v>
       </c>
       <c r="E181" t="n">
         <v>6.72</v>
       </c>
       <c r="F181" t="n">
-        <v>62608.2005</v>
+        <v>18676.6276</v>
       </c>
       <c r="G181" t="n">
-        <v>6.734999999999989</v>
+        <v>6.563666666666668</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7153,22 +7123,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6.72</v>
+        <v>6.79</v>
       </c>
       <c r="C182" t="n">
-        <v>6.72</v>
+        <v>6.75</v>
       </c>
       <c r="D182" t="n">
-        <v>6.72</v>
+        <v>6.79</v>
       </c>
       <c r="E182" t="n">
         <v>6.72</v>
       </c>
       <c r="F182" t="n">
-        <v>48451.1106</v>
+        <v>62608.2005</v>
       </c>
       <c r="G182" t="n">
-        <v>6.734999999999989</v>
+        <v>6.568166666666668</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7188,22 +7158,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
       <c r="C183" t="n">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
       <c r="D183" t="n">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
       <c r="E183" t="n">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
       <c r="F183" t="n">
-        <v>2621.0165</v>
+        <v>48451.1106</v>
       </c>
       <c r="G183" t="n">
-        <v>6.699999999999989</v>
+        <v>6.572000000000002</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7223,22 +7193,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6.69</v>
+        <v>6.68</v>
       </c>
       <c r="C184" t="n">
-        <v>6.74</v>
+        <v>6.68</v>
       </c>
       <c r="D184" t="n">
-        <v>6.74</v>
+        <v>6.68</v>
       </c>
       <c r="E184" t="n">
-        <v>6.69</v>
+        <v>6.68</v>
       </c>
       <c r="F184" t="n">
-        <v>194894.8147</v>
+        <v>2621.0165</v>
       </c>
       <c r="G184" t="n">
-        <v>6.70999999999999</v>
+        <v>6.575166666666669</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7258,7 +7228,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
       <c r="C185" t="n">
         <v>6.74</v>
@@ -7267,13 +7237,13 @@
         <v>6.74</v>
       </c>
       <c r="E185" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
       <c r="F185" t="n">
-        <v>194422.0738</v>
+        <v>194894.8147</v>
       </c>
       <c r="G185" t="n">
-        <v>6.739999999999991</v>
+        <v>6.579166666666668</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7293,22 +7263,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6.79</v>
+        <v>6.73</v>
       </c>
       <c r="C186" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="D186" t="n">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="E186" t="n">
-        <v>6.76</v>
+        <v>6.73</v>
       </c>
       <c r="F186" t="n">
-        <v>3364.3851</v>
+        <v>194422.0738</v>
       </c>
       <c r="G186" t="n">
-        <v>6.74999999999999</v>
+        <v>6.583000000000002</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7328,22 +7298,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6.75</v>
+        <v>6.79</v>
       </c>
       <c r="C187" t="n">
-        <v>6.68</v>
+        <v>6.76</v>
       </c>
       <c r="D187" t="n">
-        <v>6.75</v>
+        <v>6.79</v>
       </c>
       <c r="E187" t="n">
-        <v>6.68</v>
+        <v>6.76</v>
       </c>
       <c r="F187" t="n">
-        <v>363579.739</v>
+        <v>3364.3851</v>
       </c>
       <c r="G187" t="n">
-        <v>6.719999999999989</v>
+        <v>6.585833333333336</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7363,22 +7333,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
       <c r="C188" t="n">
-        <v>6.67</v>
+        <v>6.68</v>
       </c>
       <c r="D188" t="n">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
       <c r="E188" t="n">
-        <v>6.67</v>
+        <v>6.68</v>
       </c>
       <c r="F188" t="n">
-        <v>72051.55130000001</v>
+        <v>363579.739</v>
       </c>
       <c r="G188" t="n">
-        <v>6.674999999999989</v>
+        <v>6.587500000000003</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7398,22 +7368,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>6.73</v>
+        <v>6.67</v>
       </c>
       <c r="C189" t="n">
-        <v>6.73</v>
+        <v>6.67</v>
       </c>
       <c r="D189" t="n">
-        <v>6.73</v>
+        <v>6.67</v>
       </c>
       <c r="E189" t="n">
-        <v>6.73</v>
+        <v>6.67</v>
       </c>
       <c r="F189" t="n">
-        <v>75</v>
+        <v>72051.55130000001</v>
       </c>
       <c r="G189" t="n">
-        <v>6.699999999999989</v>
+        <v>6.589500000000003</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7433,22 +7403,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6.68</v>
+        <v>6.73</v>
       </c>
       <c r="C190" t="n">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="D190" t="n">
-        <v>6.68</v>
+        <v>6.73</v>
       </c>
       <c r="E190" t="n">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="F190" t="n">
-        <v>156152.3341</v>
+        <v>75</v>
       </c>
       <c r="G190" t="n">
-        <v>6.689999999999988</v>
+        <v>6.59216666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7471,19 +7441,19 @@
         <v>6.68</v>
       </c>
       <c r="C191" t="n">
-        <v>6.68</v>
+        <v>6.65</v>
       </c>
       <c r="D191" t="n">
         <v>6.68</v>
       </c>
       <c r="E191" t="n">
-        <v>6.68</v>
+        <v>6.65</v>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>156152.3341</v>
       </c>
       <c r="G191" t="n">
-        <v>6.664999999999987</v>
+        <v>6.593833333333336</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7503,22 +7473,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="C192" t="n">
-        <v>6.63</v>
+        <v>6.68</v>
       </c>
       <c r="D192" t="n">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="E192" t="n">
-        <v>6.63</v>
+        <v>6.68</v>
       </c>
       <c r="F192" t="n">
-        <v>323360.6999</v>
+        <v>200</v>
       </c>
       <c r="G192" t="n">
-        <v>6.654999999999986</v>
+        <v>6.595500000000003</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7538,22 +7508,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="C193" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="D193" t="n">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="E193" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="F193" t="n">
-        <v>222.1037</v>
+        <v>323360.6999</v>
       </c>
       <c r="G193" t="n">
-        <v>6.649999999999986</v>
+        <v>6.596166666666671</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7573,22 +7543,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6.68</v>
+        <v>6.67</v>
       </c>
       <c r="C194" t="n">
-        <v>6.68</v>
+        <v>6.67</v>
       </c>
       <c r="D194" t="n">
-        <v>6.68</v>
+        <v>6.67</v>
       </c>
       <c r="E194" t="n">
-        <v>6.68</v>
+        <v>6.67</v>
       </c>
       <c r="F194" t="n">
-        <v>256.6831</v>
+        <v>222.1037</v>
       </c>
       <c r="G194" t="n">
-        <v>6.674999999999986</v>
+        <v>6.597333333333337</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7608,22 +7578,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6.64</v>
+        <v>6.68</v>
       </c>
       <c r="C195" t="n">
-        <v>6.64</v>
+        <v>6.68</v>
       </c>
       <c r="D195" t="n">
-        <v>6.64</v>
+        <v>6.68</v>
       </c>
       <c r="E195" t="n">
-        <v>6.64</v>
+        <v>6.68</v>
       </c>
       <c r="F195" t="n">
-        <v>1407.2674</v>
+        <v>256.6831</v>
       </c>
       <c r="G195" t="n">
-        <v>6.659999999999987</v>
+        <v>6.598500000000003</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7643,22 +7613,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
       <c r="C196" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
       <c r="D196" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
       <c r="E196" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
       <c r="F196" t="n">
-        <v>7721.2588</v>
+        <v>1407.2674</v>
       </c>
       <c r="G196" t="n">
-        <v>6.664999999999987</v>
+        <v>6.599000000000003</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7690,10 +7660,10 @@
         <v>6.69</v>
       </c>
       <c r="F197" t="n">
-        <v>708.6925</v>
+        <v>7721.2588</v>
       </c>
       <c r="G197" t="n">
-        <v>6.689999999999987</v>
+        <v>6.600000000000003</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7725,10 +7695,10 @@
         <v>6.69</v>
       </c>
       <c r="F198" t="n">
-        <v>7791.3075</v>
+        <v>708.6925</v>
       </c>
       <c r="G198" t="n">
-        <v>6.689999999999987</v>
+        <v>6.601500000000002</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7748,22 +7718,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
       <c r="C199" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
       <c r="D199" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
       <c r="E199" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
       <c r="F199" t="n">
-        <v>18563</v>
+        <v>7791.3075</v>
       </c>
       <c r="G199" t="n">
-        <v>6.709999999999987</v>
+        <v>6.603333333333336</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7783,22 +7753,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="C200" t="n">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="D200" t="n">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="E200" t="n">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="F200" t="n">
-        <v>50000</v>
+        <v>18563</v>
       </c>
       <c r="G200" t="n">
-        <v>6.689999999999985</v>
+        <v>6.606000000000003</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7818,22 +7788,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="C201" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="D201" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="E201" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="F201" t="n">
-        <v>76646.3588</v>
+        <v>50000</v>
       </c>
       <c r="G201" t="n">
-        <v>6.639999999999985</v>
+        <v>6.607333333333336</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7853,22 +7823,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>6.71</v>
+        <v>6.63</v>
       </c>
       <c r="C202" t="n">
-        <v>6.71</v>
+        <v>6.63</v>
       </c>
       <c r="D202" t="n">
-        <v>6.71</v>
+        <v>6.63</v>
       </c>
       <c r="E202" t="n">
-        <v>6.71</v>
+        <v>6.63</v>
       </c>
       <c r="F202" t="n">
-        <v>23468.8837</v>
+        <v>76646.3588</v>
       </c>
       <c r="G202" t="n">
-        <v>6.669999999999985</v>
+        <v>6.608500000000003</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7888,22 +7858,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
       <c r="C203" t="n">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
       <c r="D203" t="n">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
       <c r="E203" t="n">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
       <c r="F203" t="n">
-        <v>4089.2727</v>
+        <v>23468.8837</v>
       </c>
       <c r="G203" t="n">
-        <v>6.719999999999986</v>
+        <v>6.611500000000003</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7926,19 +7896,19 @@
         <v>6.73</v>
       </c>
       <c r="C204" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
       <c r="D204" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
       <c r="E204" t="n">
         <v>6.73</v>
       </c>
       <c r="F204" t="n">
-        <v>50850.6552</v>
+        <v>4089.2727</v>
       </c>
       <c r="G204" t="n">
-        <v>6.734999999999985</v>
+        <v>6.61516666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7958,7 +7928,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
       <c r="C205" t="n">
         <v>6.74</v>
@@ -7967,13 +7937,13 @@
         <v>6.74</v>
       </c>
       <c r="E205" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
       <c r="F205" t="n">
-        <v>47372.2402</v>
+        <v>50850.6552</v>
       </c>
       <c r="G205" t="n">
-        <v>6.739999999999986</v>
+        <v>6.61966666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7993,22 +7963,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
       <c r="C206" t="n">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
       <c r="D206" t="n">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
       <c r="E206" t="n">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
       <c r="F206" t="n">
-        <v>6480</v>
+        <v>47372.2402</v>
       </c>
       <c r="G206" t="n">
-        <v>6.729999999999985</v>
+        <v>6.62466666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8040,10 +8010,10 @@
         <v>6.72</v>
       </c>
       <c r="F207" t="n">
-        <v>59531.5209</v>
+        <v>6480</v>
       </c>
       <c r="G207" t="n">
-        <v>6.719999999999986</v>
+        <v>6.629333333333337</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8066,19 +8036,19 @@
         <v>6.72</v>
       </c>
       <c r="C208" t="n">
-        <v>6.66</v>
+        <v>6.72</v>
       </c>
       <c r="D208" t="n">
         <v>6.72</v>
       </c>
       <c r="E208" t="n">
-        <v>6.66</v>
+        <v>6.72</v>
       </c>
       <c r="F208" t="n">
-        <v>606738.3639999999</v>
+        <v>59531.5209</v>
       </c>
       <c r="G208" t="n">
-        <v>6.689999999999987</v>
+        <v>6.634000000000004</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8098,22 +8068,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="C209" t="n">
-        <v>6.62</v>
+        <v>6.66</v>
       </c>
       <c r="D209" t="n">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="E209" t="n">
-        <v>6.62</v>
+        <v>6.66</v>
       </c>
       <c r="F209" t="n">
-        <v>401.8216</v>
+        <v>606738.3639999999</v>
       </c>
       <c r="G209" t="n">
-        <v>6.639999999999988</v>
+        <v>6.637333333333339</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8133,22 +8103,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="C210" t="n">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="D210" t="n">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="E210" t="n">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="F210" t="n">
-        <v>5262.9654</v>
+        <v>401.8216</v>
       </c>
       <c r="G210" t="n">
-        <v>6.609999999999987</v>
+        <v>6.640000000000005</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8168,22 +8138,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="C211" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="D211" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="E211" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="F211" t="n">
-        <v>738.3946</v>
+        <v>5262.9654</v>
       </c>
       <c r="G211" t="n">
-        <v>6.609999999999987</v>
+        <v>6.642166666666672</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8203,22 +8173,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6.66</v>
+        <v>6.62</v>
       </c>
       <c r="C212" t="n">
-        <v>6.66</v>
+        <v>6.62</v>
       </c>
       <c r="D212" t="n">
-        <v>6.66</v>
+        <v>6.62</v>
       </c>
       <c r="E212" t="n">
-        <v>6.66</v>
+        <v>6.62</v>
       </c>
       <c r="F212" t="n">
-        <v>115608.6165</v>
+        <v>738.3946</v>
       </c>
       <c r="G212" t="n">
-        <v>6.639999999999987</v>
+        <v>6.644500000000005</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8250,10 +8220,10 @@
         <v>6.66</v>
       </c>
       <c r="F213" t="n">
-        <v>422457.7565</v>
+        <v>115608.6165</v>
       </c>
       <c r="G213" t="n">
-        <v>6.659999999999988</v>
+        <v>6.647000000000006</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8273,22 +8243,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="C214" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="D214" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="E214" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="F214" t="n">
-        <v>299289.024</v>
+        <v>422457.7565</v>
       </c>
       <c r="G214" t="n">
-        <v>6.654999999999989</v>
+        <v>6.649500000000006</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8308,22 +8278,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="C215" t="n">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="D215" t="n">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="E215" t="n">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="F215" t="n">
-        <v>449327.1341</v>
+        <v>299289.024</v>
       </c>
       <c r="G215" t="n">
-        <v>6.654999999999989</v>
+        <v>6.651333333333339</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8343,7 +8313,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="C216" t="n">
         <v>6.66</v>
@@ -8352,13 +8322,13 @@
         <v>6.66</v>
       </c>
       <c r="E216" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="F216" t="n">
-        <v>726533.7221</v>
+        <v>449327.1341</v>
       </c>
       <c r="G216" t="n">
-        <v>6.659999999999989</v>
+        <v>6.653500000000006</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8381,19 +8351,19 @@
         <v>6.65</v>
       </c>
       <c r="C217" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="D217" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="E217" t="n">
         <v>6.65</v>
       </c>
       <c r="F217" t="n">
-        <v>78297.11259999999</v>
+        <v>726533.7221</v>
       </c>
       <c r="G217" t="n">
-        <v>6.654999999999989</v>
+        <v>6.65533333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8413,22 +8383,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="C218" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="D218" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="E218" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="F218" t="n">
-        <v>2358.0769</v>
+        <v>78297.11259999999</v>
       </c>
       <c r="G218" t="n">
-        <v>6.639999999999988</v>
+        <v>6.656500000000007</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8448,22 +8418,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="C219" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="D219" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="E219" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="F219" t="n">
-        <v>25235.1407</v>
+        <v>2358.0769</v>
       </c>
       <c r="G219" t="n">
-        <v>6.619999999999988</v>
+        <v>6.65733333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8483,22 +8453,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="C220" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="D220" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="E220" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="F220" t="n">
-        <v>195.9941</v>
+        <v>25235.1407</v>
       </c>
       <c r="G220" t="n">
-        <v>6.619999999999989</v>
+        <v>6.657666666666674</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8518,22 +8488,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="C221" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="D221" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="E221" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="F221" t="n">
-        <v>2510.3531</v>
+        <v>195.9941</v>
       </c>
       <c r="G221" t="n">
-        <v>6.619999999999989</v>
+        <v>6.659333333333341</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8553,22 +8523,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>6.62</v>
+        <v>6.61</v>
       </c>
       <c r="C222" t="n">
-        <v>6.62</v>
+        <v>6.61</v>
       </c>
       <c r="D222" t="n">
-        <v>6.62</v>
+        <v>6.61</v>
       </c>
       <c r="E222" t="n">
-        <v>6.62</v>
+        <v>6.61</v>
       </c>
       <c r="F222" t="n">
         <v>2510.3531</v>
       </c>
       <c r="G222" t="n">
-        <v>6.61499999999999</v>
+        <v>6.660000000000008</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8588,22 +8558,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>6.7</v>
+        <v>6.62</v>
       </c>
       <c r="C223" t="n">
-        <v>6.71</v>
+        <v>6.62</v>
       </c>
       <c r="D223" t="n">
-        <v>6.71</v>
+        <v>6.62</v>
       </c>
       <c r="E223" t="n">
-        <v>6.7</v>
+        <v>6.62</v>
       </c>
       <c r="F223" t="n">
-        <v>54486.2838</v>
+        <v>2510.3531</v>
       </c>
       <c r="G223" t="n">
-        <v>6.66499999999999</v>
+        <v>6.660833333333342</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8626,19 +8596,19 @@
         <v>6.7</v>
       </c>
       <c r="C224" t="n">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
       <c r="D224" t="n">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
       <c r="E224" t="n">
         <v>6.7</v>
       </c>
       <c r="F224" t="n">
-        <v>2629.1705</v>
+        <v>54486.2838</v>
       </c>
       <c r="G224" t="n">
-        <v>6.704999999999989</v>
+        <v>6.662500000000008</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8658,22 +8628,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6.68</v>
+        <v>6.7</v>
       </c>
       <c r="C225" t="n">
-        <v>6.68</v>
+        <v>6.7</v>
       </c>
       <c r="D225" t="n">
-        <v>6.68</v>
+        <v>6.7</v>
       </c>
       <c r="E225" t="n">
-        <v>6.68</v>
+        <v>6.7</v>
       </c>
       <c r="F225" t="n">
-        <v>199806.7426</v>
+        <v>2629.1705</v>
       </c>
       <c r="G225" t="n">
-        <v>6.689999999999989</v>
+        <v>6.663500000000008</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8693,22 +8663,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6.74</v>
+        <v>6.68</v>
       </c>
       <c r="C226" t="n">
-        <v>6.74</v>
+        <v>6.68</v>
       </c>
       <c r="D226" t="n">
-        <v>6.74</v>
+        <v>6.68</v>
       </c>
       <c r="E226" t="n">
-        <v>6.74</v>
+        <v>6.68</v>
       </c>
       <c r="F226" t="n">
-        <v>5053.1099</v>
+        <v>199806.7426</v>
       </c>
       <c r="G226" t="n">
-        <v>6.709999999999988</v>
+        <v>6.665166666666675</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8728,22 +8698,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="C227" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="D227" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="E227" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="F227" t="n">
-        <v>2632.3911</v>
+        <v>5053.1099</v>
       </c>
       <c r="G227" t="n">
-        <v>6.749999999999989</v>
+        <v>6.667666666666675</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8775,10 +8745,10 @@
         <v>6.76</v>
       </c>
       <c r="F228" t="n">
-        <v>7635.3302</v>
+        <v>2632.3911</v>
       </c>
       <c r="G228" t="n">
-        <v>6.759999999999988</v>
+        <v>6.671500000000009</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8798,22 +8768,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="C229" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="D229" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="E229" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="F229" t="n">
-        <v>81.65900000000001</v>
+        <v>7635.3302</v>
       </c>
       <c r="G229" t="n">
-        <v>6.764999999999989</v>
+        <v>6.675500000000009</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8833,22 +8803,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="C230" t="n">
-        <v>6.8</v>
+        <v>6.77</v>
       </c>
       <c r="D230" t="n">
-        <v>6.8</v>
+        <v>6.77</v>
       </c>
       <c r="E230" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="F230" t="n">
-        <v>407783.4783</v>
+        <v>81.65900000000001</v>
       </c>
       <c r="G230" t="n">
-        <v>6.784999999999989</v>
+        <v>6.677833333333342</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8868,22 +8838,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="C231" t="n">
         <v>6.8</v>
       </c>
-      <c r="C231" t="n">
-        <v>6.82</v>
-      </c>
       <c r="D231" t="n">
-        <v>6.82</v>
+        <v>6.8</v>
       </c>
       <c r="E231" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="F231" t="n">
-        <v>79.65900000000001</v>
+        <v>407783.4783</v>
       </c>
       <c r="G231" t="n">
-        <v>6.80999999999999</v>
+        <v>6.680666666666676</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8903,22 +8873,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6.83</v>
+        <v>6.8</v>
       </c>
       <c r="C232" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="D232" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="E232" t="n">
-        <v>6.83</v>
+        <v>6.8</v>
       </c>
       <c r="F232" t="n">
-        <v>147122.4968</v>
+        <v>79.65900000000001</v>
       </c>
       <c r="G232" t="n">
-        <v>6.82499999999999</v>
+        <v>6.684166666666675</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8950,10 +8920,10 @@
         <v>6.83</v>
       </c>
       <c r="F233" t="n">
-        <v>1312.8204</v>
+        <v>147122.4968</v>
       </c>
       <c r="G233" t="n">
-        <v>6.829999999999991</v>
+        <v>6.687833333333342</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8973,22 +8943,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="C234" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="D234" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="E234" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="F234" t="n">
-        <v>366.3516</v>
+        <v>1312.8204</v>
       </c>
       <c r="G234" t="n">
-        <v>6.834999999999991</v>
+        <v>6.692666666666674</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9020,10 +8990,10 @@
         <v>6.84</v>
       </c>
       <c r="F235" t="n">
-        <v>7133.6484</v>
+        <v>366.3516</v>
       </c>
       <c r="G235" t="n">
-        <v>6.839999999999992</v>
+        <v>6.696666666666673</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9043,22 +9013,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6.85</v>
+        <v>6.84</v>
       </c>
       <c r="C236" t="n">
-        <v>6.86</v>
+        <v>6.84</v>
       </c>
       <c r="D236" t="n">
-        <v>6.86</v>
+        <v>6.84</v>
       </c>
       <c r="E236" t="n">
-        <v>6.85</v>
+        <v>6.84</v>
       </c>
       <c r="F236" t="n">
-        <v>111634.2728</v>
+        <v>7133.6484</v>
       </c>
       <c r="G236" t="n">
-        <v>6.849999999999993</v>
+        <v>6.700666666666673</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9078,22 +9048,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6.87</v>
+        <v>6.85</v>
       </c>
       <c r="C237" t="n">
-        <v>6.88</v>
+        <v>6.86</v>
       </c>
       <c r="D237" t="n">
-        <v>6.88</v>
+        <v>6.86</v>
       </c>
       <c r="E237" t="n">
-        <v>6.87</v>
+        <v>6.85</v>
       </c>
       <c r="F237" t="n">
-        <v>8866.501200000001</v>
+        <v>111634.2728</v>
       </c>
       <c r="G237" t="n">
-        <v>6.869999999999992</v>
+        <v>6.704166666666674</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9113,22 +9083,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6.84</v>
+        <v>6.87</v>
       </c>
       <c r="C238" t="n">
-        <v>6.84</v>
+        <v>6.88</v>
       </c>
       <c r="D238" t="n">
-        <v>6.84</v>
+        <v>6.88</v>
       </c>
       <c r="E238" t="n">
-        <v>6.84</v>
+        <v>6.87</v>
       </c>
       <c r="F238" t="n">
-        <v>12927.8247</v>
+        <v>8866.501200000001</v>
       </c>
       <c r="G238" t="n">
-        <v>6.859999999999992</v>
+        <v>6.707166666666674</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9148,22 +9118,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
       <c r="C239" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
       <c r="D239" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
       <c r="E239" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
       <c r="F239" t="n">
-        <v>58500.4151</v>
+        <v>12927.8247</v>
       </c>
       <c r="G239" t="n">
-        <v>6.824999999999992</v>
+        <v>6.709166666666673</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9186,19 +9156,19 @@
         <v>6.81</v>
       </c>
       <c r="C240" t="n">
-        <v>6.79</v>
+        <v>6.81</v>
       </c>
       <c r="D240" t="n">
         <v>6.81</v>
       </c>
       <c r="E240" t="n">
-        <v>6.79</v>
+        <v>6.81</v>
       </c>
       <c r="F240" t="n">
-        <v>115545.9495</v>
+        <v>58500.4151</v>
       </c>
       <c r="G240" t="n">
-        <v>6.799999999999992</v>
+        <v>6.709833333333339</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9230,10 +9200,10 @@
         <v>6.79</v>
       </c>
       <c r="F241" t="n">
-        <v>119414.6265</v>
+        <v>115545.9495</v>
       </c>
       <c r="G241" t="n">
-        <v>6.789999999999992</v>
+        <v>6.711000000000007</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9253,22 +9223,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="C242" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="D242" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="E242" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="F242" t="n">
-        <v>80027.7025</v>
+        <v>119414.6265</v>
       </c>
       <c r="G242" t="n">
-        <v>6.794999999999993</v>
+        <v>6.711666666666673</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9288,22 +9258,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
       <c r="C243" t="n">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
       <c r="D243" t="n">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
       <c r="E243" t="n">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
       <c r="F243" t="n">
-        <v>911605.7542</v>
+        <v>80027.7025</v>
       </c>
       <c r="G243" t="n">
-        <v>6.794999999999993</v>
+        <v>6.713000000000006</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9323,22 +9293,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="C244" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="D244" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="E244" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="F244" t="n">
-        <v>2476.6126</v>
+        <v>911605.7542</v>
       </c>
       <c r="G244" t="n">
-        <v>6.794999999999993</v>
+        <v>6.71483333333334</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9370,10 +9340,10 @@
         <v>6.8</v>
       </c>
       <c r="F245" t="n">
-        <v>147488.8484</v>
+        <v>2476.6126</v>
       </c>
       <c r="G245" t="n">
-        <v>6.799999999999994</v>
+        <v>6.71583333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9405,10 +9375,10 @@
         <v>6.8</v>
       </c>
       <c r="F246" t="n">
-        <v>50000</v>
+        <v>147488.8484</v>
       </c>
       <c r="G246" t="n">
-        <v>6.799999999999994</v>
+        <v>6.71683333333334</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9431,19 +9401,19 @@
         <v>6.8</v>
       </c>
       <c r="C247" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="D247" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="E247" t="n">
         <v>6.8</v>
       </c>
       <c r="F247" t="n">
-        <v>50851.3332</v>
+        <v>50000</v>
       </c>
       <c r="G247" t="n">
-        <v>6.804999999999993</v>
+        <v>6.717500000000006</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9463,7 +9433,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="C248" t="n">
         <v>6.81</v>
@@ -9472,13 +9442,13 @@
         <v>6.81</v>
       </c>
       <c r="E248" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0001</v>
+        <v>50851.3332</v>
       </c>
       <c r="G248" t="n">
-        <v>6.809999999999992</v>
+        <v>6.719666666666673</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9498,22 +9468,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
       <c r="C249" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
       <c r="D249" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
       <c r="E249" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
       <c r="F249" t="n">
-        <v>1859.8002</v>
+        <v>0.0001</v>
       </c>
       <c r="G249" t="n">
-        <v>6.839999999999993</v>
+        <v>6.722000000000007</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9545,10 +9515,10 @@
         <v>6.87</v>
       </c>
       <c r="F250" t="n">
-        <v>8771.536899999999</v>
+        <v>1859.8002</v>
       </c>
       <c r="G250" t="n">
-        <v>6.869999999999994</v>
+        <v>6.724333333333339</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9580,10 +9550,10 @@
         <v>6.87</v>
       </c>
       <c r="F251" t="n">
-        <v>8647.049000000001</v>
+        <v>8771.536899999999</v>
       </c>
       <c r="G251" t="n">
-        <v>6.869999999999994</v>
+        <v>6.728000000000007</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9603,22 +9573,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>6.86</v>
+        <v>6.87</v>
       </c>
       <c r="C252" t="n">
-        <v>6.86</v>
+        <v>6.87</v>
       </c>
       <c r="D252" t="n">
-        <v>6.86</v>
+        <v>6.87</v>
       </c>
       <c r="E252" t="n">
-        <v>6.86</v>
+        <v>6.87</v>
       </c>
       <c r="F252" t="n">
-        <v>400</v>
+        <v>8647.049000000001</v>
       </c>
       <c r="G252" t="n">
-        <v>6.864999999999993</v>
+        <v>6.731166666666673</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9650,10 +9620,10 @@
         <v>6.86</v>
       </c>
       <c r="F253" t="n">
-        <v>13758.3693</v>
+        <v>400</v>
       </c>
       <c r="G253" t="n">
-        <v>6.859999999999992</v>
+        <v>6.735000000000007</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9685,10 +9655,10 @@
         <v>6.86</v>
       </c>
       <c r="F254" t="n">
-        <v>5755.6822</v>
+        <v>13758.3693</v>
       </c>
       <c r="G254" t="n">
-        <v>6.859999999999992</v>
+        <v>6.738166666666674</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9720,10 +9690,10 @@
         <v>6.86</v>
       </c>
       <c r="F255" t="n">
-        <v>74</v>
+        <v>5755.6822</v>
       </c>
       <c r="G255" t="n">
-        <v>6.859999999999992</v>
+        <v>6.741166666666674</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9743,22 +9713,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>6.84</v>
+        <v>6.86</v>
       </c>
       <c r="C256" t="n">
-        <v>6.84</v>
+        <v>6.86</v>
       </c>
       <c r="D256" t="n">
-        <v>6.84</v>
+        <v>6.86</v>
       </c>
       <c r="E256" t="n">
-        <v>6.84</v>
+        <v>6.86</v>
       </c>
       <c r="F256" t="n">
-        <v>8573.049000000001</v>
+        <v>74</v>
       </c>
       <c r="G256" t="n">
-        <v>6.849999999999993</v>
+        <v>6.744833333333341</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9778,22 +9748,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>6.87</v>
+        <v>6.84</v>
       </c>
       <c r="C257" t="n">
-        <v>6.87</v>
+        <v>6.84</v>
       </c>
       <c r="D257" t="n">
-        <v>6.87</v>
+        <v>6.84</v>
       </c>
       <c r="E257" t="n">
-        <v>6.87</v>
+        <v>6.84</v>
       </c>
       <c r="F257" t="n">
-        <v>7232.742</v>
+        <v>8573.049000000001</v>
       </c>
       <c r="G257" t="n">
-        <v>6.854999999999993</v>
+        <v>6.747333333333341</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9813,22 +9783,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>6.83</v>
+        <v>6.87</v>
       </c>
       <c r="C258" t="n">
-        <v>6.82</v>
+        <v>6.87</v>
       </c>
       <c r="D258" t="n">
-        <v>6.83</v>
+        <v>6.87</v>
       </c>
       <c r="E258" t="n">
-        <v>6.82</v>
+        <v>6.87</v>
       </c>
       <c r="F258" t="n">
-        <v>40000</v>
+        <v>7232.742</v>
       </c>
       <c r="G258" t="n">
-        <v>6.844999999999994</v>
+        <v>6.750333333333341</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9848,22 +9818,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="C259" t="n">
         <v>6.82</v>
       </c>
-      <c r="C259" t="n">
-        <v>6.81</v>
-      </c>
       <c r="D259" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E259" t="n">
         <v>6.82</v>
       </c>
-      <c r="E259" t="n">
-        <v>6.81</v>
-      </c>
       <c r="F259" t="n">
-        <v>107144.9728</v>
+        <v>40000</v>
       </c>
       <c r="G259" t="n">
-        <v>6.814999999999992</v>
+        <v>6.752500000000007</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9883,22 +9853,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>6.79</v>
+        <v>6.82</v>
       </c>
       <c r="C260" t="n">
-        <v>6.76</v>
+        <v>6.81</v>
       </c>
       <c r="D260" t="n">
-        <v>6.79</v>
+        <v>6.82</v>
       </c>
       <c r="E260" t="n">
-        <v>6.76</v>
+        <v>6.81</v>
       </c>
       <c r="F260" t="n">
-        <v>387724.0702</v>
+        <v>107144.9728</v>
       </c>
       <c r="G260" t="n">
-        <v>6.784999999999993</v>
+        <v>6.753833333333341</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9918,22 +9888,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="C261" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
       <c r="D261" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="E261" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
       <c r="F261" t="n">
-        <v>2516.4357</v>
+        <v>387724.0702</v>
       </c>
       <c r="G261" t="n">
-        <v>6.779999999999994</v>
+        <v>6.755666666666674</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9953,22 +9923,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="C262" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="D262" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="E262" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="F262" t="n">
-        <v>35563.0659</v>
+        <v>2516.4357</v>
       </c>
       <c r="G262" t="n">
-        <v>6.804999999999993</v>
+        <v>6.758500000000008</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10000,10 +9970,10 @@
         <v>6.81</v>
       </c>
       <c r="F263" t="n">
-        <v>29631.5647</v>
+        <v>35563.0659</v>
       </c>
       <c r="G263" t="n">
-        <v>6.809999999999993</v>
+        <v>6.760166666666675</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10035,10 +10005,10 @@
         <v>6.81</v>
       </c>
       <c r="F264" t="n">
-        <v>57223.3117</v>
+        <v>29631.5647</v>
       </c>
       <c r="G264" t="n">
-        <v>6.809999999999993</v>
+        <v>6.761500000000008</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10058,22 +10028,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="C265" t="n">
-        <v>6.78</v>
+        <v>6.81</v>
       </c>
       <c r="D265" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="E265" t="n">
-        <v>6.78</v>
+        <v>6.81</v>
       </c>
       <c r="F265" t="n">
-        <v>631572.9238</v>
+        <v>57223.3117</v>
       </c>
       <c r="G265" t="n">
-        <v>6.794999999999995</v>
+        <v>6.762666666666674</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10093,22 +10063,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C266" t="n">
         <v>6.78</v>
       </c>
-      <c r="C266" t="n">
-        <v>6.73</v>
-      </c>
       <c r="D266" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E266" t="n">
         <v>6.78</v>
       </c>
-      <c r="E266" t="n">
-        <v>6.73</v>
-      </c>
       <c r="F266" t="n">
-        <v>598420.4772</v>
+        <v>631572.9238</v>
       </c>
       <c r="G266" t="n">
-        <v>6.754999999999995</v>
+        <v>6.76333333333334</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10128,22 +10098,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>6.75</v>
+        <v>6.78</v>
       </c>
       <c r="C267" t="n">
-        <v>6.75</v>
+        <v>6.73</v>
       </c>
       <c r="D267" t="n">
-        <v>6.75</v>
+        <v>6.78</v>
       </c>
       <c r="E267" t="n">
-        <v>6.75</v>
+        <v>6.73</v>
       </c>
       <c r="F267" t="n">
-        <v>7271.9865</v>
+        <v>598420.4772</v>
       </c>
       <c r="G267" t="n">
-        <v>6.739999999999995</v>
+        <v>6.763500000000007</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10175,10 +10145,10 @@
         <v>6.75</v>
       </c>
       <c r="F268" t="n">
-        <v>80658.1633</v>
+        <v>7271.9865</v>
       </c>
       <c r="G268" t="n">
-        <v>6.749999999999995</v>
+        <v>6.764000000000006</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10210,10 +10180,10 @@
         <v>6.75</v>
       </c>
       <c r="F269" t="n">
-        <v>23680.6217</v>
+        <v>80658.1633</v>
       </c>
       <c r="G269" t="n">
-        <v>6.749999999999995</v>
+        <v>6.765500000000006</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10233,22 +10203,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="C270" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="D270" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="E270" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="F270" t="n">
-        <v>44993.1813</v>
+        <v>23680.6217</v>
       </c>
       <c r="G270" t="n">
-        <v>6.744999999999994</v>
+        <v>6.767666666666672</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10280,10 +10250,10 @@
         <v>6.74</v>
       </c>
       <c r="F271" t="n">
-        <v>723.8955999999999</v>
+        <v>44993.1813</v>
       </c>
       <c r="G271" t="n">
-        <v>6.739999999999995</v>
+        <v>6.770000000000006</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10303,22 +10273,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
       <c r="C272" t="n">
         <v>6.74</v>
       </c>
       <c r="D272" t="n">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
       <c r="E272" t="n">
         <v>6.74</v>
       </c>
       <c r="F272" t="n">
-        <v>171664.0546</v>
+        <v>723.8955999999999</v>
       </c>
       <c r="G272" t="n">
-        <v>6.739999999999996</v>
+        <v>6.772000000000006</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10338,22 +10308,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="C273" t="n">
         <v>6.74</v>
       </c>
       <c r="D273" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="E273" t="n">
         <v>6.74</v>
       </c>
       <c r="F273" t="n">
-        <v>413043.1164</v>
+        <v>171664.0546</v>
       </c>
       <c r="G273" t="n">
-        <v>6.739999999999996</v>
+        <v>6.773333333333339</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10385,10 +10355,10 @@
         <v>6.74</v>
       </c>
       <c r="F274" t="n">
-        <v>2445.7162</v>
+        <v>413043.1164</v>
       </c>
       <c r="G274" t="n">
-        <v>6.739999999999996</v>
+        <v>6.774666666666672</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10408,22 +10378,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>6.78</v>
+        <v>6.74</v>
       </c>
       <c r="C275" t="n">
-        <v>6.78</v>
+        <v>6.74</v>
       </c>
       <c r="D275" t="n">
-        <v>6.78</v>
+        <v>6.74</v>
       </c>
       <c r="E275" t="n">
-        <v>6.78</v>
+        <v>6.74</v>
       </c>
       <c r="F275" t="n">
-        <v>1360.7676</v>
+        <v>2445.7162</v>
       </c>
       <c r="G275" t="n">
-        <v>6.759999999999995</v>
+        <v>6.776166666666672</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10455,10 +10425,10 @@
         <v>6.78</v>
       </c>
       <c r="F276" t="n">
-        <v>24509.8606</v>
+        <v>1360.7676</v>
       </c>
       <c r="G276" t="n">
-        <v>6.779999999999995</v>
+        <v>6.778166666666672</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10478,22 +10448,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6.76</v>
+        <v>6.78</v>
       </c>
       <c r="C277" t="n">
-        <v>6.76</v>
+        <v>6.78</v>
       </c>
       <c r="D277" t="n">
-        <v>6.76</v>
+        <v>6.78</v>
       </c>
       <c r="E277" t="n">
-        <v>6.76</v>
+        <v>6.78</v>
       </c>
       <c r="F277" t="n">
-        <v>40493.8632</v>
+        <v>24509.8606</v>
       </c>
       <c r="G277" t="n">
-        <v>6.769999999999994</v>
+        <v>6.780166666666671</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10513,22 +10483,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="C278" t="n">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
       <c r="D278" t="n">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
       <c r="E278" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="F278" t="n">
-        <v>249557.6692</v>
+        <v>40493.8632</v>
       </c>
       <c r="G278" t="n">
-        <v>6.769999999999994</v>
+        <v>6.782000000000004</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10551,19 +10521,19 @@
         <v>6.77</v>
       </c>
       <c r="C279" t="n">
-        <v>6.77</v>
+        <v>6.78</v>
       </c>
       <c r="D279" t="n">
-        <v>6.77</v>
+        <v>6.78</v>
       </c>
       <c r="E279" t="n">
         <v>6.77</v>
       </c>
       <c r="F279" t="n">
-        <v>257.3286</v>
+        <v>249557.6692</v>
       </c>
       <c r="G279" t="n">
-        <v>6.774999999999994</v>
+        <v>6.784500000000004</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10586,19 +10556,19 @@
         <v>6.77</v>
       </c>
       <c r="C280" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="D280" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="E280" t="n">
         <v>6.77</v>
       </c>
       <c r="F280" t="n">
-        <v>51746.8408</v>
+        <v>257.3286</v>
       </c>
       <c r="G280" t="n">
-        <v>6.774999999999993</v>
+        <v>6.787166666666669</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10630,10 +10600,10 @@
         <v>6.77</v>
       </c>
       <c r="F281" t="n">
-        <v>36884.24778761062</v>
+        <v>51746.8408</v>
       </c>
       <c r="G281" t="n">
-        <v>6.779999999999994</v>
+        <v>6.78966666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10656,19 +10626,19 @@
         <v>6.77</v>
       </c>
       <c r="C282" t="n">
-        <v>6.76</v>
+        <v>6.78</v>
       </c>
       <c r="D282" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E282" t="n">
         <v>6.77</v>
       </c>
-      <c r="E282" t="n">
-        <v>6.76</v>
-      </c>
       <c r="F282" t="n">
-        <v>83252.8734</v>
+        <v>36884.24778761062</v>
       </c>
       <c r="G282" t="n">
-        <v>6.769999999999992</v>
+        <v>6.792500000000002</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10688,22 +10658,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="C283" t="n">
         <v>6.76</v>
       </c>
       <c r="D283" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="E283" t="n">
         <v>6.76</v>
       </c>
-      <c r="E283" t="n">
-        <v>6.75</v>
-      </c>
       <c r="F283" t="n">
-        <v>43917.2229</v>
+        <v>83252.8734</v>
       </c>
       <c r="G283" t="n">
-        <v>6.759999999999991</v>
+        <v>6.794833333333335</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10723,22 +10693,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>6.82</v>
+        <v>6.75</v>
       </c>
       <c r="C284" t="n">
-        <v>6.82</v>
+        <v>6.76</v>
       </c>
       <c r="D284" t="n">
-        <v>6.82</v>
+        <v>6.76</v>
       </c>
       <c r="E284" t="n">
-        <v>6.82</v>
+        <v>6.75</v>
       </c>
       <c r="F284" t="n">
-        <v>7654.8977</v>
+        <v>43917.2229</v>
       </c>
       <c r="G284" t="n">
-        <v>6.789999999999991</v>
+        <v>6.795666666666668</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10761,19 +10731,19 @@
         <v>6.82</v>
       </c>
       <c r="C285" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="D285" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="E285" t="n">
         <v>6.82</v>
       </c>
       <c r="F285" t="n">
-        <v>90773.0687</v>
+        <v>7654.8977</v>
       </c>
       <c r="G285" t="n">
-        <v>6.824999999999991</v>
+        <v>6.797666666666669</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10793,22 +10763,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C286" t="n">
         <v>6.83</v>
       </c>
-      <c r="C286" t="n">
-        <v>6.84</v>
-      </c>
       <c r="D286" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="E286" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="F286" t="n">
-        <v>161827.6083859649</v>
+        <v>90773.0687</v>
       </c>
       <c r="G286" t="n">
-        <v>6.83499999999999</v>
+        <v>6.800166666666668</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10831,19 +10801,19 @@
         <v>6.83</v>
       </c>
       <c r="C287" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="D287" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="E287" t="n">
         <v>6.83</v>
       </c>
       <c r="F287" t="n">
-        <v>4563.1271</v>
+        <v>161827.6083859649</v>
       </c>
       <c r="G287" t="n">
-        <v>6.834999999999989</v>
+        <v>6.801833333333335</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10875,10 +10845,10 @@
         <v>6.83</v>
       </c>
       <c r="F288" t="n">
-        <v>63113.9698</v>
+        <v>4563.1271</v>
       </c>
       <c r="G288" t="n">
-        <v>6.829999999999989</v>
+        <v>6.803000000000001</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10910,10 +10880,10 @@
         <v>6.83</v>
       </c>
       <c r="F289" t="n">
-        <v>7937.4297</v>
+        <v>63113.9698</v>
       </c>
       <c r="G289" t="n">
-        <v>6.82999999999999</v>
+        <v>6.804166666666668</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10933,22 +10903,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="C290" t="n">
-        <v>6.81</v>
+        <v>6.83</v>
       </c>
       <c r="D290" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="E290" t="n">
-        <v>6.8</v>
+        <v>6.83</v>
       </c>
       <c r="F290" t="n">
-        <v>213758.955</v>
+        <v>7937.4297</v>
       </c>
       <c r="G290" t="n">
-        <v>6.819999999999991</v>
+        <v>6.805166666666667</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10968,22 +10938,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="C291" t="n">
-        <v>6.83</v>
+        <v>6.81</v>
       </c>
       <c r="D291" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="E291" t="n">
-        <v>6.83</v>
+        <v>6.8</v>
       </c>
       <c r="F291" t="n">
-        <v>7525.2688</v>
+        <v>213758.955</v>
       </c>
       <c r="G291" t="n">
-        <v>6.819999999999991</v>
+        <v>6.805333333333334</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11006,19 +10976,19 @@
         <v>6.83</v>
       </c>
       <c r="C292" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="D292" t="n">
         <v>6.83</v>
       </c>
       <c r="E292" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="F292" t="n">
-        <v>12667.6493</v>
+        <v>7525.2688</v>
       </c>
       <c r="G292" t="n">
-        <v>6.82499999999999</v>
+        <v>6.8055</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11033,6 +11003,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="C293" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D293" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F293" t="n">
+        <v>12667.6493</v>
+      </c>
+      <c r="G293" t="n">
+        <v>6.805333333333334</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-24 BackTest VET.xlsx
+++ b/BackTest/2019-11-24 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:N303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>143251.6703</v>
       </c>
       <c r="G2" t="n">
+        <v>5.959333333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.024000000000006</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>362852.4755</v>
       </c>
       <c r="G3" t="n">
+        <v>5.956666666666664</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.021500000000007</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>165700.9144</v>
       </c>
       <c r="G4" t="n">
+        <v>5.950666666666664</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.019000000000007</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>357653.2507</v>
       </c>
       <c r="G5" t="n">
+        <v>5.947999999999997</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.016833333333341</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>48041.5637</v>
       </c>
       <c r="G6" t="n">
+        <v>5.946666666666663</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.014666666666674</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>19236.3313</v>
       </c>
       <c r="G7" t="n">
+        <v>5.945999999999996</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.012833333333342</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>292924.3756</v>
       </c>
       <c r="G8" t="n">
+        <v>5.944666666666663</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.011333333333341</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>878.5171</v>
       </c>
       <c r="G9" t="n">
+        <v>5.945333333333329</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.010000000000007</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>447380.6059</v>
       </c>
       <c r="G10" t="n">
+        <v>5.946666666666662</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.00833333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>5047.1271</v>
       </c>
       <c r="G11" t="n">
+        <v>5.946666666666662</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.006500000000006</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2994.3898</v>
       </c>
       <c r="G12" t="n">
+        <v>5.945333333333329</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.004666666666673</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>2829.9587</v>
       </c>
       <c r="G13" t="n">
+        <v>5.942666666666662</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.002666666666673</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>44127</v>
       </c>
       <c r="G14" t="n">
+        <v>5.940666666666662</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.00033333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,24 +947,21 @@
         <v>133395.1749</v>
       </c>
       <c r="G15" t="n">
+        <v>5.937999999999996</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.998000000000006</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,22 +985,21 @@
         <v>410.64</v>
       </c>
       <c r="G16" t="n">
+        <v>5.935999999999996</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.995500000000005</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -983,22 +1023,21 @@
         <v>766718.6736</v>
       </c>
       <c r="G17" t="n">
+        <v>5.932666666666663</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.992833333333338</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1022,22 +1061,21 @@
         <v>764.6931</v>
       </c>
       <c r="G18" t="n">
+        <v>5.928666666666662</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.990500000000005</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,22 +1099,21 @@
         <v>29167.6225</v>
       </c>
       <c r="G19" t="n">
+        <v>5.927333333333329</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.988166666666672</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,22 +1137,21 @@
         <v>5404.7728</v>
       </c>
       <c r="G20" t="n">
+        <v>5.922666666666663</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.985833333333338</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1139,22 +1175,21 @@
         <v>6757.2823</v>
       </c>
       <c r="G21" t="n">
+        <v>5.918666666666664</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.983500000000005</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,22 +1213,21 @@
         <v>2786.8158</v>
       </c>
       <c r="G22" t="n">
+        <v>5.91333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.981500000000005</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1217,24 +1251,21 @@
         <v>63435.5195</v>
       </c>
       <c r="G23" t="n">
+        <v>5.908666666666663</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.978833333333338</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1258,24 +1289,21 @@
         <v>10484.8423</v>
       </c>
       <c r="G24" t="n">
+        <v>5.903333333333331</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.974333333333337</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1299,24 +1327,21 @@
         <v>861622.295</v>
       </c>
       <c r="G25" t="n">
+        <v>5.89733333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.971000000000005</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1340,22 +1365,21 @@
         <v>30178.5918</v>
       </c>
       <c r="G26" t="n">
+        <v>5.890666666666664</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.967500000000004</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1379,22 +1403,21 @@
         <v>190375.7137</v>
       </c>
       <c r="G27" t="n">
+        <v>5.886666666666664</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.964500000000004</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,22 +1441,21 @@
         <v>112540.7911</v>
       </c>
       <c r="G28" t="n">
+        <v>5.882666666666664</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.96166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1457,22 +1479,21 @@
         <v>112540.7911</v>
       </c>
       <c r="G29" t="n">
+        <v>5.879999999999997</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.959000000000004</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1496,22 +1517,21 @@
         <v>8228.405699999999</v>
       </c>
       <c r="G30" t="n">
+        <v>5.876666666666663</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.955833333333337</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1535,22 +1555,25 @@
         <v>54671.9233</v>
       </c>
       <c r="G31" t="n">
+        <v>5.87333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.952833333333339</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,22 +1597,29 @@
         <v>100000</v>
       </c>
       <c r="G32" t="n">
+        <v>5.870666666666662</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.949666666666672</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1613,22 +1643,27 @@
         <v>414015.768</v>
       </c>
       <c r="G33" t="n">
+        <v>5.869999999999996</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.946833333333339</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,22 +1687,21 @@
         <v>13988.4537</v>
       </c>
       <c r="G34" t="n">
+        <v>5.869333333333329</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.944166666666671</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,22 +1725,21 @@
         <v>98245.9161</v>
       </c>
       <c r="G35" t="n">
+        <v>5.869333333333329</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.941666666666671</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,22 +1763,21 @@
         <v>2032.5838</v>
       </c>
       <c r="G36" t="n">
+        <v>5.867333333333329</v>
+      </c>
+      <c r="H36" t="n">
         <v>5.938166666666671</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1769,22 +1801,21 @@
         <v>3300.0432</v>
       </c>
       <c r="G37" t="n">
+        <v>5.865999999999996</v>
+      </c>
+      <c r="H37" t="n">
         <v>5.935166666666671</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1808,22 +1839,21 @@
         <v>61900.5838</v>
       </c>
       <c r="G38" t="n">
+        <v>5.86733333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.932666666666671</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1847,22 +1877,27 @@
         <v>394929.5519</v>
       </c>
       <c r="G39" t="n">
+        <v>5.868666666666664</v>
+      </c>
+      <c r="H39" t="n">
         <v>5.930333333333336</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1886,22 +1921,27 @@
         <v>695983.7577</v>
       </c>
       <c r="G40" t="n">
+        <v>5.872666666666664</v>
+      </c>
+      <c r="H40" t="n">
         <v>5.927500000000004</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1925,22 +1965,25 @@
         <v>10451.7146</v>
       </c>
       <c r="G41" t="n">
+        <v>5.876666666666664</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.924500000000004</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1964,22 +2007,27 @@
         <v>879.2009</v>
       </c>
       <c r="G42" t="n">
+        <v>5.88133333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.92316666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2003,22 +2051,25 @@
         <v>6604.1317</v>
       </c>
       <c r="G43" t="n">
+        <v>5.88533333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>5.92166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2042,22 +2093,25 @@
         <v>3000</v>
       </c>
       <c r="G44" t="n">
+        <v>5.889999999999996</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.920333333333337</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2081,22 +2135,25 @@
         <v>4908.6691</v>
       </c>
       <c r="G45" t="n">
+        <v>5.895999999999996</v>
+      </c>
+      <c r="H45" t="n">
         <v>5.919333333333338</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2120,22 +2177,27 @@
         <v>37383.6065</v>
       </c>
       <c r="G46" t="n">
+        <v>5.902666666666663</v>
+      </c>
+      <c r="H46" t="n">
         <v>5.918500000000004</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2159,22 +2221,27 @@
         <v>28475.7119</v>
       </c>
       <c r="G47" t="n">
+        <v>5.910666666666663</v>
+      </c>
+      <c r="H47" t="n">
         <v>5.918333333333337</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,22 +2265,25 @@
         <v>4950.4743</v>
       </c>
       <c r="G48" t="n">
+        <v>5.917999999999997</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.918333333333337</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2237,22 +2307,27 @@
         <v>272189.8154</v>
       </c>
       <c r="G49" t="n">
+        <v>5.924666666666664</v>
+      </c>
+      <c r="H49" t="n">
         <v>5.918000000000005</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,22 +2351,27 @@
         <v>1251.9253</v>
       </c>
       <c r="G50" t="n">
+        <v>5.93133333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>5.917833333333338</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2315,22 +2395,25 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
+        <v>5.939999999999997</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.918166666666671</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,22 +2437,25 @@
         <v>2224.872</v>
       </c>
       <c r="G52" t="n">
+        <v>5.948666666666663</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.918500000000004</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,22 +2479,25 @@
         <v>66666.6667</v>
       </c>
       <c r="G53" t="n">
+        <v>5.955333333333329</v>
+      </c>
+      <c r="H53" t="n">
         <v>5.919000000000003</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2432,22 +2521,25 @@
         <v>19289.8694</v>
       </c>
       <c r="G54" t="n">
+        <v>5.961999999999995</v>
+      </c>
+      <c r="H54" t="n">
         <v>5.919833333333337</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2471,22 +2563,25 @@
         <v>83300.057</v>
       </c>
       <c r="G55" t="n">
+        <v>5.965999999999996</v>
+      </c>
+      <c r="H55" t="n">
         <v>5.920666666666671</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,22 +2605,25 @@
         <v>40941.137</v>
       </c>
       <c r="G56" t="n">
+        <v>5.969999999999995</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.921000000000004</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,22 +2647,25 @@
         <v>40000</v>
       </c>
       <c r="G57" t="n">
+        <v>5.973999999999995</v>
+      </c>
+      <c r="H57" t="n">
         <v>5.921833333333337</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,22 +2689,25 @@
         <v>30010.2966</v>
       </c>
       <c r="G58" t="n">
+        <v>5.976666666666661</v>
+      </c>
+      <c r="H58" t="n">
         <v>5.921833333333337</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2627,22 +2731,25 @@
         <v>31771.7464</v>
       </c>
       <c r="G59" t="n">
+        <v>5.981999999999995</v>
+      </c>
+      <c r="H59" t="n">
         <v>5.92316666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2666,22 +2773,25 @@
         <v>100092.7117</v>
       </c>
       <c r="G60" t="n">
+        <v>5.991333333333328</v>
+      </c>
+      <c r="H60" t="n">
         <v>5.925500000000003</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2705,22 +2815,25 @@
         <v>60000</v>
       </c>
       <c r="G61" t="n">
+        <v>6.001333333333327</v>
+      </c>
+      <c r="H61" t="n">
         <v>5.928333333333337</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2744,22 +2857,25 @@
         <v>43312.2898</v>
       </c>
       <c r="G62" t="n">
+        <v>6.009999999999994</v>
+      </c>
+      <c r="H62" t="n">
         <v>5.931000000000004</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2783,22 +2899,25 @@
         <v>16411.9297</v>
       </c>
       <c r="G63" t="n">
+        <v>6.019333333333327</v>
+      </c>
+      <c r="H63" t="n">
         <v>5.934000000000004</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,22 +2941,25 @@
         <v>821454.816</v>
       </c>
       <c r="G64" t="n">
+        <v>6.033999999999994</v>
+      </c>
+      <c r="H64" t="n">
         <v>5.938833333333337</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2861,22 +2983,25 @@
         <v>9146.015434405144</v>
       </c>
       <c r="G65" t="n">
+        <v>6.049333333333327</v>
+      </c>
+      <c r="H65" t="n">
         <v>5.943166666666671</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,22 +3025,25 @@
         <v>4402.254428341384</v>
       </c>
       <c r="G66" t="n">
+        <v>6.063333333333327</v>
+      </c>
+      <c r="H66" t="n">
         <v>5.947333333333337</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2939,22 +3067,25 @@
         <v>727055.4917</v>
       </c>
       <c r="G67" t="n">
+        <v>6.075333333333328</v>
+      </c>
+      <c r="H67" t="n">
         <v>5.950833333333337</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,22 +3109,25 @@
         <v>7470</v>
       </c>
       <c r="G68" t="n">
+        <v>6.087999999999994</v>
+      </c>
+      <c r="H68" t="n">
         <v>5.954833333333338</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3017,22 +3151,25 @@
         <v>2796.0698</v>
       </c>
       <c r="G69" t="n">
+        <v>6.10066666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>5.958666666666671</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,22 +3193,25 @@
         <v>7470</v>
       </c>
       <c r="G70" t="n">
+        <v>6.113999999999994</v>
+      </c>
+      <c r="H70" t="n">
         <v>5.962500000000005</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3095,22 +3235,25 @@
         <v>393005.8677</v>
       </c>
       <c r="G71" t="n">
+        <v>6.125333333333328</v>
+      </c>
+      <c r="H71" t="n">
         <v>5.965666666666672</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,22 +3277,25 @@
         <v>115805.8185</v>
       </c>
       <c r="G72" t="n">
+        <v>6.135999999999994</v>
+      </c>
+      <c r="H72" t="n">
         <v>5.969500000000005</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3173,22 +3319,25 @@
         <v>254969.5079</v>
       </c>
       <c r="G73" t="n">
+        <v>6.157999999999993</v>
+      </c>
+      <c r="H73" t="n">
         <v>5.975666666666672</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,22 +3361,25 @@
         <v>79365.0794</v>
       </c>
       <c r="G74" t="n">
+        <v>6.176666666666661</v>
+      </c>
+      <c r="H74" t="n">
         <v>5.982166666666672</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,22 +3403,25 @@
         <v>15341.1082</v>
       </c>
       <c r="G75" t="n">
+        <v>6.191333333333327</v>
+      </c>
+      <c r="H75" t="n">
         <v>5.988833333333338</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,22 +3445,25 @@
         <v>550077.638</v>
       </c>
       <c r="G76" t="n">
+        <v>6.20266666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>5.995000000000005</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3329,22 +3487,25 @@
         <v>4542.266</v>
       </c>
       <c r="G77" t="n">
+        <v>6.215999999999994</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.001833333333339</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,22 +3529,25 @@
         <v>15523.0235</v>
       </c>
       <c r="G78" t="n">
+        <v>6.22666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.008500000000006</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,22 +3571,25 @@
         <v>80000</v>
       </c>
       <c r="G79" t="n">
+        <v>6.229333333333327</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.014333333333339</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3446,22 +3613,25 @@
         <v>19395.5269</v>
       </c>
       <c r="G80" t="n">
+        <v>6.231333333333327</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.02033333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3485,22 +3655,25 @@
         <v>40000</v>
       </c>
       <c r="G81" t="n">
+        <v>6.233333333333326</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.026000000000007</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,22 +3697,25 @@
         <v>795.3713</v>
       </c>
       <c r="G82" t="n">
+        <v>6.237999999999994</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.032000000000007</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,22 +3739,25 @@
         <v>9204.628699999999</v>
       </c>
       <c r="G83" t="n">
+        <v>6.241999999999994</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.038166666666673</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,22 +3781,25 @@
         <v>50000</v>
       </c>
       <c r="G84" t="n">
+        <v>6.243333333333327</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.043666666666673</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3641,22 +3823,25 @@
         <v>519680.8604</v>
       </c>
       <c r="G85" t="n">
+        <v>6.248666666666661</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.05033333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,22 +3865,25 @@
         <v>87500.3882</v>
       </c>
       <c r="G86" t="n">
+        <v>6.256666666666661</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.057166666666673</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,22 +3907,25 @@
         <v>32370.265</v>
       </c>
       <c r="G87" t="n">
+        <v>6.261999999999994</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.063333333333341</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,22 +3949,25 @@
         <v>6687.4758</v>
       </c>
       <c r="G88" t="n">
+        <v>6.256666666666661</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.069166666666674</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3797,22 +3991,25 @@
         <v>116664.2573</v>
       </c>
       <c r="G89" t="n">
+        <v>6.251333333333327</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.075000000000007</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,22 +4033,25 @@
         <v>42450.8172</v>
       </c>
       <c r="G90" t="n">
+        <v>6.245999999999994</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.081166666666674</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3875,22 +4075,25 @@
         <v>23263</v>
       </c>
       <c r="G91" t="n">
+        <v>6.242666666666661</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.087333333333341</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,22 +4117,25 @@
         <v>71515.2396</v>
       </c>
       <c r="G92" t="n">
+        <v>6.237333333333328</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.093500000000008</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3953,22 +4159,25 @@
         <v>81.09820000000001</v>
       </c>
       <c r="G93" t="n">
+        <v>6.235999999999994</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.100000000000008</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,22 +4201,25 @@
         <v>896990.8061</v>
       </c>
       <c r="G94" t="n">
+        <v>6.237999999999995</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.106500000000008</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4031,22 +4243,25 @@
         <v>5438.7309</v>
       </c>
       <c r="G95" t="n">
+        <v>6.239999999999995</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.113000000000008</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,22 +4285,25 @@
         <v>7180</v>
       </c>
       <c r="G96" t="n">
+        <v>6.241999999999995</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.119666666666673</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4109,22 +4327,25 @@
         <v>424766.4545</v>
       </c>
       <c r="G97" t="n">
+        <v>6.243333333333328</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.126333333333339</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,22 +4369,25 @@
         <v>9540.7485</v>
       </c>
       <c r="G98" t="n">
+        <v>6.244666666666661</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.132500000000007</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,22 +4411,25 @@
         <v>67925.24950000001</v>
       </c>
       <c r="G99" t="n">
+        <v>6.248666666666661</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.138666666666674</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,22 +4453,25 @@
         <v>2068.998410174881</v>
       </c>
       <c r="G100" t="n">
+        <v>6.251333333333329</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.145000000000007</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4265,22 +4495,25 @@
         <v>314839.4394</v>
       </c>
       <c r="G101" t="n">
+        <v>6.254666666666662</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.151666666666673</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,22 +4537,25 @@
         <v>15394.691</v>
       </c>
       <c r="G102" t="n">
+        <v>6.258666666666661</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.157666666666674</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4343,22 +4579,25 @@
         <v>77462.1663</v>
       </c>
       <c r="G103" t="n">
+        <v>6.268666666666662</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.165000000000007</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,22 +4621,25 @@
         <v>13543.6963</v>
       </c>
       <c r="G104" t="n">
+        <v>6.278666666666663</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.172166666666674</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,22 +4663,25 @@
         <v>277055.8448</v>
       </c>
       <c r="G105" t="n">
+        <v>6.289333333333329</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.179500000000007</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,22 +4705,25 @@
         <v>4204.0487</v>
       </c>
       <c r="G106" t="n">
+        <v>6.300666666666662</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.186833333333341</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4499,22 +4747,25 @@
         <v>50000</v>
       </c>
       <c r="G107" t="n">
+        <v>6.312666666666662</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.194000000000006</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,22 +4789,25 @@
         <v>953021.5458</v>
       </c>
       <c r="G108" t="n">
+        <v>6.323333333333329</v>
+      </c>
+      <c r="H108" t="n">
         <v>6.20133333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,22 +4831,25 @@
         <v>945902.1492</v>
       </c>
       <c r="G109" t="n">
+        <v>6.345333333333329</v>
+      </c>
+      <c r="H109" t="n">
         <v>6.211666666666673</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,22 +4873,27 @@
         <v>93392.78509999999</v>
       </c>
       <c r="G110" t="n">
+        <v>6.365999999999996</v>
+      </c>
+      <c r="H110" t="n">
         <v>6.221666666666673</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4653,18 +4915,25 @@
         <v>93820.0383</v>
       </c>
       <c r="G111" t="n">
+        <v>6.384666666666662</v>
+      </c>
+      <c r="H111" t="n">
         <v>6.230833333333339</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,18 +4957,25 @@
         <v>976723.5286</v>
       </c>
       <c r="G112" t="n">
+        <v>6.398666666666663</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.23883333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4723,18 +4999,25 @@
         <v>409936.8844</v>
       </c>
       <c r="G113" t="n">
+        <v>6.411999999999996</v>
+      </c>
+      <c r="H113" t="n">
         <v>6.246666666666673</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,18 +5041,25 @@
         <v>144944.9696</v>
       </c>
       <c r="G114" t="n">
+        <v>6.425999999999997</v>
+      </c>
+      <c r="H114" t="n">
         <v>6.254666666666674</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4793,18 +5083,25 @@
         <v>744835.0625999999</v>
       </c>
       <c r="G115" t="n">
+        <v>6.440666666666663</v>
+      </c>
+      <c r="H115" t="n">
         <v>6.263666666666674</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,18 +5125,25 @@
         <v>9131.5699</v>
       </c>
       <c r="G116" t="n">
+        <v>6.454666666666665</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.27283333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4863,18 +5167,25 @@
         <v>9612.7438</v>
       </c>
       <c r="G117" t="n">
+        <v>6.46933333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>6.281500000000007</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,18 +5209,25 @@
         <v>50000</v>
       </c>
       <c r="G118" t="n">
+        <v>6.481999999999998</v>
+      </c>
+      <c r="H118" t="n">
         <v>6.291333333333339</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,18 +5251,25 @@
         <v>1102614.3128</v>
       </c>
       <c r="G119" t="n">
+        <v>6.496666666666664</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.30083333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,18 +5293,25 @@
         <v>165099.2914</v>
       </c>
       <c r="G120" t="n">
+        <v>6.510666666666665</v>
+      </c>
+      <c r="H120" t="n">
         <v>6.309333333333339</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5003,18 +5335,25 @@
         <v>166.7563</v>
       </c>
       <c r="G121" t="n">
+        <v>6.523333333333331</v>
+      </c>
+      <c r="H121" t="n">
         <v>6.317333333333338</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,18 +5377,25 @@
         <v>296490</v>
       </c>
       <c r="G122" t="n">
+        <v>6.528666666666664</v>
+      </c>
+      <c r="H122" t="n">
         <v>6.323666666666671</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5073,18 +5419,25 @@
         <v>3289.5667</v>
       </c>
       <c r="G123" t="n">
+        <v>6.533333333333331</v>
+      </c>
+      <c r="H123" t="n">
         <v>6.329833333333339</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5108,18 +5461,25 @@
         <v>8088.714</v>
       </c>
       <c r="G124" t="n">
+        <v>6.525999999999997</v>
+      </c>
+      <c r="H124" t="n">
         <v>6.334666666666672</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5143,18 +5503,25 @@
         <v>2713.1467</v>
       </c>
       <c r="G125" t="n">
+        <v>6.519999999999997</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.339333333333339</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5178,18 +5545,25 @@
         <v>544591.4730999999</v>
       </c>
       <c r="G126" t="n">
+        <v>6.517333333333331</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.344333333333338</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5213,18 +5587,25 @@
         <v>41497.5854</v>
       </c>
       <c r="G127" t="n">
+        <v>6.524666666666664</v>
+      </c>
+      <c r="H127" t="n">
         <v>6.351166666666671</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5248,18 +5629,25 @@
         <v>91716.2319</v>
       </c>
       <c r="G128" t="n">
+        <v>6.531999999999997</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.357666666666671</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5283,18 +5671,25 @@
         <v>10000</v>
       </c>
       <c r="G129" t="n">
+        <v>6.536666666666664</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.363666666666671</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,18 +5713,25 @@
         <v>77</v>
       </c>
       <c r="G130" t="n">
+        <v>6.540666666666663</v>
+      </c>
+      <c r="H130" t="n">
         <v>6.370333333333337</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5353,18 +5755,25 @@
         <v>32960.0914</v>
       </c>
       <c r="G131" t="n">
+        <v>6.543333333333329</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.377333333333338</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5388,18 +5797,25 @@
         <v>152</v>
       </c>
       <c r="G132" t="n">
+        <v>6.547333333333329</v>
+      </c>
+      <c r="H132" t="n">
         <v>6.384333333333337</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5423,18 +5839,25 @@
         <v>37482.1119</v>
       </c>
       <c r="G133" t="n">
+        <v>6.549333333333329</v>
+      </c>
+      <c r="H133" t="n">
         <v>6.38916666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,18 +5881,25 @@
         <v>1024984.0704</v>
       </c>
       <c r="G134" t="n">
+        <v>6.549999999999995</v>
+      </c>
+      <c r="H134" t="n">
         <v>6.39416666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,18 +5923,25 @@
         <v>141557.1521</v>
       </c>
       <c r="G135" t="n">
+        <v>6.551333333333329</v>
+      </c>
+      <c r="H135" t="n">
         <v>6.399333333333336</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5528,18 +5965,25 @@
         <v>135215.6738</v>
       </c>
       <c r="G136" t="n">
+        <v>6.553333333333328</v>
+      </c>
+      <c r="H136" t="n">
         <v>6.405000000000004</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5563,18 +6007,25 @@
         <v>63379.1986</v>
       </c>
       <c r="G137" t="n">
+        <v>6.563333333333328</v>
+      </c>
+      <c r="H137" t="n">
         <v>6.410500000000003</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,18 +6049,25 @@
         <v>634056.8427</v>
       </c>
       <c r="G138" t="n">
+        <v>6.570666666666662</v>
+      </c>
+      <c r="H138" t="n">
         <v>6.415833333333338</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5633,18 +6091,25 @@
         <v>7700.9944</v>
       </c>
       <c r="G139" t="n">
+        <v>6.576666666666662</v>
+      </c>
+      <c r="H139" t="n">
         <v>6.421500000000004</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5668,18 +6133,25 @@
         <v>50000</v>
       </c>
       <c r="G140" t="n">
+        <v>6.581333333333328</v>
+      </c>
+      <c r="H140" t="n">
         <v>6.426833333333337</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5703,18 +6175,25 @@
         <v>40000</v>
       </c>
       <c r="G141" t="n">
+        <v>6.585333333333327</v>
+      </c>
+      <c r="H141" t="n">
         <v>6.432333333333337</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,18 +6217,25 @@
         <v>5080.9391</v>
       </c>
       <c r="G142" t="n">
+        <v>6.583333333333327</v>
+      </c>
+      <c r="H142" t="n">
         <v>6.437500000000004</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5773,18 +6259,25 @@
         <v>45003.6417</v>
       </c>
       <c r="G143" t="n">
+        <v>6.579999999999994</v>
+      </c>
+      <c r="H143" t="n">
         <v>6.44216666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5808,18 +6301,25 @@
         <v>125201.4904</v>
       </c>
       <c r="G144" t="n">
+        <v>6.577333333333327</v>
+      </c>
+      <c r="H144" t="n">
         <v>6.44716666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5843,18 +6343,25 @@
         <v>178431.6698</v>
       </c>
       <c r="G145" t="n">
+        <v>6.570666666666662</v>
+      </c>
+      <c r="H145" t="n">
         <v>6.450833333333337</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5878,18 +6385,25 @@
         <v>724.7564</v>
       </c>
       <c r="G146" t="n">
+        <v>6.563333333333328</v>
+      </c>
+      <c r="H146" t="n">
         <v>6.454000000000004</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5913,18 +6427,25 @@
         <v>245007.1651</v>
       </c>
       <c r="G147" t="n">
+        <v>6.553999999999994</v>
+      </c>
+      <c r="H147" t="n">
         <v>6.457333333333337</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,18 +6469,25 @@
         <v>221582.9242</v>
       </c>
       <c r="G148" t="n">
+        <v>6.543999999999994</v>
+      </c>
+      <c r="H148" t="n">
         <v>6.461000000000003</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5983,18 +6511,25 @@
         <v>50000</v>
       </c>
       <c r="G149" t="n">
+        <v>6.534666666666661</v>
+      </c>
+      <c r="H149" t="n">
         <v>6.465000000000003</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6018,18 +6553,25 @@
         <v>13039.6439</v>
       </c>
       <c r="G150" t="n">
+        <v>6.52466666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>6.469000000000002</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6053,18 +6595,25 @@
         <v>30000</v>
       </c>
       <c r="G151" t="n">
+        <v>6.515333333333327</v>
+      </c>
+      <c r="H151" t="n">
         <v>6.473166666666669</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6088,18 +6637,25 @@
         <v>12999.552</v>
       </c>
       <c r="G152" t="n">
+        <v>6.505333333333327</v>
+      </c>
+      <c r="H152" t="n">
         <v>6.477500000000002</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6123,18 +6679,25 @@
         <v>2632.7168</v>
       </c>
       <c r="G153" t="n">
+        <v>6.499333333333328</v>
+      </c>
+      <c r="H153" t="n">
         <v>6.481666666666668</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,18 +6721,25 @@
         <v>5330.1593</v>
       </c>
       <c r="G154" t="n">
+        <v>6.494666666666662</v>
+      </c>
+      <c r="H154" t="n">
         <v>6.485666666666669</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6193,18 +6763,25 @@
         <v>78125</v>
       </c>
       <c r="G155" t="n">
+        <v>6.492666666666662</v>
+      </c>
+      <c r="H155" t="n">
         <v>6.490000000000003</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6228,18 +6805,25 @@
         <v>78</v>
       </c>
       <c r="G156" t="n">
+        <v>6.489999999999996</v>
+      </c>
+      <c r="H156" t="n">
         <v>6.494333333333335</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6263,18 +6847,25 @@
         <v>78125</v>
       </c>
       <c r="G157" t="n">
+        <v>6.489333333333329</v>
+      </c>
+      <c r="H157" t="n">
         <v>6.499000000000003</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6298,18 +6889,25 @@
         <v>2271</v>
       </c>
       <c r="G158" t="n">
+        <v>6.492666666666662</v>
+      </c>
+      <c r="H158" t="n">
         <v>6.504166666666669</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6333,18 +6931,25 @@
         <v>3967</v>
       </c>
       <c r="G159" t="n">
+        <v>6.497333333333328</v>
+      </c>
+      <c r="H159" t="n">
         <v>6.509333333333336</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6368,18 +6973,25 @@
         <v>509814.264</v>
       </c>
       <c r="G160" t="n">
+        <v>6.505333333333328</v>
+      </c>
+      <c r="H160" t="n">
         <v>6.514333333333336</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6403,18 +7015,25 @@
         <v>4542.0466</v>
       </c>
       <c r="G161" t="n">
+        <v>6.511333333333329</v>
+      </c>
+      <c r="H161" t="n">
         <v>6.518166666666668</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6438,18 +7057,25 @@
         <v>195561</v>
       </c>
       <c r="G162" t="n">
+        <v>6.519999999999995</v>
+      </c>
+      <c r="H162" t="n">
         <v>6.522666666666668</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6473,18 +7099,25 @@
         <v>539505.6918</v>
       </c>
       <c r="G163" t="n">
+        <v>6.528666666666662</v>
+      </c>
+      <c r="H163" t="n">
         <v>6.526000000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6508,18 +7141,25 @@
         <v>156493.0903</v>
       </c>
       <c r="G164" t="n">
+        <v>6.538666666666662</v>
+      </c>
+      <c r="H164" t="n">
         <v>6.530000000000001</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6543,18 +7183,25 @@
         <v>253624.2886</v>
       </c>
       <c r="G165" t="n">
+        <v>6.550666666666662</v>
+      </c>
+      <c r="H165" t="n">
         <v>6.534333333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6578,18 +7225,25 @@
         <v>71755.0334</v>
       </c>
       <c r="G166" t="n">
+        <v>6.557999999999995</v>
+      </c>
+      <c r="H166" t="n">
         <v>6.537500000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6613,18 +7267,25 @@
         <v>12628.4063</v>
       </c>
       <c r="G167" t="n">
+        <v>6.565333333333329</v>
+      </c>
+      <c r="H167" t="n">
         <v>6.540666666666668</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6648,18 +7309,25 @@
         <v>37080</v>
       </c>
       <c r="G168" t="n">
+        <v>6.566666666666662</v>
+      </c>
+      <c r="H168" t="n">
         <v>6.5425</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6683,18 +7351,25 @@
         <v>18540</v>
       </c>
       <c r="G169" t="n">
+        <v>6.567333333333328</v>
+      </c>
+      <c r="H169" t="n">
         <v>6.541166666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,18 +7393,25 @@
         <v>18534.5798</v>
       </c>
       <c r="G170" t="n">
+        <v>6.573333333333327</v>
+      </c>
+      <c r="H170" t="n">
         <v>6.541833333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6753,18 +7435,25 @@
         <v>56156.7397</v>
       </c>
       <c r="G171" t="n">
+        <v>6.579999999999994</v>
+      </c>
+      <c r="H171" t="n">
         <v>6.543166666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6788,18 +7477,25 @@
         <v>26216.8607</v>
       </c>
       <c r="G172" t="n">
+        <v>6.583999999999993</v>
+      </c>
+      <c r="H172" t="n">
         <v>6.545333333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,18 +7519,25 @@
         <v>8217.9509</v>
       </c>
       <c r="G173" t="n">
+        <v>6.585999999999994</v>
+      </c>
+      <c r="H173" t="n">
         <v>6.547666666666666</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6858,18 +7561,25 @@
         <v>68862.7248</v>
       </c>
       <c r="G174" t="n">
+        <v>6.583333333333328</v>
+      </c>
+      <c r="H174" t="n">
         <v>6.548666666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6893,18 +7603,25 @@
         <v>46637.9066</v>
       </c>
       <c r="G175" t="n">
+        <v>6.583999999999993</v>
+      </c>
+      <c r="H175" t="n">
         <v>6.550166666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6928,18 +7645,25 @@
         <v>326853.13</v>
       </c>
       <c r="G176" t="n">
+        <v>6.58866666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>6.551666666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6963,18 +7687,25 @@
         <v>937444.3893</v>
       </c>
       <c r="G177" t="n">
+        <v>6.593999999999994</v>
+      </c>
+      <c r="H177" t="n">
         <v>6.553833333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6998,18 +7729,25 @@
         <v>601664.1282</v>
       </c>
       <c r="G178" t="n">
+        <v>6.602666666666661</v>
+      </c>
+      <c r="H178" t="n">
         <v>6.556166666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7033,18 +7771,25 @@
         <v>102561</v>
       </c>
       <c r="G179" t="n">
+        <v>6.609999999999994</v>
+      </c>
+      <c r="H179" t="n">
         <v>6.558333333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7068,18 +7813,25 @@
         <v>300429.8089</v>
       </c>
       <c r="G180" t="n">
+        <v>6.61866666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>6.561333333333335</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7103,18 +7855,25 @@
         <v>18676.6276</v>
       </c>
       <c r="G181" t="n">
+        <v>6.627999999999994</v>
+      </c>
+      <c r="H181" t="n">
         <v>6.563666666666668</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7138,18 +7897,25 @@
         <v>62608.2005</v>
       </c>
       <c r="G182" t="n">
+        <v>6.63866666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>6.568166666666668</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7173,18 +7939,25 @@
         <v>48451.1106</v>
       </c>
       <c r="G183" t="n">
+        <v>6.651333333333326</v>
+      </c>
+      <c r="H183" t="n">
         <v>6.572000000000002</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7208,18 +7981,25 @@
         <v>2621.0165</v>
       </c>
       <c r="G184" t="n">
+        <v>6.661999999999994</v>
+      </c>
+      <c r="H184" t="n">
         <v>6.575166666666669</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7243,18 +8023,25 @@
         <v>194894.8147</v>
       </c>
       <c r="G185" t="n">
+        <v>6.669333333333327</v>
+      </c>
+      <c r="H185" t="n">
         <v>6.579166666666668</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7278,18 +8065,25 @@
         <v>194422.0738</v>
       </c>
       <c r="G186" t="n">
+        <v>6.676666666666661</v>
+      </c>
+      <c r="H186" t="n">
         <v>6.583000000000002</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7313,18 +8107,25 @@
         <v>3364.3851</v>
       </c>
       <c r="G187" t="n">
+        <v>6.686666666666661</v>
+      </c>
+      <c r="H187" t="n">
         <v>6.585833333333336</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7348,20 +8149,25 @@
         <v>363579.739</v>
       </c>
       <c r="G188" t="n">
+        <v>6.691333333333327</v>
+      </c>
+      <c r="H188" t="n">
         <v>6.587500000000003</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7383,18 +8189,21 @@
         <v>72051.55130000001</v>
       </c>
       <c r="G189" t="n">
+        <v>6.699999999999993</v>
+      </c>
+      <c r="H189" t="n">
         <v>6.589500000000003</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7418,18 +8227,21 @@
         <v>75</v>
       </c>
       <c r="G190" t="n">
+        <v>6.708666666666661</v>
+      </c>
+      <c r="H190" t="n">
         <v>6.59216666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7453,18 +8265,21 @@
         <v>156152.3341</v>
       </c>
       <c r="G191" t="n">
+        <v>6.711999999999994</v>
+      </c>
+      <c r="H191" t="n">
         <v>6.593833333333336</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7488,18 +8303,21 @@
         <v>200</v>
       </c>
       <c r="G192" t="n">
+        <v>6.713999999999995</v>
+      </c>
+      <c r="H192" t="n">
         <v>6.595500000000003</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7523,18 +8341,21 @@
         <v>323360.6999</v>
       </c>
       <c r="G193" t="n">
+        <v>6.709333333333328</v>
+      </c>
+      <c r="H193" t="n">
         <v>6.596166666666671</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7558,18 +8379,21 @@
         <v>222.1037</v>
       </c>
       <c r="G194" t="n">
+        <v>6.705999999999994</v>
+      </c>
+      <c r="H194" t="n">
         <v>6.597333333333337</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7593,18 +8417,21 @@
         <v>256.6831</v>
       </c>
       <c r="G195" t="n">
+        <v>6.699999999999995</v>
+      </c>
+      <c r="H195" t="n">
         <v>6.598500000000003</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7628,18 +8455,21 @@
         <v>1407.2674</v>
       </c>
       <c r="G196" t="n">
+        <v>6.694666666666662</v>
+      </c>
+      <c r="H196" t="n">
         <v>6.599000000000003</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7663,18 +8493,21 @@
         <v>7721.2588</v>
       </c>
       <c r="G197" t="n">
+        <v>6.690666666666662</v>
+      </c>
+      <c r="H197" t="n">
         <v>6.600000000000003</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7698,18 +8531,21 @@
         <v>708.6925</v>
       </c>
       <c r="G198" t="n">
+        <v>6.688666666666662</v>
+      </c>
+      <c r="H198" t="n">
         <v>6.601500000000002</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7733,18 +8569,21 @@
         <v>7791.3075</v>
       </c>
       <c r="G199" t="n">
+        <v>6.689333333333328</v>
+      </c>
+      <c r="H199" t="n">
         <v>6.603333333333336</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7768,18 +8607,21 @@
         <v>18563</v>
       </c>
       <c r="G200" t="n">
+        <v>6.688666666666662</v>
+      </c>
+      <c r="H200" t="n">
         <v>6.606000000000003</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7803,18 +8645,21 @@
         <v>50000</v>
       </c>
       <c r="G201" t="n">
+        <v>6.682666666666663</v>
+      </c>
+      <c r="H201" t="n">
         <v>6.607333333333336</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7838,18 +8683,21 @@
         <v>76646.3588</v>
       </c>
       <c r="G202" t="n">
+        <v>6.673999999999995</v>
+      </c>
+      <c r="H202" t="n">
         <v>6.608500000000003</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7873,18 +8721,21 @@
         <v>23468.8837</v>
       </c>
       <c r="G203" t="n">
+        <v>6.675999999999996</v>
+      </c>
+      <c r="H203" t="n">
         <v>6.611500000000003</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7908,18 +8759,21 @@
         <v>4089.2727</v>
       </c>
       <c r="G204" t="n">
+        <v>6.679999999999995</v>
+      </c>
+      <c r="H204" t="n">
         <v>6.61516666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,18 +8797,21 @@
         <v>50850.6552</v>
       </c>
       <c r="G205" t="n">
+        <v>6.680666666666662</v>
+      </c>
+      <c r="H205" t="n">
         <v>6.61966666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7978,18 +8835,21 @@
         <v>47372.2402</v>
       </c>
       <c r="G206" t="n">
+        <v>6.686666666666661</v>
+      </c>
+      <c r="H206" t="n">
         <v>6.62466666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8013,18 +8873,21 @@
         <v>6480</v>
       </c>
       <c r="G207" t="n">
+        <v>6.689333333333328</v>
+      </c>
+      <c r="H207" t="n">
         <v>6.629333333333337</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8048,18 +8911,21 @@
         <v>59531.5209</v>
       </c>
       <c r="G208" t="n">
+        <v>6.695333333333328</v>
+      </c>
+      <c r="H208" t="n">
         <v>6.634000000000004</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8083,18 +8949,21 @@
         <v>606738.3639999999</v>
       </c>
       <c r="G209" t="n">
+        <v>6.694666666666661</v>
+      </c>
+      <c r="H209" t="n">
         <v>6.637333333333339</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8118,18 +8987,21 @@
         <v>401.8216</v>
       </c>
       <c r="G210" t="n">
+        <v>6.690666666666662</v>
+      </c>
+      <c r="H210" t="n">
         <v>6.640000000000005</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8153,18 +9025,21 @@
         <v>5262.9654</v>
       </c>
       <c r="G211" t="n">
+        <v>6.687999999999994</v>
+      </c>
+      <c r="H211" t="n">
         <v>6.642166666666672</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8188,18 +9063,21 @@
         <v>738.3946</v>
       </c>
       <c r="G212" t="n">
+        <v>6.683333333333328</v>
+      </c>
+      <c r="H212" t="n">
         <v>6.644500000000005</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8223,18 +9101,21 @@
         <v>115608.6165</v>
       </c>
       <c r="G213" t="n">
+        <v>6.681333333333328</v>
+      </c>
+      <c r="H213" t="n">
         <v>6.647000000000006</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8258,18 +9139,21 @@
         <v>422457.7565</v>
       </c>
       <c r="G214" t="n">
+        <v>6.679333333333329</v>
+      </c>
+      <c r="H214" t="n">
         <v>6.649500000000006</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8293,18 +9177,21 @@
         <v>299289.024</v>
       </c>
       <c r="G215" t="n">
+        <v>6.673999999999995</v>
+      </c>
+      <c r="H215" t="n">
         <v>6.651333333333339</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8328,18 +9215,21 @@
         <v>449327.1341</v>
       </c>
       <c r="G216" t="n">
+        <v>6.674666666666662</v>
+      </c>
+      <c r="H216" t="n">
         <v>6.653500000000006</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8363,18 +9253,21 @@
         <v>726533.7221</v>
       </c>
       <c r="G217" t="n">
+        <v>6.676666666666661</v>
+      </c>
+      <c r="H217" t="n">
         <v>6.65533333333334</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8398,18 +9291,21 @@
         <v>78297.11259999999</v>
       </c>
       <c r="G218" t="n">
+        <v>6.672666666666662</v>
+      </c>
+      <c r="H218" t="n">
         <v>6.656500000000007</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8433,18 +9329,21 @@
         <v>2358.0769</v>
       </c>
       <c r="G219" t="n">
+        <v>6.665999999999995</v>
+      </c>
+      <c r="H219" t="n">
         <v>6.65733333333334</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8468,18 +9367,21 @@
         <v>25235.1407</v>
       </c>
       <c r="G220" t="n">
+        <v>6.657333333333328</v>
+      </c>
+      <c r="H220" t="n">
         <v>6.657666666666674</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8503,18 +9405,21 @@
         <v>195.9941</v>
       </c>
       <c r="G221" t="n">
+        <v>6.649999999999995</v>
+      </c>
+      <c r="H221" t="n">
         <v>6.659333333333341</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8538,18 +9443,21 @@
         <v>2510.3531</v>
       </c>
       <c r="G222" t="n">
+        <v>6.642666666666662</v>
+      </c>
+      <c r="H222" t="n">
         <v>6.660000000000008</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8573,18 +9481,21 @@
         <v>2510.3531</v>
       </c>
       <c r="G223" t="n">
+        <v>6.635999999999996</v>
+      </c>
+      <c r="H223" t="n">
         <v>6.660833333333342</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,18 +9519,21 @@
         <v>54486.2838</v>
       </c>
       <c r="G224" t="n">
+        <v>6.639333333333329</v>
+      </c>
+      <c r="H224" t="n">
         <v>6.662500000000008</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8643,18 +9557,21 @@
         <v>2629.1705</v>
       </c>
       <c r="G225" t="n">
+        <v>6.644666666666662</v>
+      </c>
+      <c r="H225" t="n">
         <v>6.663500000000008</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8678,18 +9595,21 @@
         <v>199806.7426</v>
       </c>
       <c r="G226" t="n">
+        <v>6.649999999999996</v>
+      </c>
+      <c r="H226" t="n">
         <v>6.665166666666675</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8713,18 +9633,21 @@
         <v>5053.1099</v>
       </c>
       <c r="G227" t="n">
+        <v>6.657999999999996</v>
+      </c>
+      <c r="H227" t="n">
         <v>6.667666666666675</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8748,18 +9671,21 @@
         <v>2632.3911</v>
       </c>
       <c r="G228" t="n">
+        <v>6.664666666666663</v>
+      </c>
+      <c r="H228" t="n">
         <v>6.671500000000009</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8783,18 +9709,21 @@
         <v>7635.3302</v>
       </c>
       <c r="G229" t="n">
+        <v>6.67133333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>6.675500000000009</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8818,18 +9747,21 @@
         <v>81.65900000000001</v>
       </c>
       <c r="G230" t="n">
+        <v>6.67933333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>6.677833333333342</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8853,18 +9785,21 @@
         <v>407783.4783</v>
       </c>
       <c r="G231" t="n">
+        <v>6.688666666666663</v>
+      </c>
+      <c r="H231" t="n">
         <v>6.680666666666676</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8888,18 +9823,21 @@
         <v>79.65900000000001</v>
       </c>
       <c r="G232" t="n">
+        <v>6.69933333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>6.684166666666675</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8923,18 +9861,21 @@
         <v>147122.4968</v>
       </c>
       <c r="G233" t="n">
+        <v>6.71133333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>6.687833333333342</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8958,18 +9899,21 @@
         <v>1312.8204</v>
       </c>
       <c r="G234" t="n">
+        <v>6.724666666666663</v>
+      </c>
+      <c r="H234" t="n">
         <v>6.692666666666674</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8993,18 +9937,21 @@
         <v>366.3516</v>
       </c>
       <c r="G235" t="n">
+        <v>6.739999999999997</v>
+      </c>
+      <c r="H235" t="n">
         <v>6.696666666666673</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9028,18 +9975,21 @@
         <v>7133.6484</v>
       </c>
       <c r="G236" t="n">
+        <v>6.753999999999997</v>
+      </c>
+      <c r="H236" t="n">
         <v>6.700666666666673</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9063,18 +10013,21 @@
         <v>111634.2728</v>
       </c>
       <c r="G237" t="n">
+        <v>6.770666666666664</v>
+      </c>
+      <c r="H237" t="n">
         <v>6.704166666666674</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9098,18 +10051,21 @@
         <v>8866.501200000001</v>
       </c>
       <c r="G238" t="n">
+        <v>6.787999999999997</v>
+      </c>
+      <c r="H238" t="n">
         <v>6.707166666666674</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9133,18 +10089,21 @@
         <v>12927.8247</v>
       </c>
       <c r="G239" t="n">
+        <v>6.796666666666664</v>
+      </c>
+      <c r="H239" t="n">
         <v>6.709166666666673</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9168,18 +10127,21 @@
         <v>58500.4151</v>
       </c>
       <c r="G240" t="n">
+        <v>6.803999999999998</v>
+      </c>
+      <c r="H240" t="n">
         <v>6.709833333333339</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9203,18 +10165,21 @@
         <v>115545.9495</v>
       </c>
       <c r="G241" t="n">
+        <v>6.811333333333331</v>
+      </c>
+      <c r="H241" t="n">
         <v>6.711000000000007</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9238,18 +10203,21 @@
         <v>119414.6265</v>
       </c>
       <c r="G242" t="n">
+        <v>6.814666666666665</v>
+      </c>
+      <c r="H242" t="n">
         <v>6.711666666666673</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9273,18 +10241,21 @@
         <v>80027.7025</v>
       </c>
       <c r="G243" t="n">
+        <v>6.817333333333331</v>
+      </c>
+      <c r="H243" t="n">
         <v>6.713000000000006</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9308,18 +10279,21 @@
         <v>911605.7542</v>
       </c>
       <c r="G244" t="n">
+        <v>6.819333333333331</v>
+      </c>
+      <c r="H244" t="n">
         <v>6.71483333333334</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9343,18 +10317,21 @@
         <v>2476.6126</v>
       </c>
       <c r="G245" t="n">
+        <v>6.821333333333331</v>
+      </c>
+      <c r="H245" t="n">
         <v>6.71583333333334</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9378,18 +10355,21 @@
         <v>147488.8484</v>
       </c>
       <c r="G246" t="n">
+        <v>6.821333333333331</v>
+      </c>
+      <c r="H246" t="n">
         <v>6.71683333333334</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9413,18 +10393,21 @@
         <v>50000</v>
       </c>
       <c r="G247" t="n">
+        <v>6.819999999999997</v>
+      </c>
+      <c r="H247" t="n">
         <v>6.717500000000006</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9448,18 +10431,21 @@
         <v>50851.3332</v>
       </c>
       <c r="G248" t="n">
+        <v>6.818666666666664</v>
+      </c>
+      <c r="H248" t="n">
         <v>6.719666666666673</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9483,18 +10469,21 @@
         <v>0.0001</v>
       </c>
       <c r="G249" t="n">
+        <v>6.817333333333331</v>
+      </c>
+      <c r="H249" t="n">
         <v>6.722000000000007</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9518,18 +10507,21 @@
         <v>1859.8002</v>
       </c>
       <c r="G250" t="n">
+        <v>6.819333333333331</v>
+      </c>
+      <c r="H250" t="n">
         <v>6.724333333333339</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9553,18 +10545,21 @@
         <v>8771.536899999999</v>
       </c>
       <c r="G251" t="n">
+        <v>6.821333333333331</v>
+      </c>
+      <c r="H251" t="n">
         <v>6.728000000000007</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9588,18 +10583,21 @@
         <v>8647.049000000001</v>
       </c>
       <c r="G252" t="n">
+        <v>6.821999999999998</v>
+      </c>
+      <c r="H252" t="n">
         <v>6.731166666666673</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9623,18 +10621,21 @@
         <v>400</v>
       </c>
       <c r="G253" t="n">
+        <v>6.820666666666665</v>
+      </c>
+      <c r="H253" t="n">
         <v>6.735000000000007</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9658,18 +10659,21 @@
         <v>13758.3693</v>
       </c>
       <c r="G254" t="n">
+        <v>6.821999999999998</v>
+      </c>
+      <c r="H254" t="n">
         <v>6.738166666666674</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9693,18 +10697,21 @@
         <v>5755.6822</v>
       </c>
       <c r="G255" t="n">
+        <v>6.825333333333331</v>
+      </c>
+      <c r="H255" t="n">
         <v>6.741166666666674</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9728,18 +10735,21 @@
         <v>74</v>
       </c>
       <c r="G256" t="n">
+        <v>6.829999999999997</v>
+      </c>
+      <c r="H256" t="n">
         <v>6.744833333333341</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9763,18 +10773,21 @@
         <v>8573.049000000001</v>
       </c>
       <c r="G257" t="n">
+        <v>6.83333333333333</v>
+      </c>
+      <c r="H257" t="n">
         <v>6.747333333333341</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9798,18 +10811,21 @@
         <v>7232.742</v>
       </c>
       <c r="G258" t="n">
+        <v>6.837999999999997</v>
+      </c>
+      <c r="H258" t="n">
         <v>6.750333333333341</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9833,18 +10849,21 @@
         <v>40000</v>
       </c>
       <c r="G259" t="n">
+        <v>6.839999999999997</v>
+      </c>
+      <c r="H259" t="n">
         <v>6.752500000000007</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9868,18 +10887,21 @@
         <v>107144.9728</v>
       </c>
       <c r="G260" t="n">
+        <v>6.840666666666664</v>
+      </c>
+      <c r="H260" t="n">
         <v>6.753833333333341</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9903,18 +10925,21 @@
         <v>387724.0702</v>
       </c>
       <c r="G261" t="n">
+        <v>6.837999999999997</v>
+      </c>
+      <c r="H261" t="n">
         <v>6.755666666666674</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9938,18 +10963,21 @@
         <v>2516.4357</v>
       </c>
       <c r="G262" t="n">
+        <v>6.837999999999997</v>
+      </c>
+      <c r="H262" t="n">
         <v>6.758500000000008</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9973,18 +11001,21 @@
         <v>35563.0659</v>
       </c>
       <c r="G263" t="n">
+        <v>6.837999999999997</v>
+      </c>
+      <c r="H263" t="n">
         <v>6.760166666666675</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10008,18 +11039,21 @@
         <v>29631.5647</v>
       </c>
       <c r="G264" t="n">
+        <v>6.837999999999997</v>
+      </c>
+      <c r="H264" t="n">
         <v>6.761500000000008</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10043,18 +11077,21 @@
         <v>57223.3117</v>
       </c>
       <c r="G265" t="n">
+        <v>6.833999999999998</v>
+      </c>
+      <c r="H265" t="n">
         <v>6.762666666666674</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10078,18 +11115,21 @@
         <v>631572.9238</v>
       </c>
       <c r="G266" t="n">
+        <v>6.827999999999998</v>
+      </c>
+      <c r="H266" t="n">
         <v>6.76333333333334</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10113,18 +11153,21 @@
         <v>598420.4772</v>
       </c>
       <c r="G267" t="n">
+        <v>6.818666666666664</v>
+      </c>
+      <c r="H267" t="n">
         <v>6.763500000000007</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10148,18 +11191,21 @@
         <v>7271.9865</v>
       </c>
       <c r="G268" t="n">
+        <v>6.811333333333331</v>
+      </c>
+      <c r="H268" t="n">
         <v>6.764000000000006</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10183,18 +11229,21 @@
         <v>80658.1633</v>
       </c>
       <c r="G269" t="n">
+        <v>6.803999999999998</v>
+      </c>
+      <c r="H269" t="n">
         <v>6.765500000000006</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10218,18 +11267,21 @@
         <v>23680.6217</v>
       </c>
       <c r="G270" t="n">
+        <v>6.796666666666664</v>
+      </c>
+      <c r="H270" t="n">
         <v>6.767666666666672</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10253,18 +11305,21 @@
         <v>44993.1813</v>
       </c>
       <c r="G271" t="n">
+        <v>6.788666666666663</v>
+      </c>
+      <c r="H271" t="n">
         <v>6.770000000000006</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10288,18 +11343,21 @@
         <v>723.8955999999999</v>
       </c>
       <c r="G272" t="n">
+        <v>6.781999999999996</v>
+      </c>
+      <c r="H272" t="n">
         <v>6.772000000000006</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10323,18 +11381,21 @@
         <v>171664.0546</v>
       </c>
       <c r="G273" t="n">
+        <v>6.773333333333329</v>
+      </c>
+      <c r="H273" t="n">
         <v>6.773333333333339</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10358,18 +11419,21 @@
         <v>413043.1164</v>
       </c>
       <c r="G274" t="n">
+        <v>6.767999999999995</v>
+      </c>
+      <c r="H274" t="n">
         <v>6.774666666666672</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,18 +11457,21 @@
         <v>2445.7162</v>
       </c>
       <c r="G275" t="n">
+        <v>6.763333333333327</v>
+      </c>
+      <c r="H275" t="n">
         <v>6.776166666666672</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10428,18 +11495,21 @@
         <v>1360.7676</v>
       </c>
       <c r="G276" t="n">
+        <v>6.764666666666661</v>
+      </c>
+      <c r="H276" t="n">
         <v>6.778166666666672</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10463,18 +11533,21 @@
         <v>24509.8606</v>
       </c>
       <c r="G277" t="n">
+        <v>6.763333333333327</v>
+      </c>
+      <c r="H277" t="n">
         <v>6.780166666666671</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10498,18 +11571,21 @@
         <v>40493.8632</v>
       </c>
       <c r="G278" t="n">
+        <v>6.759999999999994</v>
+      </c>
+      <c r="H278" t="n">
         <v>6.782000000000004</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10533,18 +11609,21 @@
         <v>249557.6692</v>
       </c>
       <c r="G279" t="n">
+        <v>6.757999999999995</v>
+      </c>
+      <c r="H279" t="n">
         <v>6.784500000000004</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10568,18 +11647,21 @@
         <v>257.3286</v>
       </c>
       <c r="G280" t="n">
+        <v>6.755333333333327</v>
+      </c>
+      <c r="H280" t="n">
         <v>6.787166666666669</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10603,18 +11685,21 @@
         <v>51746.8408</v>
       </c>
       <c r="G281" t="n">
+        <v>6.755333333333327</v>
+      </c>
+      <c r="H281" t="n">
         <v>6.78966666666667</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10638,18 +11723,21 @@
         <v>36884.24778761062</v>
       </c>
       <c r="G282" t="n">
+        <v>6.75866666666666</v>
+      </c>
+      <c r="H282" t="n">
         <v>6.792500000000002</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10673,18 +11761,21 @@
         <v>83252.8734</v>
       </c>
       <c r="G283" t="n">
+        <v>6.759333333333328</v>
+      </c>
+      <c r="H283" t="n">
         <v>6.794833333333335</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10708,18 +11799,21 @@
         <v>43917.2229</v>
       </c>
       <c r="G284" t="n">
+        <v>6.759999999999994</v>
+      </c>
+      <c r="H284" t="n">
         <v>6.795666666666668</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10743,18 +11837,21 @@
         <v>7654.8977</v>
       </c>
       <c r="G285" t="n">
+        <v>6.764666666666661</v>
+      </c>
+      <c r="H285" t="n">
         <v>6.797666666666669</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10778,18 +11875,21 @@
         <v>90773.0687</v>
       </c>
       <c r="G286" t="n">
+        <v>6.770666666666661</v>
+      </c>
+      <c r="H286" t="n">
         <v>6.800166666666668</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10813,18 +11913,21 @@
         <v>161827.6083859649</v>
       </c>
       <c r="G287" t="n">
+        <v>6.777333333333329</v>
+      </c>
+      <c r="H287" t="n">
         <v>6.801833333333335</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10848,18 +11951,21 @@
         <v>4563.1271</v>
       </c>
       <c r="G288" t="n">
+        <v>6.783333333333329</v>
+      </c>
+      <c r="H288" t="n">
         <v>6.803000000000001</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10883,18 +11989,21 @@
         <v>63113.9698</v>
       </c>
       <c r="G289" t="n">
+        <v>6.789333333333329</v>
+      </c>
+      <c r="H289" t="n">
         <v>6.804166666666668</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10918,18 +12027,21 @@
         <v>7937.4297</v>
       </c>
       <c r="G290" t="n">
+        <v>6.795333333333329</v>
+      </c>
+      <c r="H290" t="n">
         <v>6.805166666666667</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10953,18 +12065,21 @@
         <v>213758.955</v>
       </c>
       <c r="G291" t="n">
+        <v>6.797333333333329</v>
+      </c>
+      <c r="H291" t="n">
         <v>6.805333333333334</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10988,18 +12103,21 @@
         <v>7525.2688</v>
       </c>
       <c r="G292" t="n">
+        <v>6.800666666666662</v>
+      </c>
+      <c r="H292" t="n">
         <v>6.8055</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11023,18 +12141,401 @@
         <v>12667.6493</v>
       </c>
       <c r="G293" t="n">
+        <v>6.804666666666662</v>
+      </c>
+      <c r="H293" t="n">
         <v>6.805333333333334</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C294" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D294" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E294" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F294" t="n">
+        <v>581.7</v>
+      </c>
+      <c r="G294" t="n">
+        <v>6.807333333333329</v>
+      </c>
+      <c r="H294" t="n">
+        <v>6.805166666666667</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C295" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D295" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E295" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F295" t="n">
+        <v>33049.723</v>
+      </c>
+      <c r="G295" t="n">
+        <v>6.810666666666662</v>
+      </c>
+      <c r="H295" t="n">
+        <v>6.804833333333335</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C296" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D296" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E296" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F296" t="n">
+        <v>9144.4668</v>
+      </c>
+      <c r="G296" t="n">
+        <v>6.811999999999995</v>
+      </c>
+      <c r="H296" t="n">
+        <v>6.804166666666669</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C297" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D297" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F297" t="n">
+        <v>4776.433</v>
+      </c>
+      <c r="G297" t="n">
+        <v>6.813333333333328</v>
+      </c>
+      <c r="H297" t="n">
+        <v>6.803166666666669</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C298" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D298" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E298" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F298" t="n">
+        <v>80594.39690000001</v>
+      </c>
+      <c r="G298" t="n">
+        <v>6.815999999999994</v>
+      </c>
+      <c r="H298" t="n">
+        <v>6.801833333333335</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C299" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D299" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E299" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F299" t="n">
+        <v>57220.6348</v>
+      </c>
+      <c r="G299" t="n">
+        <v>6.81866666666666</v>
+      </c>
+      <c r="H299" t="n">
+        <v>6.80116666666667</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C300" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D300" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F300" t="n">
+        <v>53366.0084</v>
+      </c>
+      <c r="G300" t="n">
+        <v>6.817333333333327</v>
+      </c>
+      <c r="H300" t="n">
+        <v>6.801000000000003</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C301" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="D301" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E301" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F301" t="n">
+        <v>160.9017</v>
+      </c>
+      <c r="G301" t="n">
+        <v>6.815999999999994</v>
+      </c>
+      <c r="H301" t="n">
+        <v>6.801333333333336</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C302" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D302" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E302" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F302" t="n">
+        <v>17687.5529</v>
+      </c>
+      <c r="G302" t="n">
+        <v>6.814666666666661</v>
+      </c>
+      <c r="H302" t="n">
+        <v>6.801833333333335</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C303" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E303" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F303" t="n">
+        <v>55626.2301</v>
+      </c>
+      <c r="G303" t="n">
+        <v>6.813999999999994</v>
+      </c>
+      <c r="H303" t="n">
+        <v>6.802166666666668</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-24 BackTest VET.xlsx
+++ b/BackTest/2019-11-24 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2068,10 +2068,14 @@
         <v>-80955.6489918705</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.98</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2101,11 +2105,19 @@
         <v>-131955.6489918705</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,15 +2185,19 @@
         <v>-285503.4824918705</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>5.92</v>
       </c>
       <c r="J54" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>5.98</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2208,11 +2230,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>5.92</v>
+        <v>5.98</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2247,11 +2269,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>5.92</v>
+        <v>5.98</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2285,8 +2307,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2346,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2351,8 +2385,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,8 +2424,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2463,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2502,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2541,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2580,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2619,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +2658,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2697,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2645,11 +2733,19 @@
         <v>-1027648.364491871</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +2777,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,8 +2816,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +2855,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +2894,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +2933,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +2972,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +3011,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2912,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2945,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +3125,19 @@
         <v>-1946480.67339187</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3008,11 +3166,19 @@
         <v>-1939723.39109187</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +3207,19 @@
         <v>-1942510.20689187</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3074,15 +3248,19 @@
         <v>-2005945.72639187</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>5.89</v>
       </c>
       <c r="J81" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+        <v>5.98</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,15 +3289,17 @@
         <v>-2005945.72639187</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.88</v>
+      </c>
       <c r="J82" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3150,17 +3330,17 @@
         <v>-2867568.02139187</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>5.88</v>
       </c>
       <c r="J83" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3191,13 +3371,13 @@
         <v>-2897746.613191871</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>5.85</v>
       </c>
       <c r="J84" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3232,13 +3412,11 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3273,11 +3451,13 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J86" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3312,11 +3492,13 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J87" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3351,11 +3533,13 @@
         <v>-2715599.30519187</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J88" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3390,11 +3574,13 @@
         <v>-2715599.30519187</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.85</v>
+      </c>
       <c r="J89" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3429,11 +3615,13 @@
         <v>-2715599.30519187</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.85</v>
+      </c>
       <c r="J90" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3468,13 +3656,13 @@
         <v>-2301583.53719187</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>5.85</v>
       </c>
       <c r="J91" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3509,13 +3697,13 @@
         <v>-2287595.08349187</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>5.87</v>
       </c>
       <c r="J92" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3550,13 +3738,13 @@
         <v>-2189349.16739187</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>5.88</v>
       </c>
       <c r="J93" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3591,13 +3779,13 @@
         <v>-2191381.75119187</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>5.89</v>
       </c>
       <c r="J94" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3632,11 +3820,13 @@
         <v>-2191381.75119187</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J95" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3671,11 +3861,13 @@
         <v>-2129481.16739187</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J96" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3710,11 +3902,13 @@
         <v>-2129481.16739187</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J97" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3749,13 +3943,13 @@
         <v>-1433497.40969187</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>5.9</v>
       </c>
       <c r="J98" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3790,13 +3984,13 @@
         <v>-1443949.12429187</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>5.91</v>
       </c>
       <c r="J99" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3831,13 +4025,13 @@
         <v>-1443069.92339187</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>5.9</v>
       </c>
       <c r="J100" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3876,7 +4070,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3911,11 +4105,13 @@
         <v>-1446674.05509187</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J102" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3950,13 +4146,13 @@
         <v>-1446674.05509187</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>5.94</v>
       </c>
       <c r="J103" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3991,13 +4187,13 @@
         <v>-1409290.44859187</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>5.94</v>
       </c>
       <c r="J104" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4032,13 +4228,13 @@
         <v>-1380814.73669187</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>5.95</v>
       </c>
       <c r="J105" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4073,13 +4269,13 @@
         <v>-1375864.26239187</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>5.97</v>
       </c>
       <c r="J106" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4114,13 +4310,13 @@
         <v>-1375864.26239187</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>5.98</v>
       </c>
       <c r="J107" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4155,13 +4351,13 @@
         <v>-1374612.33709187</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>5.98</v>
       </c>
       <c r="J108" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4200,7 +4396,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4239,7 +4435,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4274,11 +4470,13 @@
         <v>-1373612.33709187</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6</v>
+      </c>
       <c r="J111" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4313,11 +4511,13 @@
         <v>-1373612.33709187</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6</v>
+      </c>
       <c r="J112" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4356,7 +4556,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4395,7 +4595,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4434,7 +4634,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4473,7 +4673,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4512,7 +4712,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4551,7 +4751,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4590,7 +4790,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4629,7 +4829,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4668,7 +4868,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4707,7 +4907,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4742,13 +4942,11 @@
         <v>-448986.6084574652</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4787,7 +4985,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4826,7 +5024,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4865,7 +5063,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4904,7 +5102,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4943,7 +5141,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4982,7 +5180,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5021,7 +5219,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5056,13 +5254,11 @@
         <v>-1202674.895885807</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>6.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5097,13 +5293,11 @@
         <v>-1202674.895885807</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>6.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5142,7 +5336,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5181,7 +5375,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5220,7 +5414,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5259,7 +5453,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5298,7 +5492,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5333,13 +5527,11 @@
         <v>-1824337.764485806</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>6.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5374,13 +5566,11 @@
         <v>-1864337.764485806</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>6.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5419,7 +5609,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5458,7 +5648,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5497,7 +5687,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5536,7 +5726,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5575,7 +5765,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5614,7 +5804,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5653,7 +5843,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5692,7 +5882,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5731,7 +5921,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5770,7 +5960,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5809,7 +5999,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5848,7 +6038,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5887,7 +6077,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5926,7 +6116,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5965,7 +6155,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6004,7 +6194,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6043,7 +6233,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6082,7 +6272,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6121,7 +6311,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6160,7 +6350,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6199,7 +6389,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6238,7 +6428,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6277,7 +6467,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6316,7 +6506,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6355,7 +6545,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6394,7 +6584,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6433,7 +6623,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6472,7 +6662,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6511,7 +6701,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6550,7 +6740,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6589,7 +6779,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6628,7 +6818,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6667,7 +6857,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6706,7 +6896,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6745,7 +6935,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6784,7 +6974,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6823,7 +7013,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6862,7 +7052,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6901,7 +7091,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6940,7 +7130,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6979,7 +7169,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7018,7 +7208,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7057,7 +7247,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7096,7 +7286,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7135,7 +7325,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7174,7 +7364,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7213,7 +7403,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7252,7 +7442,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7291,7 +7481,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7330,7 +7520,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7369,7 +7559,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7408,7 +7598,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7447,7 +7637,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7486,7 +7676,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7525,7 +7715,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7564,7 +7754,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7603,7 +7793,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7642,7 +7832,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7681,7 +7871,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7720,7 +7910,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7759,7 +7949,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7798,7 +7988,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7837,7 +8027,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7876,7 +8066,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7915,7 +8105,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7954,7 +8144,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7993,7 +8183,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8032,7 +8222,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8071,7 +8261,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8106,11 +8296,11 @@
         <v>3027289.297424369</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8149,7 +8339,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8188,7 +8378,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8227,7 +8417,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8266,7 +8456,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8305,7 +8495,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8344,7 +8534,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8383,7 +8573,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8422,7 +8612,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8461,7 +8651,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8500,7 +8690,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8539,7 +8729,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8578,7 +8768,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8617,7 +8807,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8656,7 +8846,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8695,7 +8885,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8734,7 +8924,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8773,7 +8963,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8812,7 +9002,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8851,7 +9041,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8890,7 +9080,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8929,7 +9119,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8968,7 +9158,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9007,7 +9197,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9046,7 +9236,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9085,7 +9275,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9124,7 +9314,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9163,7 +9353,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9198,21 +9388,23 @@
         <v>5809330.953824369</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>1.118745819397993</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.033613445378151</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9240,14 +9432,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9279,14 +9465,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9315,23 +9495,15 @@
         <v>6153692.335624369</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
-        <v>1.141010186757216</v>
-      </c>
-      <c r="M240" t="n">
-        <v>1.051282051282051</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9356,7 +9528,7 @@
         <v>6105241.225024369</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9389,7 +9561,7 @@
         <v>6102620.208524369</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9422,7 +9594,7 @@
         <v>6297515.023224369</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9455,7 +9627,7 @@
         <v>6297515.023224369</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9521,7 +9693,7 @@
         <v>5937299.669324368</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9587,7 +9759,7 @@
         <v>5865323.118024368</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9620,7 +9792,7 @@
         <v>5709170.783924368</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9653,7 +9825,7 @@
         <v>5709370.783924368</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9686,7 +9858,7 @@
         <v>5386010.084024368</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9719,7 +9891,7 @@
         <v>5386232.187724368</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9752,7 +9924,7 @@
         <v>5386488.870824368</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9785,7 +9957,7 @@
         <v>5385081.603424367</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9818,7 +9990,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9851,7 +10023,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9884,7 +10056,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9917,7 +10089,7 @@
         <v>5411365.862224367</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9950,7 +10122,7 @@
         <v>5361365.862224367</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9983,7 +10155,7 @@
         <v>5284719.503424368</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10016,7 +10188,7 @@
         <v>5308188.387124368</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10049,7 +10221,7 @@
         <v>5312277.659824368</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10082,7 +10254,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10115,7 +10287,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10148,7 +10320,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10181,7 +10353,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10214,7 +10386,7 @@
         <v>4749909.951024367</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10247,7 +10419,7 @@
         <v>4749508.129424367</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10280,7 +10452,7 @@
         <v>4744245.164024367</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10313,7 +10485,7 @@
         <v>4744983.558624367</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10346,7 +10518,7 @@
         <v>4860592.175124368</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10379,7 +10551,7 @@
         <v>4860592.175124368</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10412,7 +10584,7 @@
         <v>4561303.151124367</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10445,7 +10617,7 @@
         <v>5010630.285224368</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10511,7 +10683,7 @@
         <v>4932333.172624368</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10544,7 +10716,7 @@
         <v>4929975.095724368</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10610,7 +10782,7 @@
         <v>4904935.949124368</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10643,7 +10815,7 @@
         <v>4902425.596024368</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10676,7 +10848,7 @@
         <v>4904935.949124368</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10709,7 +10881,7 @@
         <v>4959422.232924368</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10742,7 +10914,7 @@
         <v>4956793.062424368</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10775,7 +10947,7 @@
         <v>4756986.319824368</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10808,7 +10980,7 @@
         <v>4762039.429724367</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10841,7 +11013,7 @@
         <v>4764671.820824367</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10874,7 +11046,7 @@
         <v>4764671.820824367</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10907,7 +11079,7 @@
         <v>4764753.479824367</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10940,7 +11112,7 @@
         <v>5172536.958124367</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10973,7 +11145,7 @@
         <v>5172616.617124367</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11006,7 +11178,7 @@
         <v>5319739.113924366</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11138,7 +11310,7 @@
         <v>5431739.738324367</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11270,7 +11442,7 @@
         <v>5253632.050224367</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11303,7 +11475,7 @@
         <v>5253632.050224367</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11336,7 +11508,7 @@
         <v>5333659.752724366</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11369,7 +11541,7 @@
         <v>4422053.998524366</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11402,7 +11574,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11435,7 +11607,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11468,7 +11640,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11501,7 +11673,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11534,7 +11706,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11567,7 +11739,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11600,7 +11772,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11633,7 +11805,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11666,7 +11838,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11699,7 +11871,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11732,7 +11904,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11765,7 +11937,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11798,7 +11970,7 @@
         <v>4468268.695524367</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11831,7 +12003,7 @@
         <v>4475501.437524366</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11864,7 +12036,7 @@
         <v>4435501.437524366</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11897,7 +12069,7 @@
         <v>4328356.464724367</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11996,7 +12168,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12095,7 +12267,7 @@
         <v>3347138.972324366</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12590,7 +12762,7 @@
         <v>2972911.386124366</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12623,7 +12795,7 @@
         <v>2972911.386124366</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12689,7 +12861,7 @@
         <v>2889658.512724366</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12722,7 +12894,7 @@
         <v>2897313.410424366</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12755,7 +12927,7 @@
         <v>2988086.479124366</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12788,7 +12960,7 @@
         <v>3149914.087510331</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12821,7 +12993,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12854,7 +13026,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12887,7 +13059,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12920,7 +13092,7 @@
         <v>2931592.005410331</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12953,7 +13125,7 @@
         <v>2939117.274210331</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12986,7 +13158,7 @@
         <v>2926449.624910331</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13052,7 +13224,7 @@
         <v>2926449.624910331</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13184,7 +13356,7 @@
         <v>2917305.158110331</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13217,7 +13389,7 @@
         <v>2917305.158110331</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13250,7 +13422,7 @@
         <v>2917466.059810331</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13283,7 +13455,7 @@
         <v>2935153.612710331</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13316,7 +13488,7 @@
         <v>2935153.612710331</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13327,6 +13499,6 @@
       <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest VET.xlsx
+++ b/BackTest/2019-11-24 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2068,14 +2068,10 @@
         <v>-80955.6489918705</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2105,1244 +2101,1068 @@
         <v>-131955.6489918705</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F53" t="n">
+        <v>160574.1791</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-292529.8280918705</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7026.3456</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-285503.4824918705</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15413.1913</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-270090.2911918705</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>5.97</v>
       </c>
-      <c r="J52" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K52" t="inlineStr">
+      <c r="C56" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7563.6687</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-262526.6224918705</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F57" t="n">
+        <v>287117.4304</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-549644.0528918705</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F58" t="n">
+        <v>258059.8571</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-549644.0528918705</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F59" t="n">
+        <v>93018.1851</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-642662.2379918705</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F60" t="n">
+        <v>143251.6703</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-499410.5676918705</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F61" t="n">
+        <v>362852.4755</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-499410.5676918705</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F62" t="n">
+        <v>165700.9144</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-665111.4820918705</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F63" t="n">
+        <v>357653.2507</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-307458.2313918705</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F64" t="n">
+        <v>48041.5637</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-307458.2313918705</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F65" t="n">
+        <v>19236.3313</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-288221.9000918705</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F66" t="n">
+        <v>292924.3756</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-581146.2756918706</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F67" t="n">
+        <v>878.5171</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-580267.7585918705</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F68" t="n">
+        <v>447380.6059</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1027648.364491871</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5047.1271</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1027648.364491871</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2994.3898</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1030642.754291871</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2829.9587</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1030642.754291871</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F72" t="n">
+        <v>44127</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1074769.754291871</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>133395.1749</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1208164.929191871</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>410.64</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1208164.929191871</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F75" t="n">
+        <v>766718.6736</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1974883.60279187</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F76" t="n">
+        <v>764.6931</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1975648.295891871</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F77" t="n">
+        <v>29167.6225</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1946480.67339187</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5404.7728</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1946480.67339187</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6757.2823</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1939723.39109187</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C53" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="D53" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="F53" t="n">
-        <v>160574.1791</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-292529.8280918705</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K53" t="inlineStr">
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2786.8158</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1942510.20689187</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F81" t="n">
+        <v>63435.5195</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2005945.72639187</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10484.8423</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2005945.72639187</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F83" t="n">
+        <v>861622.295</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-2867568.02139187</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C54" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D54" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F54" t="n">
-        <v>7026.3456</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-285503.4824918705</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D55" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F55" t="n">
-        <v>15413.1913</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-270090.2911918705</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C56" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D56" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E56" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7563.6687</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-262526.6224918705</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F57" t="n">
-        <v>287117.4304</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-549644.0528918705</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F58" t="n">
-        <v>258059.8571</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-549644.0528918705</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C59" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D59" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E59" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F59" t="n">
-        <v>93018.1851</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-642662.2379918705</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C60" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F60" t="n">
-        <v>143251.6703</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-499410.5676918705</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C61" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E61" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F61" t="n">
-        <v>362852.4755</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-499410.5676918705</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F62" t="n">
-        <v>165700.9144</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-665111.4820918705</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="C63" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D63" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E63" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="F63" t="n">
-        <v>357653.2507</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-307458.2313918705</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C64" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D64" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E64" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F64" t="n">
-        <v>48041.5637</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-307458.2313918705</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C65" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D65" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E65" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F65" t="n">
-        <v>19236.3313</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-288221.9000918705</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F66" t="n">
-        <v>292924.3756</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-581146.2756918706</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C67" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D67" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E67" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F67" t="n">
-        <v>878.5171</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-580267.7585918705</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C68" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D68" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E68" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F68" t="n">
-        <v>447380.6059</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1027648.364491871</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D69" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E69" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F69" t="n">
-        <v>5047.1271</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1027648.364491871</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C70" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D70" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E70" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2994.3898</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1030642.754291871</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C71" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D71" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E71" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2829.9587</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1030642.754291871</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="E72" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F72" t="n">
-        <v>44127</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1074769.754291871</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="C73" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D73" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F73" t="n">
-        <v>133395.1749</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1208164.929191871</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C74" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D74" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E74" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>410.64</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1208164.929191871</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C75" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D75" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E75" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F75" t="n">
-        <v>766718.6736</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1974883.60279187</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D76" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E76" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F76" t="n">
-        <v>764.6931</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1975648.295891871</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C77" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D77" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E77" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F77" t="n">
-        <v>29167.6225</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1946480.67339187</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C78" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D78" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F78" t="n">
-        <v>5404.7728</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1946480.67339187</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C79" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>6757.2823</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-1939723.39109187</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C80" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D80" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2786.8158</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-1942510.20689187</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C81" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D81" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E81" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F81" t="n">
-        <v>63435.5195</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-2005945.72639187</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C82" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D82" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E82" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F82" t="n">
-        <v>10484.8423</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-2005945.72639187</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C83" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="D83" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E83" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F83" t="n">
-        <v>861622.295</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-2867568.02139187</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J83" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3371,13 +3191,11 @@
         <v>-2897746.613191871</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3412,11 +3230,13 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J85" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3457,7 +3277,7 @@
         <v>5.87</v>
       </c>
       <c r="J86" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3492,13 +3312,11 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3539,7 +3357,7 @@
         <v>5.87</v>
       </c>
       <c r="J88" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3580,7 +3398,7 @@
         <v>5.85</v>
       </c>
       <c r="J89" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3621,7 +3439,7 @@
         <v>5.85</v>
       </c>
       <c r="J90" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3662,7 +3480,7 @@
         <v>5.85</v>
       </c>
       <c r="J91" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3703,7 +3521,7 @@
         <v>5.87</v>
       </c>
       <c r="J92" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3744,7 +3562,7 @@
         <v>5.88</v>
       </c>
       <c r="J93" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3785,7 +3603,7 @@
         <v>5.89</v>
       </c>
       <c r="J94" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3826,7 +3644,7 @@
         <v>5.87</v>
       </c>
       <c r="J95" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3867,7 +3685,7 @@
         <v>5.87</v>
       </c>
       <c r="J96" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3908,7 +3726,7 @@
         <v>5.9</v>
       </c>
       <c r="J97" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3949,7 +3767,7 @@
         <v>5.9</v>
       </c>
       <c r="J98" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3984,13 +3802,11 @@
         <v>-1443949.12429187</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4031,7 +3847,7 @@
         <v>5.9</v>
       </c>
       <c r="J100" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4066,11 +3882,13 @@
         <v>-1449674.05509187</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5.94</v>
+      </c>
       <c r="J101" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4111,7 +3929,7 @@
         <v>5.93</v>
       </c>
       <c r="J102" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4146,13 +3964,11 @@
         <v>-1446674.05509187</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4193,7 +4009,7 @@
         <v>5.94</v>
       </c>
       <c r="J104" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4228,13 +4044,11 @@
         <v>-1380814.73669187</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>5.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4269,13 +4083,11 @@
         <v>-1375864.26239187</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>5.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4310,13 +4122,11 @@
         <v>-1375864.26239187</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>5.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4351,13 +4161,11 @@
         <v>-1374612.33709187</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4396,7 +4204,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4435,7 +4243,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4470,13 +4278,11 @@
         <v>-1373612.33709187</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4511,13 +4317,11 @@
         <v>-1373612.33709187</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4556,7 +4360,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4595,7 +4399,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4634,7 +4438,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4669,11 +4473,13 @@
         <v>-1487863.827691871</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6</v>
+      </c>
       <c r="J116" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4708,11 +4514,13 @@
         <v>-1456092.08129187</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J117" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4747,11 +4555,13 @@
         <v>-1355999.36959187</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>6.02</v>
+      </c>
       <c r="J118" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4790,7 +4600,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4829,7 +4639,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4868,7 +4678,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4907,7 +4717,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4946,7 +4756,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4985,7 +4795,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5024,7 +4834,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5063,7 +4873,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5102,7 +4912,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5141,7 +4951,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5180,7 +4990,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5219,7 +5029,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5258,7 +5068,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5297,7 +5107,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5336,7 +5146,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5375,7 +5185,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5410,21 +5220,23 @@
         <v>-1748210.267885807</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>1.064609507640068</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.051282051282051</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5452,14 +5264,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5488,17 +5294,11 @@
         <v>-1843733.291385806</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5530,14 +5330,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5569,14 +5363,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5608,14 +5396,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +5429,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5686,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5725,14 +5495,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5764,14 +5528,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5803,14 +5561,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5842,14 +5594,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5881,14 +5627,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +5660,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5959,14 +5693,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5726,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6037,14 +5759,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6076,14 +5792,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6112,17 +5822,11 @@
         <v>-530408.6383858062</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6151,17 +5855,11 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6190,17 +5888,11 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6229,17 +5921,11 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6268,17 +5954,11 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6307,17 +5987,11 @@
         <v>-535519.6399756314</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6349,14 +6023,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6385,17 +6053,11 @@
         <v>-220680.2005756314</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6424,17 +6086,11 @@
         <v>-143218.0342756314</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6463,17 +6119,11 @@
         <v>-143218.0342756314</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6502,17 +6152,11 @@
         <v>133837.8105243686</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6541,17 +6185,11 @@
         <v>138041.8592243686</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6580,17 +6218,11 @@
         <v>188041.8592243686</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6619,17 +6251,11 @@
         <v>1141063.405024369</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6658,17 +6284,11 @@
         <v>2086965.554224369</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6697,17 +6317,11 @@
         <v>1993572.769124369</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6736,17 +6350,11 @@
         <v>1899752.730824369</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6778,14 +6386,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6817,14 +6419,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6856,14 +6452,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6895,14 +6485,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +6518,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +6551,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7012,14 +6584,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7051,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7090,14 +6650,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7129,14 +6683,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7168,14 +6716,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7207,14 +6749,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7246,14 +6782,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7285,14 +6815,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7324,14 +6848,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7363,14 +6881,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7402,14 +6914,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7441,14 +6947,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7480,14 +6980,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7519,14 +7013,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7558,14 +7046,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7597,14 +7079,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7636,14 +7112,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7675,14 +7145,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7714,14 +7178,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7753,14 +7211,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7792,14 +7244,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7831,14 +7277,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7867,17 +7307,11 @@
         <v>3301731.794824368</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7906,17 +7340,11 @@
         <v>3301731.794824368</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7945,17 +7373,11 @@
         <v>3296650.855724368</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7984,17 +7406,11 @@
         <v>3251647.214024368</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8023,17 +7439,11 @@
         <v>3126445.723624368</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8065,14 +7475,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8104,14 +7508,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8143,14 +7541,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8182,14 +7574,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8221,14 +7607,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8260,14 +7640,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8299,14 +7673,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8338,14 +7706,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8377,14 +7739,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8416,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8455,14 +7805,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8494,14 +7838,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8533,14 +7871,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8572,14 +7904,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8611,14 +7937,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8650,14 +7970,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8689,14 +8003,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8728,14 +8036,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8767,14 +8069,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8806,14 +8102,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8845,14 +8135,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8884,14 +8168,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8923,14 +8201,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8962,14 +8234,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9001,14 +8267,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9040,14 +8300,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9079,14 +8333,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9118,14 +8366,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9157,14 +8399,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9196,14 +8432,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9235,14 +8465,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9274,14 +8498,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9313,14 +8531,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9352,14 +8564,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9388,23 +8594,15 @@
         <v>5809330.953824369</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>1.118745819397993</v>
-      </c>
-      <c r="M237" t="n">
-        <v>1.033613445378151</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9693,7 +8891,7 @@
         <v>5937299.669324368</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9759,7 +8957,7 @@
         <v>5865323.118024368</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9792,7 +8990,7 @@
         <v>5709170.783924368</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9825,7 +9023,7 @@
         <v>5709370.783924368</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9858,7 +9056,7 @@
         <v>5386010.084024368</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9891,7 +9089,7 @@
         <v>5386232.187724368</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9924,7 +9122,7 @@
         <v>5386488.870824368</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9990,7 +9188,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10023,7 +9221,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10056,7 +9254,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10089,7 +9287,7 @@
         <v>5411365.862224367</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10122,7 +9320,7 @@
         <v>5361365.862224367</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10155,7 +9353,7 @@
         <v>5284719.503424368</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10188,7 +9386,7 @@
         <v>5308188.387124368</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10221,7 +9419,7 @@
         <v>5312277.659824368</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10254,7 +9452,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10287,7 +9485,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10320,7 +9518,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10353,7 +9551,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10386,7 +9584,7 @@
         <v>4749909.951024367</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10419,7 +9617,7 @@
         <v>4749508.129424367</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10452,7 +9650,7 @@
         <v>4744245.164024367</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10485,7 +9683,7 @@
         <v>4744983.558624367</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10617,7 +9815,7 @@
         <v>5010630.285224368</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10683,7 +9881,7 @@
         <v>4932333.172624368</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10716,7 +9914,7 @@
         <v>4929975.095724368</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10782,7 +9980,7 @@
         <v>4904935.949124368</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10815,7 +10013,7 @@
         <v>4902425.596024368</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10848,7 +10046,7 @@
         <v>4904935.949124368</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10881,7 +10079,7 @@
         <v>4959422.232924368</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10914,7 +10112,7 @@
         <v>4956793.062424368</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10947,7 +10145,7 @@
         <v>4756986.319824368</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10980,7 +10178,7 @@
         <v>4762039.429724367</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11013,7 +10211,7 @@
         <v>4764671.820824367</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11046,7 +10244,7 @@
         <v>4764671.820824367</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11079,7 +10277,7 @@
         <v>4764753.479824367</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11112,7 +10310,7 @@
         <v>5172536.958124367</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11145,7 +10343,7 @@
         <v>5172616.617124367</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11541,7 +10739,7 @@
         <v>4422053.998524366</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11574,7 +10772,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11607,7 +10805,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11640,7 +10838,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11673,7 +10871,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11706,7 +10904,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11739,7 +10937,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11772,7 +10970,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11805,7 +11003,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11838,7 +11036,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11871,7 +11069,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11904,7 +11102,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11937,7 +11135,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11970,7 +11168,7 @@
         <v>4468268.695524367</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12003,7 +11201,7 @@
         <v>4475501.437524366</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12036,7 +11234,7 @@
         <v>4435501.437524366</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12069,7 +11267,7 @@
         <v>4328356.464724367</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12168,7 +11366,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12762,7 +11960,7 @@
         <v>2972911.386124366</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12795,7 +11993,7 @@
         <v>2972911.386124366</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12861,7 +12059,7 @@
         <v>2889658.512724366</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12894,7 +12092,7 @@
         <v>2897313.410424366</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12927,7 +12125,7 @@
         <v>2988086.479124366</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12960,7 +12158,7 @@
         <v>3149914.087510331</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12993,7 +12191,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13026,7 +12224,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13059,7 +12257,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13092,7 +12290,7 @@
         <v>2931592.005410331</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13125,7 +12323,7 @@
         <v>2939117.274210331</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13158,7 +12356,7 @@
         <v>2926449.624910331</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13224,7 +12422,7 @@
         <v>2926449.624910331</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13356,7 +12554,7 @@
         <v>2917305.158110331</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13389,7 +12587,7 @@
         <v>2917305.158110331</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13422,7 +12620,7 @@
         <v>2917466.059810331</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13455,7 +12653,7 @@
         <v>2935153.612710331</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13488,7 +12686,7 @@
         <v>2935153.612710331</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13499,6 +12697,6 @@
       <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest VET.xlsx
+++ b/BackTest/2019-11-24 BackTest VET.xlsx
@@ -2959,14 +2959,10 @@
         <v>-1946480.67339187</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
@@ -2999,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3038,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3074,14 +3058,10 @@
         <v>-2005945.72639187</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3111,19 +3091,11 @@
         <v>-2005945.72639187</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3155,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3194,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3230,19 +3190,11 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3271,19 +3223,11 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J86" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3315,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3351,19 +3289,11 @@
         <v>-2715599.30519187</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3392,19 +3322,11 @@
         <v>-2715599.30519187</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="J89" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3439,13 +3361,9 @@
         <v>5.85</v>
       </c>
       <c r="J90" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.85</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3480,11 +3398,11 @@
         <v>5.85</v>
       </c>
       <c r="J91" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3515,17 +3433,15 @@
         <v>-2287595.08349187</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3556,13 +3472,11 @@
         <v>-2189349.16739187</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3597,13 +3511,11 @@
         <v>-2191381.75119187</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3638,13 +3550,11 @@
         <v>-2191381.75119187</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3685,7 +3595,7 @@
         <v>5.87</v>
       </c>
       <c r="J96" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3726,7 +3636,7 @@
         <v>5.9</v>
       </c>
       <c r="J97" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3767,7 +3677,7 @@
         <v>5.9</v>
       </c>
       <c r="J98" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3806,7 +3716,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3841,13 +3751,11 @@
         <v>-1443069.92339187</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3882,13 +3790,11 @@
         <v>-1449674.05509187</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3923,13 +3829,11 @@
         <v>-1446674.05509187</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3964,11 +3868,13 @@
         <v>-1446674.05509187</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>5.94</v>
+      </c>
       <c r="J103" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4009,7 +3915,7 @@
         <v>5.94</v>
       </c>
       <c r="J104" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4044,11 +3950,13 @@
         <v>-1380814.73669187</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J105" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4083,11 +3991,13 @@
         <v>-1375864.26239187</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J106" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4126,7 +4036,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4165,7 +4075,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4204,7 +4114,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4243,7 +4153,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4282,7 +4192,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4321,7 +4231,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4356,11 +4266,13 @@
         <v>-1456912.39409187</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6</v>
+      </c>
       <c r="J113" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4399,7 +4311,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4438,7 +4350,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4473,13 +4385,11 @@
         <v>-1487863.827691871</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4514,13 +4424,11 @@
         <v>-1456092.08129187</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4555,13 +4463,11 @@
         <v>-1355999.36959187</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>6.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4600,7 +4506,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4639,7 +4545,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4678,7 +4584,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4717,7 +4623,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4756,7 +4662,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4795,7 +4701,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4834,7 +4740,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4873,7 +4779,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4912,7 +4818,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4951,7 +4857,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4990,7 +4896,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5029,7 +4935,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5068,7 +4974,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5107,7 +5013,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5146,7 +5052,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5185,7 +5091,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5220,23 +5126,21 @@
         <v>-1748210.267885807</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.064609507640068</v>
-      </c>
-      <c r="M135" t="n">
-        <v>1.051282051282051</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5264,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5294,11 +5204,17 @@
         <v>-1843733.291385806</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5330,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5363,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5396,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5429,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5495,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5528,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5561,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5594,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5627,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5660,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5693,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5726,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5759,8 +5753,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5792,8 +5792,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5822,11 +5828,17 @@
         <v>-530408.6383858062</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +5867,17 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5888,11 +5906,17 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5945,17 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5954,11 +5984,17 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5987,11 +6023,17 @@
         <v>-535519.6399756314</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6023,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6053,11 +6101,17 @@
         <v>-220680.2005756314</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6086,11 +6140,17 @@
         <v>-143218.0342756314</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +6179,17 @@
         <v>-143218.0342756314</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6152,11 +6218,17 @@
         <v>133837.8105243686</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6185,11 +6257,17 @@
         <v>138041.8592243686</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6218,11 +6296,17 @@
         <v>188041.8592243686</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6251,11 +6335,17 @@
         <v>1141063.405024369</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6284,11 +6374,17 @@
         <v>2086965.554224369</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6317,11 +6413,17 @@
         <v>1993572.769124369</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6350,11 +6452,17 @@
         <v>1899752.730824369</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6386,8 +6494,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6419,8 +6533,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6452,8 +6572,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6485,8 +6611,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6518,8 +6650,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6551,8 +6689,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6584,8 +6728,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6767,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6650,8 +6806,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6683,8 +6845,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6716,8 +6884,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6749,8 +6923,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6782,8 +6962,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6815,8 +7001,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6848,8 +7040,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6881,8 +7079,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6914,8 +7118,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6947,8 +7157,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6980,8 +7196,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7013,8 +7235,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7046,8 +7274,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7079,8 +7313,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7112,8 +7352,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7145,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7178,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7211,8 +7469,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7244,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7277,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7307,11 +7583,17 @@
         <v>3301731.794824368</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7340,11 +7622,17 @@
         <v>3301731.794824368</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7373,11 +7661,17 @@
         <v>3296650.855724368</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7406,11 +7700,17 @@
         <v>3251647.214024368</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7439,11 +7739,17 @@
         <v>3126445.723624368</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7475,8 +7781,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7508,8 +7820,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7541,8 +7859,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7574,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7607,8 +7937,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7640,8 +7976,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7673,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7706,8 +8054,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7739,8 +8093,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +8132,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7805,8 +8171,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7838,8 +8210,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7871,8 +8249,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7904,8 +8288,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7937,8 +8327,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7970,8 +8366,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8003,8 +8405,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8036,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8069,8 +8483,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8102,8 +8522,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8135,8 +8561,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8168,8 +8600,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8201,8 +8639,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8234,8 +8678,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8267,8 +8717,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8300,8 +8756,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8333,8 +8795,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8366,8 +8834,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8399,8 +8873,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8432,8 +8912,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8465,8 +8951,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8498,8 +8990,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8531,8 +9029,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8564,8 +9068,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8597,8 +9107,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8630,8 +9146,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8660,15 +9182,23 @@
         <v>6091084.135124369</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>1.143717948717949</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1.053082191780822</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8693,7 +9223,7 @@
         <v>6153692.335624369</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8726,7 +9256,7 @@
         <v>6105241.225024369</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8759,7 +9289,7 @@
         <v>6102620.208524369</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8792,7 +9322,7 @@
         <v>6297515.023224369</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8825,7 +9355,7 @@
         <v>6297515.023224369</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8858,7 +9388,7 @@
         <v>6300879.408324368</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8891,7 +9421,7 @@
         <v>5937299.669324368</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8924,7 +9454,7 @@
         <v>5865248.118024368</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8957,7 +9487,7 @@
         <v>5865323.118024368</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8990,7 +9520,7 @@
         <v>5709170.783924368</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9023,7 +9553,7 @@
         <v>5709370.783924368</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9056,7 +9586,7 @@
         <v>5386010.084024368</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9089,7 +9619,7 @@
         <v>5386232.187724368</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9122,7 +9652,7 @@
         <v>5386488.870824368</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9155,7 +9685,7 @@
         <v>5385081.603424367</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9221,7 +9751,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9254,7 +9784,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9287,7 +9817,7 @@
         <v>5411365.862224367</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9320,7 +9850,7 @@
         <v>5361365.862224367</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9353,7 +9883,7 @@
         <v>5284719.503424368</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9386,7 +9916,7 @@
         <v>5308188.387124368</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9419,7 +9949,7 @@
         <v>5312277.659824368</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9452,7 +9982,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9485,7 +10015,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9518,7 +10048,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9551,7 +10081,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9584,7 +10114,7 @@
         <v>4749909.951024367</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9617,7 +10147,7 @@
         <v>4749508.129424367</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10277,7 +10807,7 @@
         <v>4764753.479824367</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10310,7 +10840,7 @@
         <v>5172536.958124367</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10343,7 +10873,7 @@
         <v>5172616.617124367</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10376,7 +10906,7 @@
         <v>5319739.113924366</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10409,7 +10939,7 @@
         <v>5319739.113924366</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10442,7 +10972,7 @@
         <v>5320105.465524366</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10475,7 +11005,7 @@
         <v>5320105.465524366</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10508,7 +11038,7 @@
         <v>5431739.738324367</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10541,7 +11071,7 @@
         <v>5440606.239524366</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10574,7 +11104,7 @@
         <v>5427678.414824367</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10607,7 +11137,7 @@
         <v>5369177.999724367</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10640,7 +11170,7 @@
         <v>5253632.050224367</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10673,7 +11203,7 @@
         <v>5253632.050224367</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10706,7 +11236,7 @@
         <v>5333659.752724366</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10739,7 +11269,7 @@
         <v>4422053.998524366</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10772,7 +11302,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10805,7 +11335,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10838,7 +11368,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10871,7 +11401,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10904,7 +11434,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10970,7 +11500,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11003,7 +11533,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11036,7 +11566,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11069,7 +11599,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11102,7 +11632,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11135,7 +11665,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11168,7 +11698,7 @@
         <v>4468268.695524367</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11201,7 +11731,7 @@
         <v>4475501.437524366</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11234,7 +11764,7 @@
         <v>4435501.437524366</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11267,7 +11797,7 @@
         <v>4328356.464724367</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11300,7 +11830,7 @@
         <v>3940632.394524367</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11333,7 +11863,7 @@
         <v>3943148.830224366</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11366,7 +11896,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11399,7 +11929,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11432,7 +11962,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11465,7 +11995,7 @@
         <v>3347138.972324366</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11498,7 +12028,7 @@
         <v>2748718.495124366</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11531,7 +12061,7 @@
         <v>2755990.481624366</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12158,7 +12688,7 @@
         <v>3149914.087510331</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12191,7 +12721,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12224,7 +12754,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12257,7 +12787,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12290,7 +12820,7 @@
         <v>2931592.005410331</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
